--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470FC35-AABB-4115-8EC4-E4BE0D551EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4670619-C442-4641-B700-FCD208DE67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Renzi</t>
   </si>
   <si>
-    <t>Cortland Produce</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>Hoffmire Farms</t>
+  </si>
+  <si>
+    <t>Cortland Produce Inc.</t>
   </si>
 </sst>
 </file>
@@ -806,6 +806,9 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,9 +845,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1171,7 +1171,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T1"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,120 +1202,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="52" t="s">
+      <c r="V1" s="58"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="50"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="49"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="P2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="Q2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="U2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10"/>
       <c r="Q3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="30"/>
@@ -1326,19 +1326,19 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10"/>
       <c r="N4" s="16"/>
       <c r="O4" s="29"/>
       <c r="Q4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="30"/>
       <c r="T4" s="32"/>
       <c r="U4" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4" s="41"/>
       <c r="W4" s="35"/>
@@ -1346,12 +1346,12 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="10"/>
       <c r="H5" s="24"/>
       <c r="Q5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="30"/>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="44"/>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="10">
         <v>74966</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="O7" s="29"/>
       <c r="Q7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="30"/>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="O8" s="29"/>
       <c r="Q8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="30"/>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="44"/>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="44"/>
@@ -1509,7 +1509,7 @@
       <c r="O10" s="29"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R10" s="14"/>
       <c r="S10" s="30"/>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="10">
         <v>78516</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="O11" s="29"/>
       <c r="Q11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="30"/>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="10"/>
       <c r="H12" s="24"/>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="44"/>
@@ -1590,7 +1590,7 @@
       <c r="O13" s="29"/>
       <c r="P13" s="47"/>
       <c r="Q13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="14"/>
       <c r="S13" s="30"/>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="10">
         <v>75104</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="K14" s="45"/>
       <c r="Q14" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R14" s="14"/>
       <c r="S14" s="30"/>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="44"/>
@@ -1651,7 +1651,7 @@
       <c r="O15" s="29"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R15" s="14"/>
       <c r="S15" s="30"/>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F16" s="11"/>
       <c r="H16" s="24"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="10">
         <v>78270</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="O17" s="29"/>
       <c r="Q17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R17" s="14"/>
       <c r="S17" s="30"/>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="10">
         <v>78112</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="O18" s="29"/>
       <c r="Q18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R18" s="14"/>
       <c r="S18" s="30"/>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="44"/>
@@ -1765,7 +1765,7 @@
       <c r="O19" s="29"/>
       <c r="P19" s="36"/>
       <c r="Q19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R19" s="14"/>
       <c r="S19" s="30"/>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10">
         <v>77264</v>
@@ -1793,7 +1793,7 @@
       <c r="K20" s="45"/>
       <c r="L20" s="46"/>
       <c r="Q20" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R20" s="14"/>
       <c r="S20" s="30"/>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="44"/>
@@ -1827,7 +1827,7 @@
       <c r="O21" s="29"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R21" s="14"/>
       <c r="S21" s="30"/>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="44"/>
@@ -1861,7 +1861,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="32"/>
       <c r="U22" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V22" s="42"/>
       <c r="W22" s="35"/>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="44"/>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="10">
         <v>76346</v>
@@ -1908,7 +1908,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="25"/>
       <c r="Q24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R24" s="14"/>
       <c r="S24" s="30"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="10">
         <v>78922</v>
@@ -1940,7 +1940,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R25" s="14"/>
       <c r="S25" s="30"/>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="10"/>
       <c r="H26" s="24"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="10">
         <v>74968</v>
@@ -1980,7 +1980,7 @@
       <c r="K27" s="45"/>
       <c r="L27" s="46"/>
       <c r="Q27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R27" s="14"/>
       <c r="S27" s="30"/>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="10">
         <v>75736</v>
@@ -2014,7 +2014,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R28" s="14"/>
       <c r="S28" s="30"/>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="10"/>
       <c r="H29" s="24"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="10"/>
       <c r="H30" s="24"/>
@@ -2064,7 +2064,7 @@
       <c r="O30" s="29"/>
       <c r="P30" s="36"/>
       <c r="Q30" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="30"/>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="10">
         <v>77662</v>
@@ -2089,7 +2089,7 @@
       <c r="K31" s="45"/>
       <c r="L31" s="46"/>
       <c r="Q31" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R31" s="14"/>
       <c r="S31" s="30"/>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="10">
         <v>78414</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="O32" s="29"/>
       <c r="Q32" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R32" s="14"/>
       <c r="S32" s="30"/>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="10">
         <v>78294</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="O33" s="29"/>
       <c r="Q33" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R33" s="14"/>
       <c r="S33" s="30"/>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="44"/>
@@ -2187,7 +2187,7 @@
       <c r="O34" s="29"/>
       <c r="P34" s="36"/>
       <c r="Q34" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="30"/>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="44"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="10">
         <v>16146</v>
@@ -2248,13 +2248,13 @@
       <c r="O36" s="29"/>
       <c r="P36" s="36"/>
       <c r="Q36" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R36" s="14"/>
       <c r="S36" s="30"/>
       <c r="T36" s="32"/>
       <c r="U36" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V36" s="42"/>
       <c r="W36" s="35"/>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="10">
         <v>34298</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="O37" s="29"/>
       <c r="Q37" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R37" s="14"/>
       <c r="S37" s="30"/>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="10">
         <v>20478</v>
@@ -2314,7 +2314,7 @@
       <c r="O38" s="29"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R38" s="14"/>
       <c r="S38" s="30"/>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="44"/>
@@ -2348,7 +2348,7 @@
       <c r="O39" s="29"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="30"/>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="10">
         <v>20340</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="44"/>
@@ -2407,7 +2407,7 @@
       <c r="O41" s="29"/>
       <c r="P41" s="36"/>
       <c r="Q41" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R41" s="14"/>
       <c r="S41" s="30"/>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="44"/>
@@ -2440,10 +2440,10 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="44"/>
@@ -2460,7 +2460,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="36"/>
       <c r="Q43" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R43" s="14"/>
       <c r="S43" s="30"/>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="44"/>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="44"/>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="10">
         <v>75778</v>
@@ -2542,7 +2542,7 @@
       <c r="K46" s="18"/>
       <c r="L46" s="27"/>
       <c r="Q46" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R46" s="14"/>
       <c r="S46" s="30"/>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="44"/>
@@ -2571,7 +2571,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="36"/>
       <c r="Q47" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R47" s="14"/>
       <c r="S47" s="30"/>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="44"/>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="10">
         <v>70646</v>
@@ -2626,7 +2626,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="36"/>
       <c r="Q49" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R49" s="14"/>
       <c r="S49" s="30"/>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="39"/>
       <c r="E50" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="44"/>
@@ -2658,7 +2658,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R50" s="14"/>
       <c r="S50" s="30"/>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2683,7 +2683,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="29"/>
       <c r="Q51" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R51" s="14"/>
       <c r="S51" s="30"/>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="10">
         <v>75336</v>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="44"/>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="44"/>
@@ -2764,7 +2764,7 @@
       <c r="O54" s="29"/>
       <c r="P54" s="36"/>
       <c r="Q54" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R54" s="14"/>
       <c r="S54" s="30"/>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E55" s="10">
         <v>75690</v>
@@ -2798,7 +2798,7 @@
       <c r="O55" s="29"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R55" s="14"/>
       <c r="S55" s="30"/>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="44"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E57" s="10">
         <v>77278</v>
@@ -2834,7 +2834,7 @@
       <c r="G57" s="44"/>
       <c r="H57" s="25"/>
       <c r="Q57" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="30"/>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="44"/>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="O58" s="29"/>
       <c r="Q58" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R58" s="14"/>
       <c r="S58" s="30"/>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="10">
         <v>34768</v>
@@ -2900,7 +2900,7 @@
       <c r="O59" s="29"/>
       <c r="P59" s="36"/>
       <c r="Q59" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R59" s="14"/>
       <c r="S59" s="30"/>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="44"/>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="10">
         <v>78025</v>
@@ -2952,7 +2952,7 @@
       <c r="K61" s="45"/>
       <c r="L61" s="46"/>
       <c r="Q61" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R61" s="14"/>
       <c r="S61" s="30"/>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="44"/>
@@ -2986,7 +2986,7 @@
       <c r="O62" s="29"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R62" s="14"/>
       <c r="S62" s="30"/>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="44"/>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="10">
         <v>93004</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="44"/>
@@ -3052,7 +3052,7 @@
       <c r="O65" s="29"/>
       <c r="P65" s="36"/>
       <c r="Q65" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R65" s="14"/>
       <c r="S65" s="30"/>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="44"/>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="10">
         <v>39142</v>
@@ -3113,7 +3113,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="29"/>
       <c r="Q67" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R67" s="14"/>
       <c r="S67" s="30"/>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E68" s="10">
         <v>78424</v>
@@ -3143,7 +3143,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="29"/>
       <c r="Q68" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R68" s="14"/>
       <c r="S68" s="30"/>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" s="10">
         <v>75310</v>
@@ -3171,7 +3171,7 @@
       <c r="K69" s="45"/>
       <c r="L69" s="46"/>
       <c r="Q69" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R69" s="14"/>
       <c r="S69" s="30"/>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="44"/>
       <c r="H70" s="25"/>
       <c r="Q70" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R70" s="14"/>
       <c r="S70" s="30"/>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71" s="10">
         <v>76800</v>
@@ -3228,7 +3228,7 @@
       <c r="O71" s="29"/>
       <c r="P71" s="36"/>
       <c r="Q71" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R71" s="14"/>
       <c r="S71" s="30"/>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="44"/>
@@ -3262,7 +3262,7 @@
       <c r="O72" s="29"/>
       <c r="P72" s="36"/>
       <c r="Q72" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R72" s="14"/>
       <c r="S72" s="30"/>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E73" s="10">
         <v>74844</v>
@@ -3295,7 +3295,7 @@
       <c r="O73" s="29"/>
       <c r="P73" s="36"/>
       <c r="Q73" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R73" s="14"/>
       <c r="S73" s="30"/>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E74" s="10">
         <v>78126</v>
@@ -3329,7 +3329,7 @@
       <c r="O74" s="29"/>
       <c r="P74" s="36"/>
       <c r="Q74" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R74" s="14"/>
       <c r="S74" s="30"/>

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4670619-C442-4641-B700-FCD208DE67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45432655-DAB5-41E7-8128-445FA7CCE76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="138">
   <si>
     <t>Item</t>
   </si>
@@ -60,24 +60,15 @@
     <t>Alfalfa Sprouts</t>
   </si>
   <si>
-    <t>Sprouts - Alfalfa 1lb</t>
-  </si>
-  <si>
     <t>Apple Cider</t>
   </si>
   <si>
-    <t>Apple Cider (Gal) 1gal</t>
-  </si>
-  <si>
     <t>027398</t>
   </si>
   <si>
     <t xml:space="preserve">Apple Empire </t>
   </si>
   <si>
-    <t>Apple Red - Fresh 40lb</t>
-  </si>
-  <si>
     <t>Arugula Baby</t>
   </si>
   <si>
@@ -87,18 +78,12 @@
     <t>Bananas</t>
   </si>
   <si>
-    <t>Banana - Fresh 40lb</t>
-  </si>
-  <si>
     <t>Basil (Cleaned)</t>
   </si>
   <si>
     <t>CK134</t>
   </si>
   <si>
-    <t>Herb - Basil (Fresh) 1lb</t>
-  </si>
-  <si>
     <t>Broccoli Crowns</t>
   </si>
   <si>
@@ -111,15 +96,9 @@
     <t>FA080</t>
   </si>
   <si>
-    <t>Broccoli Floret - Fresh 1lb</t>
-  </si>
-  <si>
     <t>Brussel Sprouts</t>
   </si>
   <si>
-    <t>Brussel Sprouts (whole) 10lb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cabbage NAPA </t>
   </si>
   <si>
@@ -129,24 +108,15 @@
     <t>FA082</t>
   </si>
   <si>
-    <t>Cabbage - Green Shredded 5lb</t>
-  </si>
-  <si>
     <t>Cantaloupe</t>
   </si>
   <si>
-    <t>Cantaloupe - Fresh Whole 1ct</t>
-  </si>
-  <si>
     <t>Carrots (25 lb)</t>
   </si>
   <si>
     <t>L8948</t>
   </si>
   <si>
-    <t>Carrots - Jumbo Fresh 1lb</t>
-  </si>
-  <si>
     <t>Carrots (50 lb)</t>
   </si>
   <si>
@@ -156,39 +126,24 @@
     <t>Cauliflower</t>
   </si>
   <si>
-    <t>Cauliflower - Fresh 1each</t>
-  </si>
-  <si>
     <t>Celery</t>
   </si>
   <si>
-    <t>Celery - Fresh 1ct</t>
-  </si>
-  <si>
     <t>Cilantro</t>
   </si>
   <si>
     <t>B9314</t>
   </si>
   <si>
-    <t>Cilantro - Fresh 1lb</t>
-  </si>
-  <si>
     <t>Collard Greens</t>
   </si>
   <si>
-    <t>Collard Greens 3lb</t>
-  </si>
-  <si>
     <t>Cucumbers English</t>
   </si>
   <si>
     <t>E9102</t>
   </si>
   <si>
-    <t>Cucumber 1ct</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eggs Shell </t>
   </si>
   <si>
@@ -207,66 +162,39 @@
     <t>Ginger Root</t>
   </si>
   <si>
-    <t>Ginger Root - Fresh 1lb</t>
-  </si>
-  <si>
     <t>Grapes Seedless</t>
   </si>
   <si>
-    <t>Grape - Fresh Seedless (Red) 18lb</t>
-  </si>
-  <si>
     <t>Green Beans</t>
   </si>
   <si>
     <t>Green Beans (Trimmed &amp; Fresh)</t>
   </si>
   <si>
-    <t>Green Beans - Fresh 1lb</t>
-  </si>
-  <si>
     <t>Honeydew Melon</t>
   </si>
   <si>
-    <t>Honeydew - Fresh (Whole) 1ct</t>
-  </si>
-  <si>
     <t>Kale</t>
   </si>
   <si>
     <t>Kale (Cleaned)</t>
   </si>
   <si>
-    <t>Kale - Fresh 24ct</t>
-  </si>
-  <si>
     <t>Kiwi</t>
   </si>
   <si>
-    <t>Kiwi - Fresh 1case</t>
-  </si>
-  <si>
     <t>Leeks</t>
   </si>
   <si>
-    <t>Leeks - Fresh 1bunch</t>
-  </si>
-  <si>
     <t>Lemon</t>
   </si>
   <si>
-    <t>Lemon - Fresh 1ct</t>
-  </si>
-  <si>
     <t>Lettuce Green Leaf  Washed &amp; Trimmed</t>
   </si>
   <si>
     <t>JJ754</t>
   </si>
   <si>
-    <t>Lettuce - Green Leaf 24ct</t>
-  </si>
-  <si>
     <t>Lettuce Green Leaf Fillet</t>
   </si>
   <si>
@@ -276,33 +204,21 @@
     <t>Limes</t>
   </si>
   <si>
-    <t>Lime - Fresh 1lb</t>
-  </si>
-  <si>
     <t>4722</t>
   </si>
   <si>
     <t xml:space="preserve">Mushroom Shiitake </t>
   </si>
   <si>
-    <t>Mushroom - Shiitake 1lb</t>
-  </si>
-  <si>
     <t>Mushrooms Portobello Caps</t>
   </si>
   <si>
-    <t>Mushroom Portobello - 4" Cap 5lb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mushrooms Thick Sliced </t>
   </si>
   <si>
     <t>PC076</t>
   </si>
   <si>
-    <t>Mushroom - White Sliced 10lb</t>
-  </si>
-  <si>
     <t>Mushrooms Whole Button</t>
   </si>
   <si>
@@ -312,9 +228,6 @@
     <t>CK430</t>
   </si>
   <si>
-    <t>Onion - Red Jumbo Fresh 1lb</t>
-  </si>
-  <si>
     <t>Onion Red Peeled</t>
   </si>
   <si>
@@ -327,9 +240,6 @@
     <t>CK408</t>
   </si>
   <si>
-    <t>Onion - Yellow Fresh 25lb</t>
-  </si>
-  <si>
     <t>Onion Spanish Peeled</t>
   </si>
   <si>
@@ -345,18 +255,12 @@
     <t>Oregano</t>
   </si>
   <si>
-    <t>Herb - Oregano (Fresh) 1lb</t>
-  </si>
-  <si>
     <t>Parsley</t>
   </si>
   <si>
     <t>G1148</t>
   </si>
   <si>
-    <t>Herb - Parsley (Fresh Curly) 1lb</t>
-  </si>
-  <si>
     <t>Parsley (Washed &amp; Trimmed)</t>
   </si>
   <si>
@@ -366,24 +270,15 @@
     <t>Pepper Green Bell  (Large) (RENZI = 20lb)</t>
   </si>
   <si>
-    <t>Pepper - Green Bell 1lb</t>
-  </si>
-  <si>
     <t>Pepper Green Bell Xtra Large</t>
   </si>
   <si>
     <t>B5158</t>
   </si>
   <si>
-    <t>Pepper - Green Bell X-Large 1lb</t>
-  </si>
-  <si>
     <t>Pepper Red Bell (5lb)</t>
   </si>
   <si>
-    <t>Pepper - Red Bell Fresh 5lb</t>
-  </si>
-  <si>
     <t>Pepper Red Bell (11 lb)</t>
   </si>
   <si>
@@ -399,15 +294,9 @@
     <t>G5204</t>
   </si>
   <si>
-    <t>Jalapeno Pepper - Fresh 1lb</t>
-  </si>
-  <si>
     <t>Pineapple</t>
   </si>
   <si>
-    <t>Pineapple - Fresh 1ct</t>
-  </si>
-  <si>
     <t>Pomegranate Seeds Frozen</t>
   </si>
   <si>
@@ -417,24 +306,15 @@
     <t>Pomegranate Whole</t>
   </si>
   <si>
-    <t>Pomegranate - Fresh (Whole) 20lb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Potato Chef  </t>
   </si>
   <si>
     <t>J5882</t>
   </si>
   <si>
-    <t>Potato - Chef 50lb</t>
-  </si>
-  <si>
     <t>Potato Red "A"</t>
   </si>
   <si>
-    <t>Potato - Red Large (A) 50lb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Potato Russet </t>
   </si>
   <si>
@@ -444,18 +324,12 @@
     <t>Radish</t>
   </si>
   <si>
-    <t>Radish - Fresh 1lb</t>
-  </si>
-  <si>
     <t>Romaine Hearts</t>
   </si>
   <si>
     <t>NH690</t>
   </si>
   <si>
-    <t>Lettuce - Romaine Hearts 12ct</t>
-  </si>
-  <si>
     <t>Romaine Hearts (Washed &amp; Trimmed)</t>
   </si>
   <si>
@@ -471,9 +345,6 @@
     <t>JJ734</t>
   </si>
   <si>
-    <t>Spinach - Baby Fresh 4lb</t>
-  </si>
-  <si>
     <t>Spring Mix</t>
   </si>
   <si>
@@ -483,67 +354,97 @@
     <t xml:space="preserve">Strawberries Fresh </t>
   </si>
   <si>
-    <t>Strawberry - Fresh 8lb</t>
-  </si>
-  <si>
     <t>Snow Peas</t>
   </si>
   <si>
-    <t>Snow Peas 10lb</t>
-  </si>
-  <si>
     <t>Sugar Snap Peas (24 lb bags Sysco)</t>
   </si>
   <si>
-    <t>Sugar Snap Peas - Fresh 1lb</t>
-  </si>
-  <si>
     <t>Swiss Chard</t>
   </si>
   <si>
     <t>J5602</t>
   </si>
   <si>
-    <t>Swiss Chard - Fresh 1ct</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tomato Grape </t>
   </si>
   <si>
-    <t>Tomato - Grape 1pint</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tomatos 5x6 </t>
   </si>
   <si>
     <t>FD254</t>
   </si>
   <si>
-    <t>Tomato - Fresh 5x6 Vine Ripe 25lb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Watermelon </t>
   </si>
   <si>
-    <t>Watermelon - Whole 1ct</t>
-  </si>
-  <si>
     <t>Zucchini Fancy Medium</t>
   </si>
   <si>
-    <t>Zucchini - Fresh 5lb</t>
-  </si>
-  <si>
     <t>Preferred</t>
   </si>
   <si>
     <t>Performance Food</t>
   </si>
   <si>
-    <t>Hoffmire Farms</t>
-  </si>
-  <si>
     <t>Cortland Produce Inc.</t>
+  </si>
+  <si>
+    <t>Russo Produce</t>
+  </si>
+  <si>
+    <t>Behlog Produce</t>
+  </si>
+  <si>
+    <t>Cabbage NAPA </t>
+  </si>
+  <si>
+    <t>Mushrooms Thick Sliced </t>
+  </si>
+  <si>
+    <t>Onion Red </t>
+  </si>
+  <si>
+    <t>Onion Spanish </t>
+  </si>
+  <si>
+    <t>Pepper Green Bell  (Large) (RENZI = 20lb)</t>
+  </si>
+  <si>
+    <t>Strawberries Fresh </t>
+  </si>
+  <si>
+    <t>Tomato Grape </t>
+  </si>
+  <si>
+    <t>Tomatos 5x6 </t>
+  </si>
+  <si>
+    <t>Watermelon </t>
+  </si>
+  <si>
+    <t>Apple Empire </t>
+  </si>
+  <si>
+    <t>Eggs Shell </t>
+  </si>
+  <si>
+    <t>Lettuce Green Leaf  Washed &amp; Trimmed</t>
+  </si>
+  <si>
+    <t>Mushroom Shiitake </t>
+  </si>
+  <si>
+    <t>Onions Green  (Scallions)</t>
+  </si>
+  <si>
+    <t>Potato Chef  </t>
+  </si>
+  <si>
+    <t>Potato Russet </t>
+  </si>
+  <si>
+    <t>8115</t>
   </si>
 </sst>
 </file>
@@ -553,7 +454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,8 +505,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +614,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,9 +697,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -805,21 +715,48 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,13 +1102,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Q21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:X1"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1116,7 @@
     <col min="1" max="1" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="39" customWidth="1"/>
     <col min="5" max="5" width="15" style="11" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="10" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" style="17" customWidth="1"/>
@@ -1195,66 +1132,76 @@
     <col min="18" max="18" width="14" style="12" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" style="31" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" style="13" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="38" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="37" customWidth="1"/>
     <col min="22" max="22" width="14" style="20" customWidth="1"/>
     <col min="23" max="23" width="13.7109375" style="33" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" style="21" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="49" customWidth="1"/>
+    <col min="26" max="26" width="14" style="53" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="54" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="53" t="s">
+      <c r="E1" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="53" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="50"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="52"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="72"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -1296,7 +1243,7 @@
       <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -1308,14 +1255,27 @@
       <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="Q3" s="14" t="s">
-        <v>9</v>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="47" t="s">
+        <v>8</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="30"/>
@@ -1323,114 +1283,146 @@
       <c r="V3" s="19"/>
       <c r="W3" s="35"/>
       <c r="X3" s="34"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="49">
+        <v>845</v>
+      </c>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="56"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10"/>
       <c r="N4" s="16"/>
       <c r="O4" s="29"/>
-      <c r="Q4" s="14" t="s">
-        <v>11</v>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="30"/>
       <c r="T4" s="32"/>
-      <c r="U4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="41"/>
+      <c r="U4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="40"/>
       <c r="W4" s="35"/>
       <c r="X4" s="34"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="56"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10"/>
       <c r="H5" s="24"/>
-      <c r="Q5" s="14" t="s">
-        <v>14</v>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="30"/>
       <c r="T5" s="32"/>
-      <c r="U5" s="38">
+      <c r="U5" s="37">
         <v>4368</v>
       </c>
-      <c r="V5" s="42"/>
+      <c r="V5" s="41"/>
       <c r="W5" s="35"/>
       <c r="X5" s="34"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="49">
+        <v>1081</v>
+      </c>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="56"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="25"/>
       <c r="I6" s="6">
         <v>7975374</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="8">
         <v>88202</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="29"/>
-      <c r="P6" s="36"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="S6" s="30"/>
       <c r="T6" s="32"/>
-      <c r="U6" s="38">
+      <c r="U6" s="37">
         <v>8279</v>
       </c>
-      <c r="V6" s="42"/>
+      <c r="V6" s="41"/>
       <c r="W6" s="35"/>
       <c r="X6" s="34"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="49">
+        <v>386</v>
+      </c>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="56"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10">
         <v>74966</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="25"/>
       <c r="I7" s="6">
         <v>1254440</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="8">
         <v>88034</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="Q7" s="14" t="s">
-        <v>18</v>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="30"/>
       <c r="T7" s="32"/>
-      <c r="U7" s="38">
+      <c r="U7" s="37">
         <v>4009</v>
       </c>
-      <c r="V7" s="42"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="35"/>
       <c r="X7" s="34"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="49">
+        <v>1125</v>
+      </c>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="56"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1438,497 +1430,622 @@
       <c r="I8" s="6">
         <v>2004547</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="8">
         <v>88229</v>
       </c>
       <c r="O8" s="29"/>
-      <c r="Q8" s="14" t="s">
-        <v>21</v>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="48" t="s">
+        <v>15</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="30"/>
       <c r="T8" s="32"/>
-      <c r="U8" s="38">
+      <c r="U8" s="37">
         <v>8170</v>
       </c>
-      <c r="V8" s="42"/>
+      <c r="V8" s="41"/>
       <c r="W8" s="35"/>
       <c r="X8" s="34"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="49">
+        <v>251</v>
+      </c>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="56"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="25"/>
       <c r="I9" s="6">
         <v>2704989</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="8">
         <v>88306</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="36"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="48" t="s">
+        <v>17</v>
+      </c>
       <c r="S9" s="30"/>
       <c r="T9" s="32"/>
-      <c r="U9" s="38">
+      <c r="U9" s="37">
         <v>8203</v>
       </c>
-      <c r="V9" s="42"/>
+      <c r="V9" s="41"/>
       <c r="W9" s="35"/>
       <c r="X9" s="34"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="49">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="56"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="44"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="25"/>
       <c r="I10" s="6">
         <v>1675859</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="8">
         <v>88090</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="14" t="s">
-        <v>26</v>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="R10" s="14"/>
       <c r="S10" s="30"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="38">
+      <c r="U10" s="37">
         <v>8893</v>
       </c>
-      <c r="V10" s="42"/>
+      <c r="V10" s="41"/>
       <c r="W10" s="35"/>
       <c r="X10" s="34"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="49">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="56"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10">
         <v>78516</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="44"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="25"/>
       <c r="I11" s="6">
         <v>4510299</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="8">
         <v>88477</v>
       </c>
       <c r="O11" s="29"/>
-      <c r="Q11" s="14" t="s">
-        <v>28</v>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="48" t="s">
+        <v>21</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="30"/>
       <c r="T11" s="32"/>
-      <c r="U11" s="38">
+      <c r="U11" s="37">
         <v>8227</v>
       </c>
-      <c r="V11" s="42"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="35"/>
       <c r="X11" s="34"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="49">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="56"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E12" s="10"/>
       <c r="H12" s="24"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="47" t="s">
+        <v>121</v>
+      </c>
       <c r="S12" s="30"/>
       <c r="T12" s="32"/>
-      <c r="U12" s="38">
+      <c r="U12" s="37">
         <v>8324</v>
       </c>
-      <c r="V12" s="42"/>
+      <c r="V12" s="41"/>
       <c r="W12" s="35"/>
       <c r="X12" s="34"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="49">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="56"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="44"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="25"/>
       <c r="I13" s="6">
         <v>1675701</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="8">
         <v>88139</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="14" t="s">
-        <v>32</v>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="R13" s="14"/>
       <c r="S13" s="30"/>
       <c r="T13" s="32"/>
-      <c r="U13" s="38">
+      <c r="U13" s="37">
         <v>8612</v>
       </c>
-      <c r="V13" s="42"/>
+      <c r="V13" s="41"/>
       <c r="W13" s="35"/>
       <c r="X13" s="34"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="49">
+        <v>170</v>
+      </c>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="56"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" s="10">
         <v>75104</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="25"/>
       <c r="I14" s="6">
         <v>1164375</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="Q14" s="14" t="s">
-        <v>34</v>
+      <c r="K14" s="44"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="47" t="s">
+        <v>25</v>
       </c>
       <c r="R14" s="14"/>
       <c r="S14" s="30"/>
       <c r="T14" s="32"/>
-      <c r="U14" s="38">
+      <c r="U14" s="37">
         <v>4176</v>
       </c>
-      <c r="V14" s="42"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="35"/>
       <c r="X14" s="34"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="49">
+        <v>1375</v>
+      </c>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="56"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="44"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="25"/>
       <c r="I15" s="6">
         <v>2227007</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="8">
         <v>88095</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="14" t="s">
-        <v>37</v>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="R15" s="14"/>
       <c r="S15" s="30"/>
       <c r="T15" s="32"/>
-      <c r="U15" s="38">
+      <c r="U15" s="37">
         <v>8104</v>
       </c>
-      <c r="V15" s="42"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="35"/>
       <c r="X15" s="34"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="49">
+        <v>80</v>
+      </c>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="56"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F16" s="11"/>
       <c r="H16" s="24"/>
       <c r="I16" s="6">
         <v>2227015</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="8">
         <v>88159</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="36"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="S16" s="30"/>
       <c r="T16" s="32"/>
-      <c r="V16" s="41"/>
+      <c r="V16" s="40"/>
       <c r="W16" s="35"/>
       <c r="X16" s="34"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="49">
+        <v>82</v>
+      </c>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="56"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10">
         <v>78270</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="25"/>
       <c r="I17" s="6">
         <v>1243724</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="8">
         <v>88101</v>
       </c>
       <c r="O17" s="29"/>
-      <c r="Q17" s="14" t="s">
-        <v>41</v>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="48" t="s">
+        <v>30</v>
       </c>
       <c r="R17" s="14"/>
       <c r="S17" s="30"/>
       <c r="T17" s="32"/>
-      <c r="U17" s="38">
+      <c r="U17" s="37">
         <v>8107</v>
       </c>
-      <c r="V17" s="42"/>
+      <c r="V17" s="41"/>
       <c r="W17" s="35"/>
       <c r="X17" s="34"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="49">
+        <v>125</v>
+      </c>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="56"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E18" s="10">
         <v>78112</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="25"/>
       <c r="M18" s="8">
         <v>88108</v>
       </c>
       <c r="O18" s="29"/>
-      <c r="Q18" s="14" t="s">
-        <v>43</v>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="R18" s="14"/>
       <c r="S18" s="30"/>
       <c r="T18" s="32"/>
-      <c r="U18" s="38">
+      <c r="U18" s="37">
         <v>8108</v>
       </c>
-      <c r="V18" s="42"/>
+      <c r="V18" s="41"/>
       <c r="W18" s="35"/>
       <c r="X18" s="34"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="49">
+        <v>141</v>
+      </c>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="56"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="44"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="25"/>
       <c r="M19" s="8">
         <v>89225</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="14" t="s">
-        <v>46</v>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="48" t="s">
+        <v>32</v>
       </c>
       <c r="R19" s="14"/>
       <c r="S19" s="30"/>
       <c r="T19" s="32"/>
-      <c r="U19" s="38">
+      <c r="U19" s="37">
         <v>8052</v>
       </c>
-      <c r="V19" s="42"/>
+      <c r="V19" s="41"/>
       <c r="W19" s="35"/>
       <c r="X19" s="34"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="49">
+        <v>253</v>
+      </c>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="56"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E20" s="10">
         <v>77264</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="25"/>
       <c r="I20" s="6">
         <v>2260149</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="Q20" s="14" t="s">
-        <v>48</v>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="R20" s="14"/>
       <c r="S20" s="30"/>
       <c r="T20" s="32"/>
-      <c r="U20" s="38">
+      <c r="U20" s="37">
         <v>8236</v>
       </c>
-      <c r="V20" s="42"/>
+      <c r="V20" s="41"/>
       <c r="W20" s="35"/>
       <c r="X20" s="34"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="49">
+        <v>176</v>
+      </c>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="56"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="44"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="25"/>
       <c r="I21" s="6">
         <v>1735372</v>
       </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="8">
         <v>88115</v>
       </c>
       <c r="N21" s="16"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="14" t="s">
-        <v>51</v>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="R21" s="14"/>
       <c r="S21" s="30"/>
       <c r="T21" s="32"/>
-      <c r="U21" s="38">
+      <c r="U21" s="37">
         <v>8448</v>
       </c>
-      <c r="V21" s="42"/>
+      <c r="V21" s="41"/>
       <c r="W21" s="35"/>
       <c r="X21" s="34"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="49">
+        <v>187</v>
+      </c>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="56"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="44"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="25"/>
       <c r="I22" s="6">
         <v>2105773</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="8">
         <v>27960</v>
       </c>
       <c r="O22" s="29"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="47" t="s">
+        <v>131</v>
+      </c>
       <c r="S22" s="30"/>
       <c r="T22" s="32"/>
-      <c r="U22" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="V22" s="42"/>
+      <c r="U22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="41"/>
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="49">
+        <v>1870</v>
+      </c>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="56"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="44"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="25"/>
       <c r="I23" s="6">
         <v>1821537</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="8">
         <v>88121</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="36"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="S23" s="30"/>
       <c r="T23" s="32"/>
-      <c r="U23" s="38">
+      <c r="U23" s="37">
         <v>8084</v>
       </c>
-      <c r="V23" s="42"/>
+      <c r="V23" s="41"/>
       <c r="W23" s="35"/>
       <c r="X23" s="34"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="49">
+        <v>226</v>
+      </c>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="56"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E24" s="10">
         <v>76346</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="44"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="25"/>
-      <c r="Q24" s="14" t="s">
-        <v>58</v>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="R24" s="14"/>
       <c r="S24" s="30"/>
       <c r="T24" s="32"/>
-      <c r="U24" s="38">
+      <c r="U24" s="37">
         <v>8153</v>
       </c>
-      <c r="V24" s="42"/>
+      <c r="V24" s="41"/>
       <c r="W24" s="35"/>
       <c r="X24" s="34"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="49">
+        <v>237</v>
+      </c>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="56"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E25" s="10">
         <v>78922</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="44"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="25"/>
       <c r="I25" s="6">
         <v>668873</v>
@@ -1938,762 +2055,946 @@
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="14" t="s">
-        <v>60</v>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="R25" s="14"/>
       <c r="S25" s="30"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="38">
+      <c r="U25" s="37">
         <v>4094</v>
       </c>
-      <c r="V25" s="42"/>
+      <c r="V25" s="41"/>
       <c r="W25" s="35"/>
       <c r="X25" s="34"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" s="49">
+        <v>1250</v>
+      </c>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="56"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E26" s="10"/>
       <c r="H26" s="24"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="47" t="s">
+        <v>44</v>
+      </c>
       <c r="S26" s="30"/>
       <c r="T26" s="32"/>
-      <c r="V26" s="41"/>
+      <c r="V26" s="40"/>
       <c r="W26" s="35"/>
       <c r="X26" s="34"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" s="49">
+        <v>15</v>
+      </c>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="56"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E27" s="10">
         <v>74968</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="44"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="25"/>
       <c r="I27" s="6">
         <v>1810910</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="Q27" s="14" t="s">
-        <v>63</v>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="R27" s="14"/>
       <c r="S27" s="30"/>
       <c r="T27" s="32"/>
-      <c r="U27" s="38">
+      <c r="U27" s="37">
         <v>8076</v>
       </c>
-      <c r="V27" s="42"/>
+      <c r="V27" s="41"/>
       <c r="W27" s="35"/>
       <c r="X27" s="34"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="49">
+        <v>14</v>
+      </c>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="56"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E28" s="10">
         <v>75736</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="44"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="25"/>
       <c r="I28" s="6">
         <v>1354135</v>
       </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="8">
         <v>88048</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="14" t="s">
-        <v>65</v>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="R28" s="14"/>
       <c r="S28" s="30"/>
       <c r="T28" s="32"/>
-      <c r="U28" s="38">
+      <c r="U28" s="37">
         <v>4184</v>
       </c>
-      <c r="V28" s="42"/>
+      <c r="V28" s="41"/>
       <c r="W28" s="35"/>
       <c r="X28" s="34"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" s="49">
+        <v>1425</v>
+      </c>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="56"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E29" s="10"/>
       <c r="H29" s="24"/>
       <c r="I29" s="6">
         <v>1008143</v>
       </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="47" t="s">
+        <v>47</v>
+      </c>
       <c r="S29" s="30"/>
       <c r="T29" s="32"/>
-      <c r="U29" s="38">
+      <c r="U29" s="37">
         <v>8238</v>
       </c>
-      <c r="V29" s="42"/>
+      <c r="V29" s="41"/>
       <c r="W29" s="35"/>
       <c r="X29" s="34"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" s="49">
+        <v>275</v>
+      </c>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="56"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E30" s="10"/>
       <c r="H30" s="24"/>
       <c r="I30" s="6">
         <v>1985274</v>
       </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="8">
         <v>88340</v>
       </c>
       <c r="N30" s="16"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="14" t="s">
-        <v>68</v>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="30"/>
       <c r="T30" s="32"/>
-      <c r="V30" s="42"/>
+      <c r="V30" s="41"/>
       <c r="W30" s="35"/>
       <c r="X30" s="34"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="56"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E31" s="10">
         <v>77662</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="44"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="25"/>
       <c r="I31" s="6">
         <v>1290469</v>
       </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
-      <c r="Q31" s="14" t="s">
-        <v>70</v>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="R31" s="14"/>
       <c r="S31" s="30"/>
       <c r="T31" s="32"/>
-      <c r="U31" s="38">
+      <c r="U31" s="37">
         <v>4185</v>
       </c>
-      <c r="V31" s="42"/>
+      <c r="V31" s="41"/>
       <c r="W31" s="35"/>
       <c r="X31" s="34"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" s="49">
+        <v>1305</v>
+      </c>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="56"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E32" s="10">
         <v>78414</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="44"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="25"/>
       <c r="I32" s="6">
         <v>1008168</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="8">
         <v>88514</v>
       </c>
       <c r="O32" s="29"/>
-      <c r="Q32" s="14" t="s">
-        <v>72</v>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="R32" s="14"/>
       <c r="S32" s="30"/>
       <c r="T32" s="32"/>
-      <c r="U32" s="38">
+      <c r="U32" s="37">
         <v>8122</v>
       </c>
-      <c r="V32" s="42"/>
+      <c r="V32" s="41"/>
       <c r="W32" s="35"/>
       <c r="X32" s="34"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="49">
+        <v>285</v>
+      </c>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="56"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E33" s="10">
         <v>78294</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="44"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="25"/>
       <c r="I33" s="6">
         <v>2252039</v>
       </c>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="8">
         <v>88052</v>
       </c>
       <c r="O33" s="29"/>
-      <c r="Q33" s="14" t="s">
-        <v>74</v>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="R33" s="14"/>
       <c r="S33" s="30"/>
       <c r="T33" s="32"/>
-      <c r="U33" s="38">
+      <c r="U33" s="37">
         <v>4186</v>
       </c>
-      <c r="V33" s="42"/>
+      <c r="V33" s="41"/>
       <c r="W33" s="35"/>
       <c r="X33" s="34"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="49">
+        <v>1330</v>
+      </c>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="56"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="44"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="25"/>
       <c r="I34" s="6">
         <v>7199706</v>
       </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
       <c r="M34" s="8">
         <v>88268</v>
       </c>
       <c r="N34" s="16"/>
       <c r="O34" s="29"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="14" t="s">
-        <v>77</v>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="30"/>
       <c r="T34" s="32"/>
-      <c r="U34" s="38">
-        <v>8115</v>
-      </c>
-      <c r="V34" s="42"/>
+      <c r="V34" s="41"/>
       <c r="W34" s="35"/>
       <c r="X34" s="34"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="56"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="44"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="25"/>
       <c r="I35" s="6">
         <v>1723857</v>
       </c>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="8">
         <v>88128</v>
       </c>
       <c r="N35" s="16"/>
       <c r="O35" s="29"/>
-      <c r="P35" s="36"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="47" t="s">
+        <v>54</v>
+      </c>
       <c r="S35" s="30"/>
       <c r="T35" s="32"/>
-      <c r="V35" s="41"/>
+      <c r="U35" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="V35" s="40"/>
       <c r="W35" s="35"/>
       <c r="X35" s="34"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" s="49">
+        <v>321</v>
+      </c>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="56"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E36" s="10">
         <v>16146</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="44"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="25"/>
       <c r="I36" s="6">
         <v>1079425</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
       <c r="M36" s="8">
         <v>88055</v>
       </c>
       <c r="N36" s="16"/>
       <c r="O36" s="29"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="14" t="s">
-        <v>81</v>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="R36" s="14"/>
       <c r="S36" s="30"/>
       <c r="T36" s="32"/>
-      <c r="U36" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="V36" s="42"/>
+      <c r="U36" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" s="41"/>
       <c r="W36" s="35"/>
       <c r="X36" s="34"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="49">
+        <v>1350</v>
+      </c>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="56"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E37" s="10">
         <v>34298</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="44"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="25"/>
       <c r="I37" s="6">
         <v>3758778</v>
       </c>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
       <c r="M37" s="8">
         <v>88234</v>
       </c>
       <c r="O37" s="29"/>
-      <c r="Q37" s="14" t="s">
-        <v>84</v>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="R37" s="14"/>
       <c r="S37" s="30"/>
       <c r="T37" s="32"/>
-      <c r="U37" s="38">
+      <c r="U37" s="37">
         <v>8168</v>
       </c>
-      <c r="V37" s="42"/>
+      <c r="V37" s="41"/>
       <c r="W37" s="35"/>
       <c r="X37" s="34"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" s="49">
+        <v>403</v>
+      </c>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="56"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E38" s="10">
         <v>20478</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="44"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="25"/>
       <c r="I38" s="6">
         <v>4868220</v>
       </c>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
       <c r="M38" s="8">
         <v>88298</v>
       </c>
       <c r="N38" s="16"/>
       <c r="O38" s="29"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="14" t="s">
-        <v>86</v>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="R38" s="14"/>
       <c r="S38" s="30"/>
       <c r="T38" s="32"/>
-      <c r="U38" s="38">
+      <c r="U38" s="37">
         <v>8125</v>
       </c>
-      <c r="V38" s="42"/>
+      <c r="V38" s="41"/>
       <c r="W38" s="35"/>
       <c r="X38" s="34"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38" s="49">
+        <v>404</v>
+      </c>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="56"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="44"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="25"/>
       <c r="I39" s="6">
         <v>6056907</v>
       </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
       <c r="M39" s="8">
         <v>88228</v>
       </c>
       <c r="N39" s="16"/>
       <c r="O39" s="29"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="14" t="s">
-        <v>89</v>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="47" t="s">
+        <v>122</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="30"/>
       <c r="T39" s="32"/>
-      <c r="U39" s="38">
+      <c r="U39" s="37">
         <v>8243</v>
       </c>
-      <c r="V39" s="42"/>
+      <c r="V39" s="41"/>
       <c r="W39" s="35"/>
       <c r="X39" s="34"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" s="49">
+        <v>420</v>
+      </c>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="56"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E40" s="10">
         <v>20340</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="44"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="25"/>
       <c r="I40" s="6">
         <v>1182211</v>
       </c>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
       <c r="M40" s="8">
         <v>88141</v>
       </c>
       <c r="O40" s="29"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="S40" s="30"/>
       <c r="T40" s="32"/>
-      <c r="V40" s="41"/>
+      <c r="V40" s="40"/>
       <c r="W40" s="35"/>
       <c r="X40" s="34"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" s="49">
+        <v>390</v>
+      </c>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="56"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="44"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="25"/>
       <c r="I41" s="6">
         <v>8313967</v>
       </c>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="8">
         <v>88161</v>
       </c>
       <c r="N41" s="16"/>
       <c r="O41" s="29"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="14" t="s">
-        <v>93</v>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="R41" s="14"/>
       <c r="S41" s="30"/>
       <c r="T41" s="32"/>
-      <c r="U41" s="38">
+      <c r="U41" s="37">
         <v>8083</v>
       </c>
-      <c r="V41" s="42"/>
+      <c r="V41" s="41"/>
       <c r="W41" s="35"/>
       <c r="X41" s="34"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" s="49">
+        <v>490</v>
+      </c>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="56"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="44"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="25"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="47" t="s">
+        <v>65</v>
+      </c>
       <c r="S42" s="30"/>
       <c r="T42" s="32"/>
-      <c r="U42" s="38">
+      <c r="U42" s="37">
         <v>8080</v>
       </c>
-      <c r="V42" s="42"/>
+      <c r="V42" s="41"/>
       <c r="W42" s="35"/>
       <c r="X42" s="34"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42" s="49">
+        <v>505</v>
+      </c>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="56"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="44"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="25"/>
       <c r="I43" s="6">
         <v>1094721</v>
       </c>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="8">
         <v>88153</v>
       </c>
       <c r="N43" s="16"/>
       <c r="O43" s="29"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="14" t="s">
-        <v>98</v>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="R43" s="14"/>
       <c r="S43" s="30"/>
       <c r="T43" s="32"/>
-      <c r="U43" s="38">
+      <c r="U43" s="37">
         <v>8086</v>
       </c>
-      <c r="V43" s="42"/>
+      <c r="V43" s="41"/>
       <c r="W43" s="35"/>
       <c r="X43" s="34"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" s="49">
+        <v>455</v>
+      </c>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="56"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="44"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="25"/>
       <c r="I44" s="6">
         <v>6846554</v>
       </c>
-      <c r="K44" s="45"/>
-      <c r="L44" s="46"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="8">
         <v>88945</v>
       </c>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="47" t="s">
+        <v>69</v>
+      </c>
       <c r="S44" s="30"/>
       <c r="T44" s="32"/>
-      <c r="V44" s="41"/>
+      <c r="V44" s="40"/>
       <c r="W44" s="35"/>
       <c r="X44" s="34"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" s="49">
+        <v>500</v>
+      </c>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="56"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="44"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="25"/>
       <c r="I45" s="6">
         <v>7350788</v>
       </c>
-      <c r="K45" s="45"/>
-      <c r="L45" s="46"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="8">
         <v>88163</v>
       </c>
       <c r="N45" s="16"/>
       <c r="O45" s="29"/>
-      <c r="P45" s="36"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="47" t="s">
+        <v>134</v>
+      </c>
       <c r="S45" s="30"/>
       <c r="T45" s="32"/>
-      <c r="U45" s="38">
+      <c r="U45" s="37">
         <v>8169</v>
       </c>
-      <c r="V45" s="42"/>
+      <c r="V45" s="41"/>
       <c r="W45" s="35"/>
       <c r="X45" s="34"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45" s="49">
+        <v>244</v>
+      </c>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="56"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E46" s="10">
         <v>75778</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="44"/>
+      <c r="G46" s="43"/>
       <c r="H46" s="25"/>
       <c r="I46" s="6">
         <v>2005346</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="27"/>
-      <c r="Q46" s="14" t="s">
-        <v>104</v>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="R46" s="14"/>
       <c r="S46" s="30"/>
       <c r="T46" s="32"/>
-      <c r="U46" s="38">
+      <c r="U46" s="37">
         <v>8178</v>
       </c>
-      <c r="V46" s="42"/>
+      <c r="V46" s="41"/>
       <c r="W46" s="35"/>
       <c r="X46" s="34"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46" s="49">
+        <v>259</v>
+      </c>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="56"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="44"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="25"/>
       <c r="M47" s="8">
         <v>89164</v>
       </c>
       <c r="N47" s="16"/>
       <c r="O47" s="29"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="14" t="s">
-        <v>107</v>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="R47" s="14"/>
       <c r="S47" s="30"/>
       <c r="T47" s="32"/>
-      <c r="U47" s="38">
+      <c r="U47" s="37">
         <v>8133</v>
       </c>
-      <c r="V47" s="42"/>
+      <c r="V47" s="41"/>
       <c r="W47" s="35"/>
       <c r="X47" s="34"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47" s="49">
+        <v>554</v>
+      </c>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="56"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="44"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="25"/>
       <c r="I48" s="6">
         <v>2219111</v>
       </c>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="S48" s="30"/>
       <c r="T48" s="32"/>
-      <c r="V48" s="41"/>
+      <c r="V48" s="40"/>
       <c r="W48" s="35"/>
       <c r="X48" s="34"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48" s="49">
+        <v>556</v>
+      </c>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="56"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E49" s="10">
         <v>70646</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="44"/>
+      <c r="G49" s="43"/>
       <c r="H49" s="25"/>
       <c r="I49" s="6">
         <v>1420330</v>
       </c>
-      <c r="K49" s="45"/>
-      <c r="L49" s="46"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="45"/>
       <c r="M49" s="8">
         <v>88168</v>
       </c>
       <c r="N49" s="16"/>
       <c r="O49" s="29"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="14" t="s">
-        <v>111</v>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="R49" s="14"/>
       <c r="S49" s="30"/>
       <c r="T49" s="32"/>
-      <c r="U49" s="38">
+      <c r="U49" s="37">
         <v>8127</v>
       </c>
-      <c r="V49" s="42"/>
+      <c r="V49" s="41"/>
       <c r="W49" s="35"/>
       <c r="X49" s="34"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="49">
+        <v>565</v>
+      </c>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="56"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="10" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="44"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="25"/>
       <c r="M50" s="8">
         <v>88550</v>
       </c>
       <c r="N50" s="16"/>
       <c r="O50" s="29"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="14" t="s">
-        <v>114</v>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="R50" s="14"/>
       <c r="S50" s="30"/>
       <c r="T50" s="32"/>
-      <c r="U50" s="38">
+      <c r="U50" s="37">
         <v>8560</v>
       </c>
-      <c r="V50" s="42"/>
+      <c r="V50" s="41"/>
       <c r="W50" s="35"/>
       <c r="X50" s="34"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="49">
+        <v>570</v>
+      </c>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="56"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="39"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="H51" s="24"/>
       <c r="N51" s="16"/>
       <c r="O51" s="29"/>
-      <c r="Q51" s="14" t="s">
-        <v>116</v>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="R51" s="14"/>
       <c r="S51" s="30"/>
       <c r="T51" s="32"/>
-      <c r="V51" s="42"/>
+      <c r="V51" s="41"/>
       <c r="X51" s="34"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z51" s="50"/>
+      <c r="AB51" s="56"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E52" s="10">
         <v>75336</v>
@@ -2704,183 +3005,230 @@
       <c r="I52" s="6">
         <v>1745161</v>
       </c>
-      <c r="K52" s="45"/>
-      <c r="L52" s="46"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="45"/>
       <c r="M52" s="8">
         <v>88429</v>
       </c>
       <c r="N52" s="16"/>
       <c r="O52" s="29"/>
-      <c r="P52" s="36"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="S52" s="30"/>
       <c r="T52" s="32"/>
-      <c r="U52" s="38">
+      <c r="U52" s="37">
         <v>8465</v>
       </c>
-      <c r="V52" s="42"/>
+      <c r="V52" s="41"/>
       <c r="W52" s="35"/>
       <c r="X52" s="34"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52" s="49">
+        <v>575</v>
+      </c>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="56"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="44"/>
+      <c r="G53" s="43"/>
       <c r="H53" s="25"/>
       <c r="I53" s="6">
         <v>4615704</v>
       </c>
-      <c r="K53" s="45"/>
-      <c r="L53" s="46"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="45"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="47" t="s">
+        <v>83</v>
+      </c>
       <c r="S53" s="30"/>
       <c r="T53" s="32"/>
-      <c r="V53" s="41"/>
+      <c r="V53" s="40"/>
       <c r="W53" s="35"/>
       <c r="X53" s="34"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53" s="49">
+        <v>585</v>
+      </c>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="56"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="44"/>
+      <c r="G54" s="43"/>
       <c r="H54" s="25"/>
       <c r="I54" s="6">
         <v>9927799</v>
       </c>
-      <c r="K54" s="45"/>
-      <c r="L54" s="46"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="45"/>
       <c r="M54" s="8">
         <v>88406</v>
       </c>
       <c r="N54" s="16"/>
       <c r="O54" s="29"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="14" t="s">
-        <v>122</v>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="R54" s="14"/>
       <c r="S54" s="30"/>
       <c r="T54" s="32"/>
-      <c r="U54" s="38">
+      <c r="U54" s="37">
         <v>8058</v>
       </c>
-      <c r="V54" s="42"/>
+      <c r="V54" s="41"/>
       <c r="W54" s="35"/>
       <c r="X54" s="34"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54" s="49">
+        <v>605</v>
+      </c>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="56"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E55" s="10">
         <v>75690</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="44"/>
+      <c r="G55" s="43"/>
       <c r="H55" s="25"/>
       <c r="I55" s="6">
         <v>7413057</v>
       </c>
-      <c r="K55" s="45"/>
-      <c r="L55" s="46"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
       <c r="M55" s="8">
         <v>88070</v>
       </c>
       <c r="N55" s="16"/>
       <c r="O55" s="29"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="14" t="s">
-        <v>124</v>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="R55" s="14"/>
       <c r="S55" s="30"/>
       <c r="T55" s="32"/>
-      <c r="V55" s="42"/>
+      <c r="V55" s="41"/>
       <c r="W55" s="35"/>
       <c r="X55" s="34"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" s="49">
+        <v>1650</v>
+      </c>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="56"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="44"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="25"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="S56" s="30"/>
       <c r="T56" s="32"/>
-      <c r="V56" s="41"/>
+      <c r="V56" s="40"/>
       <c r="W56" s="35"/>
       <c r="X56" s="34"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="56"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E57" s="10">
         <v>77278</v>
       </c>
       <c r="F57" s="11"/>
-      <c r="G57" s="44"/>
+      <c r="G57" s="43"/>
       <c r="H57" s="25"/>
-      <c r="Q57" s="14" t="s">
-        <v>128</v>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="30"/>
       <c r="T57" s="32"/>
-      <c r="U57" s="38">
+      <c r="U57" s="37">
         <v>4060</v>
       </c>
-      <c r="V57" s="42"/>
+      <c r="V57" s="41"/>
       <c r="W57" s="35"/>
       <c r="X57" s="34"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="56"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="G58" s="44"/>
+      <c r="G58" s="43"/>
       <c r="H58" s="25"/>
       <c r="I58" s="6">
         <v>1313154</v>
       </c>
-      <c r="K58" s="45"/>
-      <c r="L58" s="46"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="45"/>
       <c r="M58" s="8">
         <v>88609</v>
       </c>
       <c r="O58" s="29"/>
-      <c r="Q58" s="14" t="s">
-        <v>131</v>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="R58" s="14"/>
       <c r="S58" s="30"/>
       <c r="T58" s="32"/>
-      <c r="U58" s="38">
+      <c r="U58" s="37">
         <v>8484</v>
       </c>
-      <c r="V58" s="42"/>
+      <c r="V58" s="41"/>
       <c r="W58" s="35"/>
       <c r="X58" s="34"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58" s="49">
+        <v>651</v>
+      </c>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="56"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E59" s="10">
         <v>34768</v>
@@ -2891,55 +3239,70 @@
       <c r="I59" s="6">
         <v>8481756</v>
       </c>
-      <c r="K59" s="45"/>
-      <c r="L59" s="46"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="45"/>
       <c r="M59" s="8">
         <v>88177</v>
       </c>
       <c r="N59" s="16"/>
       <c r="O59" s="29"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="14" t="s">
-        <v>133</v>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="R59" s="14"/>
       <c r="S59" s="30"/>
       <c r="T59" s="32"/>
-      <c r="U59" s="38">
+      <c r="U59" s="37">
         <v>8277</v>
       </c>
-      <c r="V59" s="42"/>
+      <c r="V59" s="41"/>
       <c r="W59" s="35"/>
       <c r="X59" s="34"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59" s="49">
+        <v>660</v>
+      </c>
+      <c r="Z59" s="50"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="56"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F60" s="11"/>
-      <c r="G60" s="44"/>
+      <c r="G60" s="43"/>
       <c r="H60" s="25"/>
       <c r="I60" s="6">
         <v>1008465</v>
       </c>
-      <c r="K60" s="45"/>
-      <c r="L60" s="46"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="45"/>
       <c r="M60" s="8">
         <v>89282</v>
       </c>
       <c r="O60" s="29"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="47" t="s">
+        <v>136</v>
+      </c>
       <c r="S60" s="30"/>
       <c r="T60" s="32"/>
-      <c r="V60" s="41"/>
+      <c r="V60" s="40"/>
       <c r="W60" s="35"/>
       <c r="X60" s="34"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60" s="49">
+        <v>706</v>
+      </c>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="56"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="E61" s="10">
         <v>78025</v>
@@ -2949,74 +3312,93 @@
       <c r="I61" s="6">
         <v>6894232</v>
       </c>
-      <c r="K61" s="45"/>
-      <c r="L61" s="46"/>
-      <c r="Q61" s="14" t="s">
-        <v>137</v>
+      <c r="K61" s="44"/>
+      <c r="L61" s="45"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="R61" s="14"/>
       <c r="S61" s="30"/>
       <c r="T61" s="32"/>
-      <c r="U61" s="38">
-        <v>8194</v>
-      </c>
-      <c r="V61" s="42"/>
+      <c r="V61" s="41"/>
       <c r="W61" s="35"/>
       <c r="X61" s="34"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61" s="49">
+        <v>805</v>
+      </c>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="56"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="F62" s="11"/>
-      <c r="G62" s="44"/>
+      <c r="G62" s="43"/>
       <c r="H62" s="25"/>
       <c r="I62" s="6">
         <v>2416691</v>
       </c>
-      <c r="K62" s="45"/>
-      <c r="L62" s="46"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
       <c r="M62" s="8">
         <v>88136</v>
       </c>
       <c r="N62" s="16"/>
       <c r="O62" s="29"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="14" t="s">
-        <v>140</v>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="R62" s="14"/>
       <c r="S62" s="30"/>
       <c r="T62" s="32"/>
-      <c r="U62" s="38">
+      <c r="U62" s="37">
         <v>8380</v>
       </c>
-      <c r="V62" s="42"/>
+      <c r="V62" s="41"/>
       <c r="W62" s="35"/>
       <c r="X62" s="34"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62" s="49">
+        <v>340</v>
+      </c>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="56"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="F63" s="11"/>
-      <c r="G63" s="44"/>
+      <c r="G63" s="43"/>
       <c r="H63" s="25"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="47" t="s">
+        <v>99</v>
+      </c>
       <c r="S63" s="30"/>
       <c r="T63" s="32"/>
-      <c r="V63" s="41"/>
+      <c r="V63" s="40"/>
       <c r="W63" s="35"/>
       <c r="X63" s="34"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63" s="49">
+        <v>347</v>
+      </c>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="56"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="E64" s="10">
         <v>93004</v>
@@ -3024,336 +3406,414 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="24"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="47" t="s">
+        <v>101</v>
+      </c>
       <c r="S64" s="30"/>
       <c r="T64" s="32"/>
-      <c r="V64" s="41"/>
+      <c r="V64" s="40"/>
       <c r="W64" s="35"/>
       <c r="X64" s="34"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64" s="49">
+        <v>385</v>
+      </c>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="56"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="F65" s="11"/>
-      <c r="G65" s="44"/>
+      <c r="G65" s="43"/>
       <c r="H65" s="25"/>
       <c r="I65" s="6">
         <v>8474538</v>
       </c>
-      <c r="K65" s="45"/>
-      <c r="L65" s="46"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="45"/>
       <c r="M65" s="8">
         <v>88204</v>
       </c>
       <c r="N65" s="16"/>
       <c r="O65" s="29"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="14" t="s">
-        <v>146</v>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="R65" s="14"/>
       <c r="S65" s="30"/>
       <c r="T65" s="32"/>
-      <c r="U65" s="38">
+      <c r="U65" s="37">
         <v>8209</v>
       </c>
-      <c r="V65" s="42"/>
+      <c r="V65" s="41"/>
       <c r="W65" s="35"/>
       <c r="X65" s="34"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65" s="49">
+        <v>833</v>
+      </c>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="56"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="F66" s="11"/>
-      <c r="G66" s="44"/>
+      <c r="G66" s="43"/>
       <c r="H66" s="25"/>
       <c r="I66" s="6">
         <v>3629433</v>
       </c>
-      <c r="K66" s="45"/>
-      <c r="L66" s="46"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="8">
         <v>88138</v>
       </c>
       <c r="O66" s="29"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="47" t="s">
+        <v>104</v>
+      </c>
       <c r="S66" s="30"/>
       <c r="T66" s="32"/>
-      <c r="U66" s="38">
+      <c r="U66" s="37">
         <v>8520</v>
       </c>
-      <c r="V66" s="42"/>
+      <c r="V66" s="41"/>
       <c r="W66" s="35"/>
       <c r="X66" s="34"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="56"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="E67" s="10">
         <v>39142</v>
       </c>
       <c r="F67" s="11"/>
-      <c r="G67" s="44"/>
+      <c r="G67" s="43"/>
       <c r="H67" s="25"/>
       <c r="I67" s="6">
         <v>6235501</v>
       </c>
-      <c r="K67" s="45"/>
-      <c r="L67" s="46"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="45"/>
       <c r="M67" s="8">
         <v>88305</v>
       </c>
       <c r="N67" s="16"/>
       <c r="O67" s="29"/>
-      <c r="Q67" s="14" t="s">
-        <v>150</v>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="R67" s="14"/>
       <c r="S67" s="30"/>
       <c r="T67" s="32"/>
-      <c r="U67" s="38">
+      <c r="U67" s="37">
         <v>4193</v>
       </c>
-      <c r="V67" s="42"/>
+      <c r="V67" s="41"/>
       <c r="W67" s="35"/>
       <c r="X67" s="34"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67" s="49">
+        <v>1150</v>
+      </c>
+      <c r="Z67" s="50"/>
+      <c r="AA67" s="51"/>
+      <c r="AB67" s="56"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E68" s="10">
         <v>78424</v>
       </c>
       <c r="F68" s="11"/>
-      <c r="G68" s="44"/>
+      <c r="G68" s="43"/>
       <c r="H68" s="25"/>
       <c r="I68" s="6">
         <v>1008382</v>
       </c>
-      <c r="K68" s="45"/>
-      <c r="L68" s="46"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="45"/>
       <c r="N68" s="16"/>
       <c r="O68" s="29"/>
-      <c r="Q68" s="14" t="s">
-        <v>152</v>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="R68" s="14"/>
       <c r="S68" s="30"/>
       <c r="T68" s="32"/>
-      <c r="U68" s="38">
+      <c r="U68" s="37">
         <v>8275</v>
       </c>
-      <c r="V68" s="42"/>
+      <c r="V68" s="41"/>
       <c r="W68" s="35"/>
       <c r="X68" s="34"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68" s="49">
+        <v>828</v>
+      </c>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="51"/>
+      <c r="AB68" s="56"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="E69" s="10">
         <v>75310</v>
       </c>
       <c r="F69" s="11"/>
-      <c r="G69" s="44"/>
+      <c r="G69" s="43"/>
       <c r="H69" s="25"/>
       <c r="I69" s="6">
         <v>4249389</v>
       </c>
-      <c r="K69" s="45"/>
-      <c r="L69" s="46"/>
-      <c r="Q69" s="14" t="s">
-        <v>154</v>
+      <c r="K69" s="44"/>
+      <c r="L69" s="45"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="48" t="s">
+        <v>108</v>
       </c>
       <c r="R69" s="14"/>
       <c r="S69" s="30"/>
       <c r="T69" s="32"/>
-      <c r="U69" s="38">
+      <c r="U69" s="37">
         <v>8110</v>
       </c>
-      <c r="V69" s="42"/>
+      <c r="V69" s="41"/>
       <c r="W69" s="35"/>
       <c r="X69" s="34"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69" s="49">
+        <v>563</v>
+      </c>
+      <c r="Z69" s="50"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="56"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="F70" s="11"/>
-      <c r="G70" s="44"/>
+      <c r="G70" s="43"/>
       <c r="H70" s="25"/>
-      <c r="Q70" s="14" t="s">
-        <v>157</v>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="R70" s="14"/>
       <c r="S70" s="30"/>
       <c r="T70" s="32"/>
-      <c r="U70" s="38">
+      <c r="U70" s="37">
         <v>8297</v>
       </c>
-      <c r="V70" s="42"/>
+      <c r="V70" s="41"/>
       <c r="W70" s="35"/>
       <c r="X70" s="34"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z70" s="50"/>
+      <c r="AA70" s="51"/>
+      <c r="AB70" s="56"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E71" s="10">
         <v>76800</v>
       </c>
       <c r="F71" s="11"/>
-      <c r="G71" s="44"/>
+      <c r="G71" s="43"/>
       <c r="H71" s="25"/>
       <c r="I71" s="6">
         <v>6017263</v>
       </c>
-      <c r="K71" s="45"/>
-      <c r="L71" s="46"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="45"/>
       <c r="M71" s="8">
         <v>88212</v>
       </c>
       <c r="N71" s="16"/>
       <c r="O71" s="29"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="14" t="s">
-        <v>159</v>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="R71" s="14"/>
       <c r="S71" s="30"/>
       <c r="T71" s="32"/>
-      <c r="U71" s="38">
+      <c r="U71" s="37">
         <v>4050</v>
       </c>
-      <c r="V71" s="42"/>
+      <c r="V71" s="41"/>
       <c r="W71" s="35"/>
       <c r="X71" s="34"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71" s="49">
+        <v>931</v>
+      </c>
+      <c r="Z71" s="50"/>
+      <c r="AA71" s="51"/>
+      <c r="AB71" s="56"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F72" s="11"/>
-      <c r="G72" s="44"/>
+      <c r="G72" s="43"/>
       <c r="H72" s="25"/>
       <c r="I72" s="6">
         <v>1763432</v>
       </c>
-      <c r="K72" s="45"/>
-      <c r="L72" s="46"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
       <c r="M72" s="8">
         <v>88205</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="29"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="14" t="s">
-        <v>162</v>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="R72" s="14"/>
       <c r="S72" s="30"/>
       <c r="T72" s="32"/>
-      <c r="U72" s="38">
+      <c r="U72" s="37">
         <v>4074</v>
       </c>
-      <c r="V72" s="42"/>
+      <c r="V72" s="41"/>
       <c r="W72" s="35"/>
       <c r="X72" s="34"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72" s="49">
+        <v>920</v>
+      </c>
+      <c r="Z72" s="50"/>
+      <c r="AA72" s="51"/>
+      <c r="AB72" s="56"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E73" s="10">
         <v>74844</v>
       </c>
       <c r="F73" s="11"/>
-      <c r="G73" s="44"/>
+      <c r="G73" s="43"/>
       <c r="H73" s="25"/>
       <c r="I73" s="6">
         <v>9173196</v>
       </c>
-      <c r="K73" s="45"/>
+      <c r="K73" s="44"/>
       <c r="M73" s="8">
         <v>88076</v>
       </c>
       <c r="N73" s="16"/>
       <c r="O73" s="29"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="14" t="s">
-        <v>164</v>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="R73" s="14"/>
       <c r="S73" s="30"/>
       <c r="T73" s="32"/>
-      <c r="U73" s="38">
+      <c r="U73" s="37">
         <v>4219</v>
       </c>
-      <c r="V73" s="42"/>
+      <c r="V73" s="41"/>
       <c r="W73" s="35"/>
       <c r="X73" s="34"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73" s="49">
+        <v>1455</v>
+      </c>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="56"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="E74" s="10">
         <v>78126</v>
       </c>
       <c r="F74" s="11"/>
-      <c r="G74" s="44"/>
+      <c r="G74" s="43"/>
       <c r="H74" s="25"/>
       <c r="I74" s="6">
         <v>2036598</v>
       </c>
-      <c r="K74" s="45"/>
-      <c r="L74" s="46"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="45"/>
       <c r="M74" s="8">
         <v>88198</v>
       </c>
       <c r="N74" s="16"/>
       <c r="O74" s="29"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="14" t="s">
-        <v>166</v>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="R74" s="14"/>
       <c r="S74" s="30"/>
       <c r="T74" s="32"/>
-      <c r="U74" s="38">
+      <c r="U74" s="37">
         <v>8142</v>
       </c>
-      <c r="V74" s="42"/>
+      <c r="V74" s="41"/>
       <c r="W74" s="35"/>
       <c r="X74" s="34"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" s="49">
+        <v>865</v>
+      </c>
+      <c r="Z74" s="50"/>
+      <c r="AA74" s="51"/>
+      <c r="AB74" s="56"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H75" s="24"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="47"/>
       <c r="S75" s="30"/>
       <c r="T75" s="32"/>
-      <c r="V75" s="41"/>
+      <c r="V75" s="40"/>
       <c r="W75" s="35"/>
       <c r="X75" s="34"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="52"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H76" s="24"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:H1"/>

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D3E8AF-3722-483A-B01D-661A84ED2930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242EE7B9-EEF5-4840-8360-223907E16208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="198">
   <si>
     <t>Item</t>
   </si>
@@ -63,51 +63,27 @@
     <t>027398</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple Empire </t>
-  </si>
-  <si>
-    <t>Arugula Baby</t>
-  </si>
-  <si>
     <t>P5728</t>
   </si>
   <si>
     <t>Bananas</t>
   </si>
   <si>
-    <t>Basil (Cleaned)</t>
-  </si>
-  <si>
     <t>CK134</t>
   </si>
   <si>
-    <t>Broccoli Crowns</t>
-  </si>
-  <si>
     <t>CK138</t>
   </si>
   <si>
-    <t>Broccoli Florettes (12 lb)</t>
-  </si>
-  <si>
     <t>FA080</t>
   </si>
   <si>
     <t>Brussel Sprouts</t>
   </si>
   <si>
-    <t xml:space="preserve">Cabbage NAPA </t>
-  </si>
-  <si>
-    <t>Cabbage Shredded</t>
-  </si>
-  <si>
     <t>FA082</t>
   </si>
   <si>
-    <t>Cantaloupe</t>
-  </si>
-  <si>
     <t>Carrots (25 lb)</t>
   </si>
   <si>
@@ -126,57 +102,30 @@
     <t>Celery</t>
   </si>
   <si>
-    <t>Cilantro</t>
-  </si>
-  <si>
     <t>B9314</t>
   </si>
   <si>
-    <t>Collard Greens</t>
-  </si>
-  <si>
-    <t>Cucumbers English</t>
-  </si>
-  <si>
     <t>E9102</t>
   </si>
   <si>
-    <t xml:space="preserve">Eggs Shell </t>
-  </si>
-  <si>
     <t>L3716</t>
   </si>
   <si>
     <t>008005</t>
   </si>
   <si>
-    <t>Garlic Peeled</t>
-  </si>
-  <si>
     <t>GC952</t>
   </si>
   <si>
     <t>Ginger Root</t>
   </si>
   <si>
-    <t>Grapes Seedless</t>
-  </si>
-  <si>
     <t>Green Beans</t>
   </si>
   <si>
     <t>Green Beans (Trimmed &amp; Fresh)</t>
   </si>
   <si>
-    <t>Honeydew Melon</t>
-  </si>
-  <si>
-    <t>Kale</t>
-  </si>
-  <si>
-    <t>Kale (Cleaned)</t>
-  </si>
-  <si>
     <t>Kiwi</t>
   </si>
   <si>
@@ -186,15 +135,9 @@
     <t>Lemon</t>
   </si>
   <si>
-    <t>Lettuce Green Leaf  Washed &amp; Trimmed</t>
-  </si>
-  <si>
     <t>JJ754</t>
   </si>
   <si>
-    <t>Lettuce Green Leaf Fillet</t>
-  </si>
-  <si>
     <t>CK412</t>
   </si>
   <si>
@@ -204,180 +147,72 @@
     <t>4722</t>
   </si>
   <si>
-    <t xml:space="preserve">Mushroom Shiitake </t>
-  </si>
-  <si>
-    <t>Mushrooms Portobello Caps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mushrooms Thick Sliced </t>
-  </si>
-  <si>
     <t>PC076</t>
   </si>
   <si>
-    <t>Mushrooms Whole Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onion Red </t>
-  </si>
-  <si>
     <t>CK430</t>
   </si>
   <si>
-    <t>Onion Red Peeled</t>
-  </si>
-  <si>
     <t>HB334</t>
   </si>
   <si>
-    <t xml:space="preserve">Onion Spanish </t>
-  </si>
-  <si>
     <t>CK408</t>
   </si>
   <si>
-    <t>Onion Spanish Peeled</t>
-  </si>
-  <si>
     <t>K7616</t>
   </si>
   <si>
-    <t>Onions Green  (Scallions)</t>
-  </si>
-  <si>
     <t>E3912</t>
   </si>
   <si>
-    <t>Oregano</t>
-  </si>
-  <si>
-    <t>Parsley</t>
-  </si>
-  <si>
     <t>G1148</t>
   </si>
   <si>
-    <t>Parsley (Washed &amp; Trimmed)</t>
-  </si>
-  <si>
     <t>NH186</t>
   </si>
   <si>
-    <t>Pepper Green Bell  (Large) (RENZI = 20lb)</t>
-  </si>
-  <si>
-    <t>Pepper Green Bell Xtra Large</t>
-  </si>
-  <si>
     <t>B5158</t>
   </si>
   <si>
-    <t>Pepper Red Bell (5lb)</t>
-  </si>
-  <si>
-    <t>Pepper Red Bell (11 lb)</t>
-  </si>
-  <si>
-    <t>Pepper Red Bell (25 lb)</t>
-  </si>
-  <si>
     <t>E5992</t>
   </si>
   <si>
-    <t>Peppers Jalapeno</t>
-  </si>
-  <si>
     <t>G5204</t>
   </si>
   <si>
     <t>Pineapple</t>
   </si>
   <si>
-    <t>Pomegranate Seeds Frozen</t>
-  </si>
-  <si>
     <t>KC460</t>
   </si>
   <si>
-    <t>Pomegranate Whole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potato Chef  </t>
-  </si>
-  <si>
     <t>J5882</t>
   </si>
   <si>
-    <t>Potato Red "A"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potato Russet </t>
-  </si>
-  <si>
     <t>JJ772</t>
   </si>
   <si>
     <t>Radish</t>
   </si>
   <si>
-    <t>Romaine Hearts</t>
-  </si>
-  <si>
     <t>NH690</t>
   </si>
   <si>
-    <t>Romaine Hearts (Washed &amp; Trimmed)</t>
-  </si>
-  <si>
     <t>FC154</t>
   </si>
   <si>
-    <t>Salad Blend (Heritage/Arcadia)</t>
-  </si>
-  <si>
-    <t>Spinach Baby</t>
-  </si>
-  <si>
     <t>JJ734</t>
   </si>
   <si>
-    <t>Spring Mix</t>
-  </si>
-  <si>
     <t>GC934</t>
   </si>
   <si>
-    <t xml:space="preserve">Strawberries Fresh </t>
-  </si>
-  <si>
-    <t>Snow Peas</t>
-  </si>
-  <si>
-    <t>Sugar Snap Peas (24 lb bags Sysco)</t>
-  </si>
-  <si>
-    <t>Swiss Chard</t>
-  </si>
-  <si>
     <t>J5602</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomato Grape </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomatos 5x6 </t>
-  </si>
-  <si>
     <t>FD254</t>
   </si>
   <si>
-    <t xml:space="preserve">Watermelon </t>
-  </si>
-  <si>
-    <t>Zucchini Fancy Medium</t>
-  </si>
-  <si>
     <t>Preferred</t>
   </si>
   <si>
@@ -393,58 +228,403 @@
     <t>Behlog Produce</t>
   </si>
   <si>
-    <t>Cabbage NAPA </t>
-  </si>
-  <si>
-    <t>Mushrooms Thick Sliced </t>
-  </si>
-  <si>
-    <t>Onion Red </t>
-  </si>
-  <si>
-    <t>Onion Spanish </t>
-  </si>
-  <si>
-    <t>Pepper Green Bell  (Large) (RENZI = 20lb)</t>
-  </si>
-  <si>
-    <t>Strawberries Fresh </t>
-  </si>
-  <si>
-    <t>Tomato Grape </t>
-  </si>
-  <si>
-    <t>Tomatos 5x6 </t>
-  </si>
-  <si>
-    <t>Watermelon </t>
-  </si>
-  <si>
-    <t>Apple Empire </t>
-  </si>
-  <si>
-    <t>Eggs Shell </t>
-  </si>
-  <si>
-    <t>Lettuce Green Leaf  Washed &amp; Trimmed</t>
-  </si>
-  <si>
-    <t>Mushroom Shiitake </t>
-  </si>
-  <si>
-    <t>Onions Green  (Scallions)</t>
-  </si>
-  <si>
-    <t>Potato Chef  </t>
-  </si>
-  <si>
-    <t>Potato Russet </t>
-  </si>
-  <si>
     <t>8115</t>
   </si>
   <si>
     <t>US Foods</t>
+  </si>
+  <si>
+    <t>Alfalfa Sprout - 5LB - NYS</t>
+  </si>
+  <si>
+    <t>6/1 Gallon Cider - Beak</t>
+  </si>
+  <si>
+    <t>12x3lb Empire Apple -  - USA</t>
+  </si>
+  <si>
+    <t>Baby Arugula 4lb - usa</t>
+  </si>
+  <si>
+    <t>Banana -40lb- CRI</t>
+  </si>
+  <si>
+    <t>Only Basil - LB</t>
+  </si>
+  <si>
+    <t>Broccoli Crown - 20lb -USA</t>
+  </si>
+  <si>
+    <t>Brussel Sprout 25# - Mex</t>
+  </si>
+  <si>
+    <t>Napa 30lb - USA</t>
+  </si>
+  <si>
+    <t>25 lb. Carrot -US</t>
+  </si>
+  <si>
+    <t>10x5 lb. Carrot - us</t>
+  </si>
+  <si>
+    <t>Cauliflower 12's - USA</t>
+  </si>
+  <si>
+    <t>4x5 lb. Celery Stix - USA</t>
+  </si>
+  <si>
+    <t>CILANTRO - 60ct CASE</t>
+  </si>
+  <si>
+    <t>Collard Greens - USA</t>
+  </si>
+  <si>
+    <t>Cucumber  SS - USA</t>
+  </si>
+  <si>
+    <t>5LB Peeled Garlic</t>
+  </si>
+  <si>
+    <t>Ginger - 30lb - CHN</t>
+  </si>
+  <si>
+    <t>Red Seedless Grape - per</t>
+  </si>
+  <si>
+    <t>Green Bean - USA</t>
+  </si>
+  <si>
+    <t>Honeydew 5 ct - USA</t>
+  </si>
+  <si>
+    <t>Kale  16lb - USA</t>
+  </si>
+  <si>
+    <t>Green Leaf Crowns 10# - USA</t>
+  </si>
+  <si>
+    <t>5 lb. Portabello Cap Mush-USA</t>
+  </si>
+  <si>
+    <t>25 lb.  Red  Onions - USA</t>
+  </si>
+  <si>
+    <t>50 lb.  Spanish Onions - USA</t>
+  </si>
+  <si>
+    <t>Green Onion 48ct  - USA</t>
+  </si>
+  <si>
+    <t>Oregano - Only Bunch</t>
+  </si>
+  <si>
+    <t>Bunches Curly Parsley - Mex</t>
+  </si>
+  <si>
+    <t>Large  Pepper 25# - USA</t>
+  </si>
+  <si>
+    <t>Red Pepper 11# - CAN</t>
+  </si>
+  <si>
+    <t>Jalapeno Pepper-Bushel-USA</t>
+  </si>
+  <si>
+    <t>7ct Pineapple - Costa Rico</t>
+  </si>
+  <si>
+    <t>Pomegranate -30 CT - usa</t>
+  </si>
+  <si>
+    <t>Chef Potato 50# - USA</t>
+  </si>
+  <si>
+    <t>50lb Red 'A' Potato - USA</t>
+  </si>
+  <si>
+    <t>10x5 lb. Russett Potato - USA</t>
+  </si>
+  <si>
+    <t>14x1lb.  Radish - USA</t>
+  </si>
+  <si>
+    <t>Romaine - Chopped 6x2lb - USA</t>
+  </si>
+  <si>
+    <t>Spring Mix 3lb -HERITAGE -USA</t>
+  </si>
+  <si>
+    <t>Baby Spinach 4/2.5lb. - USA</t>
+  </si>
+  <si>
+    <t>8/1# Strawberry - USA</t>
+  </si>
+  <si>
+    <t>Snow Pea 10# - Guat</t>
+  </si>
+  <si>
+    <t>Snap Pea -10# -</t>
+  </si>
+  <si>
+    <t>Grape Tomato - USA</t>
+  </si>
+  <si>
+    <t>5X6 Tomato 25 lb. - USA</t>
+  </si>
+  <si>
+    <t>Strawberries Fresh</t>
+  </si>
+  <si>
+    <t>Pears</t>
+  </si>
+  <si>
+    <t>Squash - Yellow</t>
+  </si>
+  <si>
+    <t>Squash - Acorn</t>
+  </si>
+  <si>
+    <t>Onion - Shallot</t>
+  </si>
+  <si>
+    <t>Beets</t>
+  </si>
+  <si>
+    <t>Greens - Bok Choy</t>
+  </si>
+  <si>
+    <t>Greens - Arugula (Baby)</t>
+  </si>
+  <si>
+    <t>Herbs - Basil (Cleaned)</t>
+  </si>
+  <si>
+    <t>Greens - Cabbage (NAPA)</t>
+  </si>
+  <si>
+    <t>Greens - Cabbage (Shredded)</t>
+  </si>
+  <si>
+    <t>Greens - Collard Greens</t>
+  </si>
+  <si>
+    <t>Cucumbers (English)</t>
+  </si>
+  <si>
+    <t>Eggs (Shell-On)</t>
+  </si>
+  <si>
+    <t>Garlic (Peeled)</t>
+  </si>
+  <si>
+    <t>Grapes - Red (Seedless)</t>
+  </si>
+  <si>
+    <t>Melon - Honeydew</t>
+  </si>
+  <si>
+    <t>Greens - Kale</t>
+  </si>
+  <si>
+    <t>Greens - Kale (Cleaned)</t>
+  </si>
+  <si>
+    <t>Greens - Green Leaf Lettuce (Washed &amp; Trimmed)</t>
+  </si>
+  <si>
+    <t>Greens - Green Leaf Lettuce (Fillet)</t>
+  </si>
+  <si>
+    <t>Mushroom - Shiitake</t>
+  </si>
+  <si>
+    <t>Mushroom - Portobello (Caps)</t>
+  </si>
+  <si>
+    <t>Onion - Red</t>
+  </si>
+  <si>
+    <t>Onion - Red (Peeled)</t>
+  </si>
+  <si>
+    <t>Onion - Spanish</t>
+  </si>
+  <si>
+    <t>Onion - Spanish (Peeled)</t>
+  </si>
+  <si>
+    <t>Herb - Oregano</t>
+  </si>
+  <si>
+    <t>Herb - Parsley</t>
+  </si>
+  <si>
+    <t>Herb - Parsley (Washed &amp; Trimmed)</t>
+  </si>
+  <si>
+    <t>Pepper - Green Bell (Large)</t>
+  </si>
+  <si>
+    <t>Pepper - Green Bell (Extra Large)</t>
+  </si>
+  <si>
+    <t>Pepper - Jalapeno</t>
+  </si>
+  <si>
+    <t>Pomegranate Seeds (Frozen)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Whole)</t>
+  </si>
+  <si>
+    <t>Potato - Chef</t>
+  </si>
+  <si>
+    <t>Potato - Red (A)</t>
+  </si>
+  <si>
+    <t>Potato - Russet</t>
+  </si>
+  <si>
+    <t>Greens - Romaine (Hearts)</t>
+  </si>
+  <si>
+    <t>Greens - Romaine (Hearts, Washed &amp; Trimmed)</t>
+  </si>
+  <si>
+    <t>Greens - Salad Blend (Heritage/Arcadia)</t>
+  </si>
+  <si>
+    <t>Greens - Spinach (Baby)</t>
+  </si>
+  <si>
+    <t>Greens - Spring Mix</t>
+  </si>
+  <si>
+    <t>Peas - Snow</t>
+  </si>
+  <si>
+    <t>Peas - Sugar Snap</t>
+  </si>
+  <si>
+    <t>Greens - Swiss Chard</t>
+  </si>
+  <si>
+    <t>Tomato - Grape</t>
+  </si>
+  <si>
+    <t>Tomato - 5x6</t>
+  </si>
+  <si>
+    <t>Melon - Watermelon</t>
+  </si>
+  <si>
+    <t>Greens - Rapini (Broccoli Rabe)</t>
+  </si>
+  <si>
+    <t>Melon - Cantaloupe</t>
+  </si>
+  <si>
+    <t>Herb - Cilantro</t>
+  </si>
+  <si>
+    <t>Mushroom - Button (Whole)</t>
+  </si>
+  <si>
+    <t>Mushroom - Thick Sliced</t>
+  </si>
+  <si>
+    <t>Onion - Green (Scallions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple - Empire </t>
+  </si>
+  <si>
+    <t>Broccoli - Crowns</t>
+  </si>
+  <si>
+    <t>Broccoli - Florettes</t>
+  </si>
+  <si>
+    <t>Pepper - Red Bell (11 LB)</t>
+  </si>
+  <si>
+    <t>Pepper - Red Bell (25 LB)</t>
+  </si>
+  <si>
+    <t>Pepper - Red Bell (5 LB)</t>
+  </si>
+  <si>
+    <t>Squash - Zucchini (Fancy, Medium)</t>
+  </si>
+  <si>
+    <t>25 lb Cut Beet</t>
+  </si>
+  <si>
+    <t>Broccoli Floret -6/3lb-USA</t>
+  </si>
+  <si>
+    <t>Kiwifruit - ITA</t>
+  </si>
+  <si>
+    <t>Leek 12 ct - Mex</t>
+  </si>
+  <si>
+    <t>115 Lemon - USA</t>
+  </si>
+  <si>
+    <t>36 ct Lime  - Mex</t>
+  </si>
+  <si>
+    <t>Lopes 9's - USA</t>
+  </si>
+  <si>
+    <t>Shitake Mushroom 3LB - USA</t>
+  </si>
+  <si>
+    <t>Sliced Mushroom - 10lb- USA</t>
+  </si>
+  <si>
+    <t>Peeled Shallot</t>
+  </si>
+  <si>
+    <t>D`Anjou Pear 46# - USA</t>
+  </si>
+  <si>
+    <t>Jumbo Pepper 1 1/9 bu- USA</t>
+  </si>
+  <si>
+    <t>Yellow  Squash  - USA</t>
+  </si>
+  <si>
+    <t>Green Squash  - USA</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>Snipped Gr. Beans 10lb. - USA</t>
+  </si>
+  <si>
+    <t>Bok Choy 30lb - can</t>
+  </si>
+  <si>
+    <t>4x5lb. Cole Slaw - USA</t>
+  </si>
+  <si>
+    <t>Romaine  Heart 12/3 ct - USA</t>
+  </si>
+  <si>
+    <t>10 lb.  Mushroom - USA</t>
   </si>
 </sst>
 </file>
@@ -614,7 +794,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,10 +898,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,6 +916,13 @@
     <xf numFmtId="44" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1102,18 +1285,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="39" customWidth="1"/>
@@ -1136,65 +1319,65 @@
     <col min="22" max="22" width="14" style="20" customWidth="1"/>
     <col min="23" max="23" width="13.7109375" style="33" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" style="21" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="49" customWidth="1"/>
-    <col min="26" max="26" width="14" style="53" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="54" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" style="55" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="47" customWidth="1"/>
+    <col min="26" max="26" width="14" style="51" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="52" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>115</v>
+      <c r="B1" s="75" t="s">
+        <v>60</v>
       </c>
       <c r="C1" s="46"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="57" t="s">
+      <c r="E1" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" s="68"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="73"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="69"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
@@ -1273,9 +1456,8 @@
         <v>7</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="47" t="s">
-        <v>7</v>
+      <c r="Q3" s="55" t="s">
+        <v>67</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="30"/>
@@ -1283,897 +1465,822 @@
       <c r="V3" s="19"/>
       <c r="W3" s="35"/>
       <c r="X3" s="34"/>
-      <c r="Y3" s="49">
+      <c r="Y3" s="47">
         <v>845</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="56"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="54"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="48" t="s">
-        <v>8</v>
+      <c r="H4" s="24"/>
+      <c r="Q4" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="30"/>
       <c r="T4" s="32"/>
-      <c r="U4" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="40"/>
+      <c r="U4" s="37">
+        <v>4368</v>
+      </c>
+      <c r="V4" s="41"/>
       <c r="W4" s="35"/>
       <c r="X4" s="34"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="56"/>
+      <c r="Y4" s="47">
+        <v>1081</v>
+      </c>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="54"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="H5" s="24"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="48" t="s">
-        <v>129</v>
+      <c r="N5" s="16"/>
+      <c r="O5" s="29"/>
+      <c r="Q5" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="30"/>
       <c r="T5" s="32"/>
-      <c r="U5" s="37">
-        <v>4368</v>
-      </c>
-      <c r="V5" s="41"/>
+      <c r="U5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="40"/>
       <c r="W5" s="35"/>
       <c r="X5" s="34"/>
-      <c r="Y5" s="49">
-        <v>1081</v>
-      </c>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="56"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="54"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
+      <c r="E6" s="10">
+        <v>74966</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="43"/>
       <c r="H6" s="25"/>
       <c r="I6" s="6">
-        <v>7975374</v>
+        <v>1254440</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="45"/>
       <c r="M6" s="8">
-        <v>88202</v>
-      </c>
-      <c r="N6" s="16"/>
+        <v>88034</v>
+      </c>
       <c r="O6" s="29"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="47" t="s">
-        <v>11</v>
-      </c>
+      <c r="Q6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="14"/>
       <c r="S6" s="30"/>
       <c r="T6" s="32"/>
       <c r="U6" s="37">
-        <v>8279</v>
+        <v>4009</v>
       </c>
       <c r="V6" s="41"/>
       <c r="W6" s="35"/>
       <c r="X6" s="34"/>
-      <c r="Y6" s="49">
-        <v>386</v>
-      </c>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="56"/>
+      <c r="Y6" s="47">
+        <v>1125</v>
+      </c>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="54"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10">
-        <v>74966</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="6">
-        <v>1254440</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="8">
-        <v>88034</v>
-      </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="37">
-        <v>4009</v>
-      </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="49">
-        <v>1125</v>
-      </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="56"/>
+        <v>118</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="6">
-        <v>2004547</v>
+        <v>2704989</v>
       </c>
       <c r="K8" s="44"/>
       <c r="L8" s="45"/>
       <c r="M8" s="8">
-        <v>88229</v>
-      </c>
+        <v>88306</v>
+      </c>
+      <c r="N8" s="16"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="14"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="S8" s="30"/>
       <c r="T8" s="32"/>
       <c r="U8" s="37">
-        <v>8170</v>
+        <v>8203</v>
       </c>
       <c r="V8" s="41"/>
       <c r="W8" s="35"/>
       <c r="X8" s="34"/>
-      <c r="Y8" s="49">
-        <v>251</v>
-      </c>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="56"/>
+      <c r="Y8" s="47">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="54"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="43"/>
       <c r="H9" s="25"/>
       <c r="I9" s="6">
-        <v>2704989</v>
+        <v>1675859</v>
       </c>
       <c r="K9" s="44"/>
       <c r="L9" s="45"/>
       <c r="M9" s="8">
-        <v>88306</v>
+        <v>88090</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="48" t="s">
-        <v>16</v>
-      </c>
+      <c r="P9" s="56"/>
+      <c r="Q9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R9" s="14"/>
       <c r="S9" s="30"/>
       <c r="T9" s="32"/>
       <c r="U9" s="37">
-        <v>8203</v>
+        <v>8893</v>
       </c>
       <c r="V9" s="41"/>
       <c r="W9" s="35"/>
       <c r="X9" s="34"/>
-      <c r="Y9" s="49">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="56"/>
+      <c r="Y9" s="47">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="54"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="10">
+        <v>78516</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="43"/>
       <c r="H10" s="25"/>
       <c r="I10" s="6">
-        <v>1675859</v>
+        <v>4510299</v>
       </c>
       <c r="K10" s="44"/>
       <c r="L10" s="45"/>
       <c r="M10" s="8">
-        <v>88090</v>
-      </c>
-      <c r="N10" s="16"/>
+        <v>88477</v>
+      </c>
       <c r="O10" s="29"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="47" t="s">
-        <v>18</v>
+      <c r="Q10" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="R10" s="14"/>
       <c r="S10" s="30"/>
       <c r="T10" s="32"/>
       <c r="U10" s="37">
-        <v>8893</v>
+        <v>8227</v>
       </c>
       <c r="V10" s="41"/>
       <c r="W10" s="35"/>
       <c r="X10" s="34"/>
-      <c r="Y10" s="49">
-        <v>50</v>
-      </c>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="56"/>
+      <c r="Y10" s="47">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="54"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10">
-        <v>78516</v>
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="43"/>
       <c r="H11" s="25"/>
       <c r="I11" s="6">
-        <v>4510299</v>
+        <v>2227007</v>
       </c>
       <c r="K11" s="44"/>
       <c r="L11" s="45"/>
       <c r="M11" s="8">
-        <v>88477</v>
-      </c>
+        <v>88095</v>
+      </c>
+      <c r="N11" s="16"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="48" t="s">
-        <v>20</v>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="55" t="s">
+        <v>76</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="30"/>
       <c r="T11" s="32"/>
       <c r="U11" s="37">
-        <v>8227</v>
+        <v>8104</v>
       </c>
       <c r="V11" s="41"/>
       <c r="W11" s="35"/>
       <c r="X11" s="34"/>
-      <c r="Y11" s="49">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="56"/>
+      <c r="Y11" s="47">
+        <v>80</v>
+      </c>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="54"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="H12" s="24"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="47" t="s">
-        <v>120</v>
+      <c r="I12" s="6">
+        <v>2227015</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="8">
+        <v>88159</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="55" t="s">
+        <v>77</v>
       </c>
       <c r="S12" s="30"/>
       <c r="T12" s="32"/>
-      <c r="U12" s="37">
-        <v>8324</v>
-      </c>
-      <c r="V12" s="41"/>
+      <c r="V12" s="40"/>
       <c r="W12" s="35"/>
       <c r="X12" s="34"/>
-      <c r="Y12" s="49">
-        <v>60</v>
-      </c>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="56"/>
+      <c r="Y12" s="47">
+        <v>82</v>
+      </c>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="54"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E13" s="10">
+        <v>78270</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="43"/>
       <c r="H13" s="25"/>
       <c r="I13" s="6">
-        <v>1675701</v>
+        <v>1243724</v>
       </c>
       <c r="K13" s="44"/>
       <c r="L13" s="45"/>
       <c r="M13" s="8">
-        <v>88139</v>
-      </c>
-      <c r="N13" s="16"/>
+        <v>88101</v>
+      </c>
       <c r="O13" s="29"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="48" t="s">
-        <v>22</v>
+      <c r="Q13" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="R13" s="14"/>
       <c r="S13" s="30"/>
       <c r="T13" s="32"/>
       <c r="U13" s="37">
-        <v>8612</v>
+        <v>8107</v>
       </c>
       <c r="V13" s="41"/>
       <c r="W13" s="35"/>
       <c r="X13" s="34"/>
-      <c r="Y13" s="49">
-        <v>170</v>
-      </c>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="56"/>
+      <c r="Y13" s="47">
+        <v>125</v>
+      </c>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="54"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="10">
-        <v>75104</v>
+        <v>78112</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="43"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="6">
-        <v>1164375</v>
-      </c>
-      <c r="K14" s="44"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="47" t="s">
-        <v>24</v>
+      <c r="M14" s="8">
+        <v>88108</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="Q14" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="R14" s="14"/>
       <c r="S14" s="30"/>
       <c r="T14" s="32"/>
       <c r="U14" s="37">
-        <v>4176</v>
+        <v>8108</v>
       </c>
       <c r="V14" s="41"/>
       <c r="W14" s="35"/>
       <c r="X14" s="34"/>
-      <c r="Y14" s="49">
-        <v>1375</v>
-      </c>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="56"/>
+      <c r="Y14" s="47">
+        <v>141</v>
+      </c>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="54"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="43"/>
       <c r="H15" s="25"/>
       <c r="I15" s="6">
-        <v>2227007</v>
+        <v>1735372</v>
       </c>
       <c r="K15" s="44"/>
       <c r="L15" s="45"/>
       <c r="M15" s="8">
-        <v>88095</v>
+        <v>88115</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="48" t="s">
-        <v>25</v>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="R15" s="14"/>
       <c r="S15" s="30"/>
       <c r="T15" s="32"/>
       <c r="U15" s="37">
-        <v>8104</v>
+        <v>8448</v>
       </c>
       <c r="V15" s="41"/>
       <c r="W15" s="35"/>
       <c r="X15" s="34"/>
-      <c r="Y15" s="49">
-        <v>80</v>
-      </c>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="56"/>
+      <c r="Y15" s="47">
+        <v>187</v>
+      </c>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="54"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="6">
-        <v>2227015</v>
+        <v>2105773</v>
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
       <c r="M16" s="8">
-        <v>88159</v>
-      </c>
-      <c r="N16" s="16"/>
+        <v>27960</v>
+      </c>
       <c r="O16" s="29"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="47" t="s">
-        <v>27</v>
-      </c>
       <c r="S16" s="30"/>
       <c r="T16" s="32"/>
-      <c r="V16" s="40"/>
+      <c r="U16" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="41"/>
       <c r="W16" s="35"/>
       <c r="X16" s="34"/>
-      <c r="Y16" s="49">
-        <v>82</v>
-      </c>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="56"/>
+      <c r="Y16" s="47">
+        <v>1870</v>
+      </c>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="54"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="10">
-        <v>78270</v>
+        <v>127</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="43"/>
       <c r="H17" s="25"/>
       <c r="I17" s="6">
-        <v>1243724</v>
+        <v>1821537</v>
       </c>
       <c r="K17" s="44"/>
       <c r="L17" s="45"/>
       <c r="M17" s="8">
-        <v>88101</v>
-      </c>
+        <v>88121</v>
+      </c>
+      <c r="N17" s="16"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="14"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="55" t="s">
+        <v>83</v>
+      </c>
       <c r="S17" s="30"/>
       <c r="T17" s="32"/>
       <c r="U17" s="37">
-        <v>8107</v>
+        <v>8084</v>
       </c>
       <c r="V17" s="41"/>
       <c r="W17" s="35"/>
       <c r="X17" s="34"/>
-      <c r="Y17" s="49">
-        <v>125</v>
-      </c>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="56"/>
+      <c r="Y17" s="47">
+        <v>226</v>
+      </c>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="54"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="10">
-        <v>78112</v>
+        <v>76346</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="43"/>
       <c r="H18" s="25"/>
-      <c r="M18" s="8">
-        <v>88108</v>
-      </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="48" t="s">
-        <v>30</v>
+      <c r="Q18" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="R18" s="14"/>
       <c r="S18" s="30"/>
       <c r="T18" s="32"/>
       <c r="U18" s="37">
-        <v>8108</v>
+        <v>8153</v>
       </c>
       <c r="V18" s="41"/>
       <c r="W18" s="35"/>
       <c r="X18" s="34"/>
-      <c r="Y18" s="49">
-        <v>141</v>
-      </c>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="56"/>
+      <c r="Y18" s="47">
+        <v>237</v>
+      </c>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="54"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>32</v>
+        <v>128</v>
+      </c>
+      <c r="E19" s="10">
+        <v>78922</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="43"/>
       <c r="H19" s="25"/>
+      <c r="I19" s="6">
+        <v>668873</v>
+      </c>
       <c r="M19" s="8">
-        <v>89225</v>
+        <v>88043</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="48" t="s">
-        <v>31</v>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="R19" s="14"/>
       <c r="S19" s="30"/>
       <c r="T19" s="32"/>
       <c r="U19" s="37">
-        <v>8052</v>
+        <v>4094</v>
       </c>
       <c r="V19" s="41"/>
       <c r="W19" s="35"/>
       <c r="X19" s="34"/>
-      <c r="Y19" s="49">
-        <v>253</v>
-      </c>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="56"/>
+      <c r="Y19" s="47">
+        <v>1250</v>
+      </c>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="54"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="10">
-        <v>77264</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="6">
-        <v>2260149</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="H20" s="24"/>
+      <c r="Q20" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="S20" s="30"/>
       <c r="T20" s="32"/>
-      <c r="U20" s="37">
-        <v>8236</v>
-      </c>
-      <c r="V20" s="41"/>
+      <c r="V20" s="40"/>
       <c r="W20" s="35"/>
       <c r="X20" s="34"/>
-      <c r="Y20" s="49">
-        <v>176</v>
-      </c>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="56"/>
+      <c r="Y20" s="47">
+        <v>15</v>
+      </c>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="54"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E21" s="10">
+        <v>74968</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="43"/>
       <c r="H21" s="25"/>
       <c r="I21" s="6">
-        <v>1735372</v>
+        <v>1810910</v>
       </c>
       <c r="K21" s="44"/>
       <c r="L21" s="45"/>
-      <c r="M21" s="8">
-        <v>88115</v>
-      </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="48" t="s">
-        <v>34</v>
+      <c r="Q21" t="s">
+        <v>193</v>
       </c>
       <c r="R21" s="14"/>
       <c r="S21" s="30"/>
       <c r="T21" s="32"/>
       <c r="U21" s="37">
-        <v>8448</v>
+        <v>8076</v>
       </c>
       <c r="V21" s="41"/>
       <c r="W21" s="35"/>
       <c r="X21" s="34"/>
-      <c r="Y21" s="49">
-        <v>187</v>
-      </c>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="56"/>
+      <c r="Y21" s="47">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="54"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="43"/>
       <c r="H22" s="25"/>
       <c r="I22" s="6">
-        <v>2105773</v>
+        <v>7975374</v>
       </c>
       <c r="K22" s="44"/>
       <c r="L22" s="45"/>
       <c r="M22" s="8">
-        <v>27960</v>
-      </c>
+        <v>88202</v>
+      </c>
+      <c r="N22" s="16"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="47" t="s">
-        <v>130</v>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="S22" s="30"/>
       <c r="T22" s="32"/>
-      <c r="U22" s="37" t="s">
-        <v>38</v>
+      <c r="U22" s="37">
+        <v>8279</v>
       </c>
       <c r="V22" s="41"/>
       <c r="W22" s="35"/>
       <c r="X22" s="34"/>
-      <c r="Y22" s="49">
-        <v>1870</v>
-      </c>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="56"/>
+      <c r="Y22" s="47">
+        <v>386</v>
+      </c>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="54"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="6">
-        <v>1821537</v>
-      </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="8">
-        <v>88121</v>
-      </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="37">
-        <v>8084</v>
-      </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="49">
-        <v>226</v>
-      </c>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="56"/>
+        <v>119</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="10">
-        <v>76346</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="25"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="H24" s="24"/>
+      <c r="Q24" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="S24" s="30"/>
       <c r="T24" s="32"/>
       <c r="U24" s="37">
-        <v>8153</v>
+        <v>8324</v>
       </c>
       <c r="V24" s="41"/>
       <c r="W24" s="35"/>
       <c r="X24" s="34"/>
-      <c r="Y24" s="49">
-        <v>237</v>
-      </c>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="56"/>
+      <c r="Y24" s="47">
+        <v>60</v>
+      </c>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="54"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="10">
-        <v>78922</v>
+        <v>123</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="43"/>
       <c r="H25" s="25"/>
       <c r="I25" s="6">
-        <v>668873</v>
-      </c>
+        <v>1675701</v>
+      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="8">
-        <v>88043</v>
+        <v>88139</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="48" t="s">
-        <v>42</v>
+      <c r="P25" s="57"/>
+      <c r="Q25" t="s">
+        <v>195</v>
       </c>
       <c r="R25" s="14"/>
       <c r="S25" s="30"/>
       <c r="T25" s="32"/>
       <c r="U25" s="37">
-        <v>4094</v>
+        <v>8612</v>
       </c>
       <c r="V25" s="41"/>
       <c r="W25" s="35"/>
       <c r="X25" s="34"/>
-      <c r="Y25" s="49">
-        <v>1250</v>
-      </c>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="56"/>
+      <c r="Y25" s="47">
+        <v>170</v>
+      </c>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="54"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="H26" s="24"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="47" t="s">
-        <v>43</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E26" s="10">
+        <v>77264</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="6">
+        <v>2260149</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="Q26" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="R26" s="14"/>
       <c r="S26" s="30"/>
       <c r="T26" s="32"/>
-      <c r="V26" s="40"/>
+      <c r="U26" s="37">
+        <v>8236</v>
+      </c>
+      <c r="V26" s="41"/>
       <c r="W26" s="35"/>
       <c r="X26" s="34"/>
-      <c r="Y26" s="49">
-        <v>15</v>
-      </c>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="56"/>
+      <c r="Y26" s="47">
+        <v>176</v>
+      </c>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="54"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="10">
-        <v>74968</v>
+        <v>133</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="43"/>
       <c r="H27" s="25"/>
       <c r="I27" s="6">
-        <v>1810910</v>
+        <v>1723857</v>
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="45"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="14"/>
+      <c r="M27" s="8">
+        <v>88128</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="55" t="s">
+        <v>89</v>
+      </c>
       <c r="S27" s="30"/>
       <c r="T27" s="32"/>
-      <c r="U27" s="37">
-        <v>8076</v>
-      </c>
-      <c r="V27" s="41"/>
+      <c r="U27" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="V27" s="40"/>
       <c r="W27" s="35"/>
       <c r="X27" s="34"/>
-      <c r="Y27" s="49">
-        <v>14</v>
-      </c>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="56"/>
+      <c r="Y27" s="47">
+        <v>321</v>
+      </c>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="54"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="10">
-        <v>75736</v>
+        <v>132</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="43"/>
       <c r="H28" s="25"/>
       <c r="I28" s="6">
-        <v>1354135</v>
+        <v>7199706</v>
       </c>
       <c r="K28" s="44"/>
       <c r="L28" s="45"/>
       <c r="M28" s="8">
-        <v>88048</v>
+        <v>88268</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="48" t="s">
-        <v>45</v>
-      </c>
+      <c r="P28" s="56"/>
       <c r="R28" s="14"/>
       <c r="S28" s="30"/>
       <c r="T28" s="32"/>
-      <c r="U28" s="37">
-        <v>4184</v>
-      </c>
       <c r="V28" s="41"/>
       <c r="W28" s="35"/>
       <c r="X28" s="34"/>
-      <c r="Y28" s="49">
-        <v>1425</v>
-      </c>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="56"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="54"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="E29" s="10"/>
       <c r="H29" s="24"/>
@@ -2182,9 +2289,8 @@
       </c>
       <c r="K29" s="44"/>
       <c r="L29" s="45"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="47" t="s">
-        <v>46</v>
+      <c r="Q29" s="55" t="s">
+        <v>88</v>
       </c>
       <c r="S29" s="30"/>
       <c r="T29" s="32"/>
@@ -2194,16 +2300,16 @@
       <c r="V29" s="41"/>
       <c r="W29" s="35"/>
       <c r="X29" s="34"/>
-      <c r="Y29" s="49">
+      <c r="Y29" s="47">
         <v>275</v>
       </c>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="56"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="54"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="E30" s="10"/>
       <c r="H30" s="24"/>
@@ -2217,1601 +2323,1664 @@
       </c>
       <c r="N30" s="16"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="P30" s="56"/>
       <c r="R30" s="14"/>
       <c r="S30" s="30"/>
       <c r="T30" s="32"/>
       <c r="V30" s="41"/>
       <c r="W30" s="35"/>
       <c r="X30" s="34"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="56"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="54"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="10">
-        <v>77662</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="6">
-        <v>1290469</v>
-      </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="37">
-        <v>4185</v>
-      </c>
-      <c r="V31" s="41"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="49">
-        <v>1305</v>
-      </c>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="56"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="10">
-        <v>78414</v>
+        <v>151</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="43"/>
       <c r="H32" s="25"/>
       <c r="I32" s="6">
-        <v>1008168</v>
+        <v>2416691</v>
       </c>
       <c r="K32" s="44"/>
       <c r="L32" s="45"/>
       <c r="M32" s="8">
-        <v>88514</v>
-      </c>
+        <v>88136</v>
+      </c>
+      <c r="N32" s="16"/>
       <c r="O32" s="29"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="47" t="s">
-        <v>49</v>
+      <c r="P32" s="56"/>
+      <c r="Q32" t="s">
+        <v>196</v>
       </c>
       <c r="R32" s="14"/>
       <c r="S32" s="30"/>
       <c r="T32" s="32"/>
       <c r="U32" s="37">
-        <v>8122</v>
+        <v>8380</v>
       </c>
       <c r="V32" s="41"/>
       <c r="W32" s="35"/>
       <c r="X32" s="34"/>
-      <c r="Y32" s="49">
-        <v>285</v>
-      </c>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="56"/>
+      <c r="Y32" s="47">
+        <v>340</v>
+      </c>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="54"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="10">
-        <v>78294</v>
+        <v>152</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="43"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="6">
-        <v>2252039</v>
-      </c>
-      <c r="K33" s="44"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="8">
-        <v>88052</v>
-      </c>
-      <c r="O33" s="29"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="R33" s="14"/>
+      <c r="Q33" s="55" t="s">
+        <v>105</v>
+      </c>
       <c r="S33" s="30"/>
       <c r="T33" s="32"/>
-      <c r="U33" s="37">
-        <v>4186</v>
-      </c>
-      <c r="V33" s="41"/>
+      <c r="V33" s="40"/>
       <c r="W33" s="35"/>
       <c r="X33" s="34"/>
-      <c r="Y33" s="49">
-        <v>1330</v>
-      </c>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="56"/>
+      <c r="Y33" s="47">
+        <v>347</v>
+      </c>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="54"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>52</v>
+        <v>153</v>
+      </c>
+      <c r="E34" s="10">
+        <v>93004</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="6">
-        <v>7199706</v>
-      </c>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="8">
-        <v>88268</v>
-      </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="R34" s="14"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="24"/>
+      <c r="Q34" s="55" t="s">
+        <v>106</v>
+      </c>
       <c r="S34" s="30"/>
       <c r="T34" s="32"/>
-      <c r="V34" s="41"/>
+      <c r="V34" s="40"/>
       <c r="W34" s="35"/>
       <c r="X34" s="34"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="56"/>
+      <c r="Y34" s="47">
+        <v>385</v>
+      </c>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="54"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="43"/>
       <c r="H35" s="25"/>
       <c r="I35" s="6">
-        <v>1723857</v>
+        <v>8474538</v>
       </c>
       <c r="K35" s="44"/>
       <c r="L35" s="45"/>
       <c r="M35" s="8">
-        <v>88128</v>
+        <v>88204</v>
       </c>
       <c r="N35" s="16"/>
       <c r="O35" s="29"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="R35" s="14"/>
       <c r="S35" s="30"/>
       <c r="T35" s="32"/>
-      <c r="U35" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="V35" s="40"/>
+      <c r="U35" s="37">
+        <v>8209</v>
+      </c>
+      <c r="V35" s="41"/>
       <c r="W35" s="35"/>
       <c r="X35" s="34"/>
-      <c r="Y35" s="49">
-        <v>321</v>
-      </c>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="56"/>
+      <c r="Y35" s="47">
+        <v>833</v>
+      </c>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="54"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="10">
-        <v>16146</v>
+        <v>155</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="43"/>
       <c r="H36" s="25"/>
       <c r="I36" s="6">
-        <v>1079425</v>
+        <v>3629433</v>
       </c>
       <c r="K36" s="44"/>
       <c r="L36" s="45"/>
       <c r="M36" s="8">
-        <v>88055</v>
-      </c>
-      <c r="N36" s="16"/>
+        <v>88138</v>
+      </c>
       <c r="O36" s="29"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="R36" s="14"/>
+      <c r="Q36" t="s">
+        <v>106</v>
+      </c>
       <c r="S36" s="30"/>
       <c r="T36" s="32"/>
-      <c r="U36" s="37" t="s">
-        <v>56</v>
+      <c r="U36" s="37">
+        <v>8520</v>
       </c>
       <c r="V36" s="41"/>
       <c r="W36" s="35"/>
       <c r="X36" s="34"/>
-      <c r="Y36" s="49">
-        <v>1350</v>
-      </c>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="56"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="54"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="10">
-        <v>34298</v>
+        <v>158</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="43"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="6">
-        <v>3758778</v>
-      </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="8">
-        <v>88234</v>
-      </c>
-      <c r="O37" s="29"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="47" t="s">
-        <v>132</v>
-      </c>
       <c r="R37" s="14"/>
       <c r="S37" s="30"/>
       <c r="T37" s="32"/>
       <c r="U37" s="37">
-        <v>8168</v>
+        <v>8297</v>
       </c>
       <c r="V37" s="41"/>
       <c r="W37" s="35"/>
       <c r="X37" s="34"/>
-      <c r="Y37" s="49">
-        <v>403</v>
-      </c>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="56"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="54"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="10">
-        <v>20478</v>
+        <v>164</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="43"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="6">
-        <v>4868220</v>
-      </c>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
       <c r="M38" s="8">
-        <v>88298</v>
+        <v>89225</v>
       </c>
       <c r="N38" s="16"/>
       <c r="O38" s="29"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="48" t="s">
-        <v>58</v>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="R38" s="14"/>
       <c r="S38" s="30"/>
       <c r="T38" s="32"/>
       <c r="U38" s="37">
-        <v>8125</v>
+        <v>8052</v>
       </c>
       <c r="V38" s="41"/>
       <c r="W38" s="35"/>
       <c r="X38" s="34"/>
-      <c r="Y38" s="49">
-        <v>404</v>
-      </c>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="56"/>
+      <c r="Y38" s="47">
+        <v>253</v>
+      </c>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="54"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>60</v>
+        <v>140</v>
+      </c>
+      <c r="E39" s="10">
+        <v>75778</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="43"/>
       <c r="H39" s="25"/>
       <c r="I39" s="6">
-        <v>6056907</v>
-      </c>
-      <c r="K39" s="44"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="8">
-        <v>88228</v>
-      </c>
-      <c r="N39" s="16"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="47" t="s">
-        <v>121</v>
+        <v>2005346</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="27"/>
+      <c r="Q39" s="55" t="s">
+        <v>94</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="30"/>
       <c r="T39" s="32"/>
       <c r="U39" s="37">
-        <v>8243</v>
+        <v>8178</v>
       </c>
       <c r="V39" s="41"/>
       <c r="W39" s="35"/>
       <c r="X39" s="34"/>
-      <c r="Y39" s="49">
-        <v>420</v>
-      </c>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="56"/>
+      <c r="Y39" s="47">
+        <v>259</v>
+      </c>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="54"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="10">
-        <v>20340</v>
+        <v>141</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="43"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="6">
-        <v>1182211</v>
-      </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
       <c r="M40" s="8">
-        <v>88141</v>
-      </c>
+        <v>89164</v>
+      </c>
+      <c r="N40" s="16"/>
       <c r="O40" s="29"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="47" t="s">
-        <v>61</v>
-      </c>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="R40" s="14"/>
       <c r="S40" s="30"/>
       <c r="T40" s="32"/>
-      <c r="V40" s="40"/>
+      <c r="U40" s="37">
+        <v>8133</v>
+      </c>
+      <c r="V40" s="41"/>
       <c r="W40" s="35"/>
       <c r="X40" s="34"/>
-      <c r="Y40" s="49">
-        <v>390</v>
-      </c>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="56"/>
+      <c r="Y40" s="47">
+        <v>554</v>
+      </c>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="54"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="43"/>
       <c r="H41" s="25"/>
       <c r="I41" s="6">
-        <v>8313967</v>
+        <v>2219111</v>
       </c>
       <c r="K41" s="44"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="8">
-        <v>88161</v>
-      </c>
-      <c r="N41" s="16"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="R41" s="14"/>
       <c r="S41" s="30"/>
       <c r="T41" s="32"/>
-      <c r="U41" s="37">
-        <v>8083</v>
-      </c>
-      <c r="V41" s="41"/>
+      <c r="V41" s="40"/>
       <c r="W41" s="35"/>
       <c r="X41" s="34"/>
-      <c r="Y41" s="49">
-        <v>490</v>
-      </c>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="56"/>
+      <c r="Y41" s="47">
+        <v>556</v>
+      </c>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="54"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="25"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="47" t="s">
-        <v>64</v>
-      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="6">
+        <v>2004547</v>
+      </c>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="8">
+        <v>88229</v>
+      </c>
+      <c r="O42" s="29"/>
+      <c r="Q42" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" s="14"/>
       <c r="S42" s="30"/>
       <c r="T42" s="32"/>
       <c r="U42" s="37">
-        <v>8080</v>
+        <v>8170</v>
       </c>
       <c r="V42" s="41"/>
       <c r="W42" s="35"/>
       <c r="X42" s="34"/>
-      <c r="Y42" s="49">
-        <v>505</v>
-      </c>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="56"/>
+      <c r="Y42" s="47">
+        <v>251</v>
+      </c>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="54"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="E43" s="10">
+        <v>77662</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="43"/>
       <c r="H43" s="25"/>
       <c r="I43" s="6">
-        <v>1094721</v>
+        <v>1290469</v>
       </c>
       <c r="K43" s="44"/>
       <c r="L43" s="45"/>
-      <c r="M43" s="8">
-        <v>88153</v>
-      </c>
-      <c r="N43" s="16"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="48" t="s">
-        <v>123</v>
+      <c r="Q43" t="s">
+        <v>177</v>
       </c>
       <c r="R43" s="14"/>
       <c r="S43" s="30"/>
       <c r="T43" s="32"/>
       <c r="U43" s="37">
-        <v>8086</v>
+        <v>4185</v>
       </c>
       <c r="V43" s="41"/>
       <c r="W43" s="35"/>
       <c r="X43" s="34"/>
-      <c r="Y43" s="49">
-        <v>455</v>
-      </c>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="56"/>
+      <c r="Y43" s="47">
+        <v>1305</v>
+      </c>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="54"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="E44" s="10">
+        <v>78414</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="43"/>
       <c r="H44" s="25"/>
       <c r="I44" s="6">
-        <v>6846554</v>
+        <v>1008168</v>
       </c>
       <c r="K44" s="44"/>
       <c r="L44" s="45"/>
       <c r="M44" s="8">
-        <v>88945</v>
-      </c>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="47" t="s">
-        <v>68</v>
-      </c>
+        <v>88514</v>
+      </c>
+      <c r="O44" s="29"/>
+      <c r="Q44" t="s">
+        <v>178</v>
+      </c>
+      <c r="R44" s="14"/>
       <c r="S44" s="30"/>
       <c r="T44" s="32"/>
-      <c r="V44" s="40"/>
+      <c r="U44" s="37">
+        <v>8122</v>
+      </c>
+      <c r="V44" s="41"/>
       <c r="W44" s="35"/>
       <c r="X44" s="34"/>
-      <c r="Y44" s="49">
-        <v>500</v>
-      </c>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="56"/>
+      <c r="Y44" s="47">
+        <v>285</v>
+      </c>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="54"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="E45" s="10">
+        <v>78294</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="43"/>
       <c r="H45" s="25"/>
       <c r="I45" s="6">
-        <v>7350788</v>
+        <v>2252039</v>
       </c>
       <c r="K45" s="44"/>
       <c r="L45" s="45"/>
       <c r="M45" s="8">
-        <v>88163</v>
-      </c>
-      <c r="N45" s="16"/>
+        <v>88052</v>
+      </c>
       <c r="O45" s="29"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="47" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q45" t="s">
+        <v>179</v>
+      </c>
+      <c r="R45" s="14"/>
       <c r="S45" s="30"/>
       <c r="T45" s="32"/>
       <c r="U45" s="37">
-        <v>8169</v>
+        <v>4186</v>
       </c>
       <c r="V45" s="41"/>
       <c r="W45" s="35"/>
       <c r="X45" s="34"/>
-      <c r="Y45" s="49">
-        <v>244</v>
-      </c>
-      <c r="Z45" s="50"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="56"/>
+      <c r="Y45" s="47">
+        <v>1330</v>
+      </c>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="54"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E46" s="10">
-        <v>75778</v>
+        <v>16146</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="43"/>
       <c r="H46" s="25"/>
       <c r="I46" s="6">
-        <v>2005346</v>
-      </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="27"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="48" t="s">
-        <v>72</v>
+        <v>1079425</v>
+      </c>
+      <c r="K46" s="44"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="8">
+        <v>88055</v>
+      </c>
+      <c r="N46" s="16"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" t="s">
+        <v>180</v>
       </c>
       <c r="R46" s="14"/>
       <c r="S46" s="30"/>
       <c r="T46" s="32"/>
-      <c r="U46" s="37">
-        <v>8178</v>
+      <c r="U46" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="V46" s="41"/>
       <c r="W46" s="35"/>
       <c r="X46" s="34"/>
-      <c r="Y46" s="49">
-        <v>259</v>
-      </c>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="56"/>
+      <c r="Y46" s="47">
+        <v>1350</v>
+      </c>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="54"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>74</v>
+        <v>163</v>
+      </c>
+      <c r="E47" s="10">
+        <v>75104</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="43"/>
       <c r="H47" s="25"/>
-      <c r="M47" s="8">
-        <v>89164</v>
-      </c>
-      <c r="N47" s="16"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="48" t="s">
-        <v>73</v>
+      <c r="I47" s="6">
+        <v>1164375</v>
+      </c>
+      <c r="K47" s="44"/>
+      <c r="Q47" t="s">
+        <v>181</v>
       </c>
       <c r="R47" s="14"/>
       <c r="S47" s="30"/>
       <c r="T47" s="32"/>
       <c r="U47" s="37">
-        <v>8133</v>
+        <v>4176</v>
       </c>
       <c r="V47" s="41"/>
       <c r="W47" s="35"/>
       <c r="X47" s="34"/>
-      <c r="Y47" s="49">
-        <v>554</v>
-      </c>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="56"/>
+      <c r="Y47" s="47">
+        <v>1375</v>
+      </c>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="54"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="E48" s="10">
+        <v>75736</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="43"/>
       <c r="H48" s="25"/>
       <c r="I48" s="6">
-        <v>2219111</v>
+        <v>1354135</v>
       </c>
       <c r="K48" s="44"/>
       <c r="L48" s="45"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="47" t="s">
-        <v>75</v>
-      </c>
+      <c r="M48" s="8">
+        <v>88048</v>
+      </c>
+      <c r="N48" s="16"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" t="s">
+        <v>87</v>
+      </c>
+      <c r="R48" s="14"/>
       <c r="S48" s="30"/>
       <c r="T48" s="32"/>
-      <c r="V48" s="40"/>
+      <c r="U48" s="37">
+        <v>4184</v>
+      </c>
+      <c r="V48" s="41"/>
       <c r="W48" s="35"/>
       <c r="X48" s="34"/>
-      <c r="Y48" s="49">
-        <v>556</v>
-      </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="56"/>
+      <c r="Y48" s="47">
+        <v>1425</v>
+      </c>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="54"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="E49" s="10">
-        <v>70646</v>
+        <v>74844</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="43"/>
       <c r="H49" s="25"/>
       <c r="I49" s="6">
-        <v>1420330</v>
+        <v>9173196</v>
       </c>
       <c r="K49" s="44"/>
-      <c r="L49" s="45"/>
       <c r="M49" s="8">
-        <v>88168</v>
+        <v>88076</v>
       </c>
       <c r="N49" s="16"/>
       <c r="O49" s="29"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="48" t="s">
-        <v>124</v>
-      </c>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="55"/>
       <c r="R49" s="14"/>
       <c r="S49" s="30"/>
       <c r="T49" s="32"/>
       <c r="U49" s="37">
-        <v>8127</v>
+        <v>4219</v>
       </c>
       <c r="V49" s="41"/>
       <c r="W49" s="35"/>
       <c r="X49" s="34"/>
-      <c r="Y49" s="49">
-        <v>565</v>
-      </c>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="56"/>
+      <c r="Y49" s="47">
+        <v>1455</v>
+      </c>
+      <c r="Z49" s="48"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="54"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="10" t="s">
-        <v>79</v>
+      <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="10">
+        <v>20340</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="43"/>
       <c r="H50" s="25"/>
+      <c r="I50" s="6">
+        <v>1182211</v>
+      </c>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="8">
-        <v>88550</v>
-      </c>
-      <c r="N50" s="16"/>
+        <v>88141</v>
+      </c>
       <c r="O50" s="29"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="R50" s="14"/>
+      <c r="Q50" t="s">
+        <v>197</v>
+      </c>
       <c r="S50" s="30"/>
       <c r="T50" s="32"/>
-      <c r="U50" s="37">
-        <v>8560</v>
-      </c>
-      <c r="V50" s="41"/>
+      <c r="V50" s="40"/>
       <c r="W50" s="35"/>
       <c r="X50" s="34"/>
-      <c r="Y50" s="49">
-        <v>570</v>
-      </c>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="51"/>
-      <c r="AB50" s="56"/>
+      <c r="Y50" s="47">
+        <v>390</v>
+      </c>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="54"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="10"/>
+      <c r="A51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="10">
+        <v>20478</v>
+      </c>
       <c r="F51" s="11"/>
-      <c r="H51" s="24"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="6">
+        <v>4868220</v>
+      </c>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="8">
+        <v>88298</v>
+      </c>
       <c r="N51" s="16"/>
       <c r="O51" s="29"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="48" t="s">
-        <v>80</v>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="R51" s="14"/>
       <c r="S51" s="30"/>
       <c r="T51" s="32"/>
+      <c r="U51" s="37">
+        <v>8125</v>
+      </c>
       <c r="V51" s="41"/>
+      <c r="W51" s="35"/>
       <c r="X51" s="34"/>
-      <c r="Z51" s="50"/>
-      <c r="AB51" s="56"/>
+      <c r="Y51" s="47">
+        <v>404</v>
+      </c>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="54"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E52" s="10">
-        <v>75336</v>
+        <v>34298</v>
       </c>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="6">
-        <v>1745161</v>
+        <v>3758778</v>
       </c>
       <c r="K52" s="44"/>
       <c r="L52" s="45"/>
       <c r="M52" s="8">
-        <v>88429</v>
-      </c>
-      <c r="N52" s="16"/>
+        <v>88234</v>
+      </c>
       <c r="O52" s="29"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="47" t="s">
-        <v>81</v>
-      </c>
+      <c r="Q52" t="s">
+        <v>182</v>
+      </c>
+      <c r="R52" s="14"/>
       <c r="S52" s="30"/>
       <c r="T52" s="32"/>
       <c r="U52" s="37">
-        <v>8465</v>
+        <v>8168</v>
       </c>
       <c r="V52" s="41"/>
       <c r="W52" s="35"/>
       <c r="X52" s="34"/>
-      <c r="Y52" s="49">
-        <v>575</v>
-      </c>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="56"/>
+      <c r="Y52" s="47">
+        <v>403</v>
+      </c>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="54"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="43"/>
       <c r="H53" s="25"/>
       <c r="I53" s="6">
-        <v>4615704</v>
+        <v>6056907</v>
       </c>
       <c r="K53" s="44"/>
       <c r="L53" s="45"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="47" t="s">
-        <v>82</v>
-      </c>
+      <c r="M53" s="8">
+        <v>88228</v>
+      </c>
+      <c r="N53" s="16"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" t="s">
+        <v>183</v>
+      </c>
+      <c r="R53" s="14"/>
       <c r="S53" s="30"/>
       <c r="T53" s="32"/>
-      <c r="V53" s="40"/>
+      <c r="U53" s="37">
+        <v>8243</v>
+      </c>
+      <c r="V53" s="41"/>
       <c r="W53" s="35"/>
       <c r="X53" s="34"/>
-      <c r="Y53" s="49">
-        <v>585</v>
-      </c>
-      <c r="AA53" s="51"/>
-      <c r="AB53" s="56"/>
+      <c r="Y53" s="47">
+        <v>420</v>
+      </c>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="54"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="43"/>
       <c r="H54" s="25"/>
       <c r="I54" s="6">
-        <v>9927799</v>
+        <v>7350788</v>
       </c>
       <c r="K54" s="44"/>
       <c r="L54" s="45"/>
       <c r="M54" s="8">
-        <v>88406</v>
+        <v>88163</v>
       </c>
       <c r="N54" s="16"/>
       <c r="O54" s="29"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="R54" s="14"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="55" t="s">
+        <v>93</v>
+      </c>
       <c r="S54" s="30"/>
       <c r="T54" s="32"/>
       <c r="U54" s="37">
-        <v>8058</v>
+        <v>8169</v>
       </c>
       <c r="V54" s="41"/>
       <c r="W54" s="35"/>
       <c r="X54" s="34"/>
-      <c r="Y54" s="49">
-        <v>605</v>
-      </c>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="56"/>
+      <c r="Y54" s="47">
+        <v>244</v>
+      </c>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="54"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="10">
-        <v>75690</v>
+        <v>136</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="43"/>
       <c r="H55" s="25"/>
       <c r="I55" s="6">
-        <v>7413057</v>
+        <v>8313967</v>
       </c>
       <c r="K55" s="44"/>
       <c r="L55" s="45"/>
       <c r="M55" s="8">
-        <v>88070</v>
+        <v>88161</v>
       </c>
       <c r="N55" s="16"/>
       <c r="O55" s="29"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="48" t="s">
-        <v>86</v>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="55" t="s">
+        <v>91</v>
       </c>
       <c r="R55" s="14"/>
       <c r="S55" s="30"/>
       <c r="T55" s="32"/>
+      <c r="U55" s="37">
+        <v>8083</v>
+      </c>
       <c r="V55" s="41"/>
       <c r="W55" s="35"/>
       <c r="X55" s="34"/>
-      <c r="Y55" s="49">
-        <v>1650</v>
-      </c>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="56"/>
+      <c r="Y55" s="47">
+        <v>490</v>
+      </c>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="54"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="43"/>
       <c r="H56" s="25"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="47" t="s">
-        <v>87</v>
-      </c>
       <c r="S56" s="30"/>
       <c r="T56" s="32"/>
-      <c r="V56" s="40"/>
+      <c r="U56" s="37">
+        <v>8080</v>
+      </c>
+      <c r="V56" s="41"/>
       <c r="W56" s="35"/>
       <c r="X56" s="34"/>
-      <c r="AA56" s="51"/>
-      <c r="AB56" s="56"/>
+      <c r="Y56" s="47">
+        <v>505</v>
+      </c>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="54"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="10">
-        <v>77278</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="25"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="R57" s="14"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="37">
-        <v>4060</v>
-      </c>
-      <c r="V57" s="41"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="34"/>
-      <c r="Z57" s="50"/>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="56"/>
+        <v>117</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="43"/>
       <c r="H58" s="25"/>
       <c r="I58" s="6">
-        <v>1313154</v>
+        <v>1094721</v>
       </c>
       <c r="K58" s="44"/>
       <c r="L58" s="45"/>
       <c r="M58" s="8">
-        <v>88609</v>
-      </c>
+        <v>88153</v>
+      </c>
+      <c r="N58" s="16"/>
       <c r="O58" s="29"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="48" t="s">
-        <v>134</v>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="R58" s="14"/>
       <c r="S58" s="30"/>
       <c r="T58" s="32"/>
       <c r="U58" s="37">
-        <v>8484</v>
+        <v>8086</v>
       </c>
       <c r="V58" s="41"/>
       <c r="W58" s="35"/>
       <c r="X58" s="34"/>
-      <c r="Y58" s="49">
-        <v>651</v>
-      </c>
-      <c r="Z58" s="50"/>
-      <c r="AA58" s="51"/>
-      <c r="AB58" s="56"/>
+      <c r="Y58" s="47">
+        <v>455</v>
+      </c>
+      <c r="Z58" s="48"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="54"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="10">
-        <v>34768</v>
+        <v>139</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="24"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="6">
-        <v>8481756</v>
+        <v>6846554</v>
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="45"/>
       <c r="M59" s="8">
-        <v>88177</v>
-      </c>
-      <c r="N59" s="16"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="R59" s="14"/>
+        <v>88945</v>
+      </c>
       <c r="S59" s="30"/>
       <c r="T59" s="32"/>
-      <c r="U59" s="37">
-        <v>8277</v>
-      </c>
-      <c r="V59" s="41"/>
+      <c r="V59" s="40"/>
       <c r="W59" s="35"/>
       <c r="X59" s="34"/>
-      <c r="Y59" s="49">
-        <v>660</v>
-      </c>
-      <c r="Z59" s="50"/>
-      <c r="AA59" s="51"/>
-      <c r="AB59" s="56"/>
+      <c r="Y59" s="47">
+        <v>500</v>
+      </c>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="54"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="6">
-        <v>1008465</v>
-      </c>
-      <c r="K60" s="44"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="8">
-        <v>89282</v>
-      </c>
-      <c r="O60" s="29"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="47" t="s">
-        <v>135</v>
+        <v>114</v>
+      </c>
+      <c r="H60" s="24"/>
+      <c r="Q60" t="s">
+        <v>185</v>
       </c>
       <c r="S60" s="30"/>
       <c r="T60" s="32"/>
       <c r="V60" s="40"/>
       <c r="W60" s="35"/>
       <c r="X60" s="34"/>
-      <c r="Y60" s="49">
-        <v>706</v>
-      </c>
-      <c r="AA60" s="51"/>
-      <c r="AB60" s="56"/>
+      <c r="Y60" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="50"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="E61" s="10">
-        <v>78025</v>
+        <v>78424</v>
       </c>
       <c r="F61" s="11"/>
-      <c r="H61" s="24"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="6">
-        <v>6894232</v>
+        <v>1008382</v>
       </c>
       <c r="K61" s="44"/>
       <c r="L61" s="45"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="48" t="s">
-        <v>95</v>
+      <c r="N61" s="16"/>
+      <c r="O61" s="29"/>
+      <c r="Q61" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="R61" s="14"/>
       <c r="S61" s="30"/>
       <c r="T61" s="32"/>
+      <c r="U61" s="37">
+        <v>8275</v>
+      </c>
       <c r="V61" s="41"/>
       <c r="W61" s="35"/>
       <c r="X61" s="34"/>
-      <c r="Y61" s="49">
-        <v>805</v>
-      </c>
-      <c r="Z61" s="50"/>
-      <c r="AA61" s="51"/>
-      <c r="AB61" s="56"/>
+      <c r="Y61" s="47">
+        <v>828</v>
+      </c>
+      <c r="Z61" s="48"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="54"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>97</v>
+        <v>157</v>
+      </c>
+      <c r="E62" s="10">
+        <v>75310</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="43"/>
       <c r="H62" s="25"/>
       <c r="I62" s="6">
-        <v>2416691</v>
+        <v>4249389</v>
       </c>
       <c r="K62" s="44"/>
       <c r="L62" s="45"/>
-      <c r="M62" s="8">
-        <v>88136</v>
-      </c>
-      <c r="N62" s="16"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="48" t="s">
-        <v>96</v>
+      <c r="Q62" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="R62" s="14"/>
       <c r="S62" s="30"/>
       <c r="T62" s="32"/>
       <c r="U62" s="37">
-        <v>8380</v>
+        <v>8110</v>
       </c>
       <c r="V62" s="41"/>
       <c r="W62" s="35"/>
       <c r="X62" s="34"/>
-      <c r="Y62" s="49">
-        <v>340</v>
-      </c>
-      <c r="Z62" s="50"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="56"/>
+      <c r="Y62" s="47">
+        <v>563</v>
+      </c>
+      <c r="Z62" s="48"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="54"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="10" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="43"/>
       <c r="H63" s="25"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="47" t="s">
-        <v>98</v>
-      </c>
+      <c r="M63" s="8">
+        <v>88550</v>
+      </c>
+      <c r="N63" s="16"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" t="s">
+        <v>186</v>
+      </c>
+      <c r="R63" s="14"/>
       <c r="S63" s="30"/>
       <c r="T63" s="32"/>
-      <c r="V63" s="40"/>
+      <c r="U63" s="37">
+        <v>8560</v>
+      </c>
+      <c r="V63" s="41"/>
       <c r="W63" s="35"/>
       <c r="X63" s="34"/>
-      <c r="Y63" s="49">
-        <v>347</v>
-      </c>
-      <c r="AA63" s="51"/>
-      <c r="AB63" s="56"/>
+      <c r="Y63" s="47">
+        <v>570</v>
+      </c>
+      <c r="Z63" s="48"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="54"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E64" s="10">
-        <v>93004</v>
+        <v>70646</v>
       </c>
       <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="24"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="47" t="s">
-        <v>100</v>
-      </c>
+      <c r="G64" s="43"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="6">
+        <v>1420330</v>
+      </c>
+      <c r="K64" s="44"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="8">
+        <v>88168</v>
+      </c>
+      <c r="N64" s="16"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="R64" s="14"/>
       <c r="S64" s="30"/>
       <c r="T64" s="32"/>
-      <c r="V64" s="40"/>
+      <c r="U64" s="37">
+        <v>8127</v>
+      </c>
+      <c r="V64" s="41"/>
       <c r="W64" s="35"/>
       <c r="X64" s="34"/>
-      <c r="Y64" s="49">
-        <v>385</v>
-      </c>
-      <c r="AA64" s="51"/>
-      <c r="AB64" s="56"/>
+      <c r="Y64" s="47">
+        <v>565</v>
+      </c>
+      <c r="Z64" s="48"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="54"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="43"/>
       <c r="H65" s="25"/>
       <c r="I65" s="6">
-        <v>8474538</v>
+        <v>9927799</v>
       </c>
       <c r="K65" s="44"/>
       <c r="L65" s="45"/>
       <c r="M65" s="8">
-        <v>88204</v>
+        <v>88406</v>
       </c>
       <c r="N65" s="16"/>
       <c r="O65" s="29"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="48" t="s">
-        <v>101</v>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="55" t="s">
+        <v>98</v>
       </c>
       <c r="R65" s="14"/>
       <c r="S65" s="30"/>
       <c r="T65" s="32"/>
       <c r="U65" s="37">
-        <v>8209</v>
+        <v>8058</v>
       </c>
       <c r="V65" s="41"/>
       <c r="W65" s="35"/>
       <c r="X65" s="34"/>
-      <c r="Y65" s="49">
-        <v>833</v>
-      </c>
-      <c r="Z65" s="50"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="56"/>
+      <c r="Y65" s="47">
+        <v>605</v>
+      </c>
+      <c r="Z65" s="48"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="54"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>104</v>
+        <v>171</v>
+      </c>
+      <c r="E66" s="10">
+        <v>75336</v>
       </c>
       <c r="F66" s="11"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="25"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="24"/>
       <c r="I66" s="6">
-        <v>3629433</v>
+        <v>1745161</v>
       </c>
       <c r="K66" s="44"/>
       <c r="L66" s="45"/>
       <c r="M66" s="8">
-        <v>88138</v>
-      </c>
+        <v>88429</v>
+      </c>
+      <c r="N66" s="16"/>
       <c r="O66" s="29"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="47" t="s">
-        <v>103</v>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="S66" s="30"/>
       <c r="T66" s="32"/>
       <c r="U66" s="37">
-        <v>8520</v>
+        <v>8465</v>
       </c>
       <c r="V66" s="41"/>
       <c r="W66" s="35"/>
       <c r="X66" s="34"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="56"/>
+      <c r="Y66" s="47">
+        <v>575</v>
+      </c>
+      <c r="Z66" s="48"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="54"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="10">
-        <v>39142</v>
+        <v>172</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="43"/>
       <c r="H67" s="25"/>
       <c r="I67" s="6">
-        <v>6235501</v>
+        <v>4615704</v>
       </c>
       <c r="K67" s="44"/>
       <c r="L67" s="45"/>
-      <c r="M67" s="8">
-        <v>88305</v>
-      </c>
-      <c r="N67" s="16"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="R67" s="14"/>
       <c r="S67" s="30"/>
       <c r="T67" s="32"/>
-      <c r="U67" s="37">
-        <v>4193</v>
-      </c>
-      <c r="V67" s="41"/>
+      <c r="V67" s="40"/>
       <c r="W67" s="35"/>
       <c r="X67" s="34"/>
-      <c r="Y67" s="49">
-        <v>1150</v>
-      </c>
-      <c r="Z67" s="50"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="56"/>
+      <c r="Y67" s="47">
+        <v>585</v>
+      </c>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="54"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="10">
-        <v>78424</v>
-      </c>
+      <c r="A68" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="6">
-        <v>1008382</v>
-      </c>
-      <c r="K68" s="44"/>
-      <c r="L68" s="45"/>
+      <c r="H68" s="24"/>
       <c r="N68" s="16"/>
       <c r="O68" s="29"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="48" t="s">
-        <v>106</v>
-      </c>
       <c r="R68" s="14"/>
       <c r="S68" s="30"/>
       <c r="T68" s="32"/>
-      <c r="U68" s="37">
-        <v>8275</v>
-      </c>
       <c r="V68" s="41"/>
-      <c r="W68" s="35"/>
       <c r="X68" s="34"/>
-      <c r="Y68" s="49">
-        <v>828</v>
-      </c>
-      <c r="Z68" s="50"/>
-      <c r="AA68" s="51"/>
-      <c r="AB68" s="56"/>
+      <c r="Z68" s="48"/>
+      <c r="AB68" s="54"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="E69" s="10">
-        <v>75310</v>
+        <v>75690</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="43"/>
       <c r="H69" s="25"/>
       <c r="I69" s="6">
-        <v>4249389</v>
+        <v>7413057</v>
       </c>
       <c r="K69" s="44"/>
       <c r="L69" s="45"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="48" t="s">
-        <v>107</v>
+      <c r="M69" s="8">
+        <v>88070</v>
+      </c>
+      <c r="N69" s="16"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="R69" s="14"/>
       <c r="S69" s="30"/>
       <c r="T69" s="32"/>
-      <c r="U69" s="37">
-        <v>8110</v>
-      </c>
       <c r="V69" s="41"/>
       <c r="W69" s="35"/>
       <c r="X69" s="34"/>
-      <c r="Y69" s="49">
-        <v>563</v>
-      </c>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="56"/>
+      <c r="Y69" s="47">
+        <v>1650</v>
+      </c>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="54"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>109</v>
+        <v>147</v>
+      </c>
+      <c r="E70" s="10">
+        <v>77278</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="43"/>
       <c r="H70" s="25"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="47" t="s">
-        <v>108</v>
+      <c r="Q70" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="R70" s="14"/>
       <c r="S70" s="30"/>
       <c r="T70" s="32"/>
       <c r="U70" s="37">
-        <v>8297</v>
+        <v>4060</v>
       </c>
       <c r="V70" s="41"/>
       <c r="W70" s="35"/>
       <c r="X70" s="34"/>
-      <c r="Z70" s="50"/>
-      <c r="AA70" s="51"/>
-      <c r="AB70" s="56"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="54"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="10">
-        <v>76800</v>
+        <v>146</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="43"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="6">
-        <v>6017263</v>
-      </c>
-      <c r="K71" s="44"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="8">
-        <v>88212</v>
-      </c>
-      <c r="N71" s="16"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="R71" s="14"/>
       <c r="S71" s="30"/>
       <c r="T71" s="32"/>
-      <c r="U71" s="37">
-        <v>4050</v>
-      </c>
-      <c r="V71" s="41"/>
+      <c r="V71" s="40"/>
       <c r="W71" s="35"/>
       <c r="X71" s="34"/>
-      <c r="Y71" s="49">
-        <v>931</v>
-      </c>
-      <c r="Z71" s="50"/>
-      <c r="AA71" s="51"/>
-      <c r="AB71" s="56"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="54"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="43"/>
       <c r="H72" s="25"/>
       <c r="I72" s="6">
-        <v>1763432</v>
+        <v>1313154</v>
       </c>
       <c r="K72" s="44"/>
       <c r="L72" s="45"/>
       <c r="M72" s="8">
-        <v>88205</v>
-      </c>
-      <c r="N72" s="16"/>
+        <v>88609</v>
+      </c>
       <c r="O72" s="29"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="48" t="s">
-        <v>127</v>
+      <c r="Q72" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="R72" s="14"/>
       <c r="S72" s="30"/>
       <c r="T72" s="32"/>
       <c r="U72" s="37">
-        <v>4074</v>
+        <v>8484</v>
       </c>
       <c r="V72" s="41"/>
       <c r="W72" s="35"/>
       <c r="X72" s="34"/>
-      <c r="Y72" s="49">
-        <v>920</v>
-      </c>
-      <c r="Z72" s="50"/>
-      <c r="AA72" s="51"/>
-      <c r="AB72" s="56"/>
+      <c r="Y72" s="47">
+        <v>651</v>
+      </c>
+      <c r="Z72" s="48"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="54"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E73" s="10">
-        <v>74844</v>
+        <v>34768</v>
       </c>
       <c r="F73" s="11"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="25"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="24"/>
       <c r="I73" s="6">
-        <v>9173196</v>
+        <v>8481756</v>
       </c>
       <c r="K73" s="44"/>
+      <c r="L73" s="45"/>
       <c r="M73" s="8">
-        <v>88076</v>
+        <v>88177</v>
       </c>
       <c r="N73" s="16"/>
       <c r="O73" s="29"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="48" t="s">
-        <v>128</v>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="R73" s="14"/>
       <c r="S73" s="30"/>
       <c r="T73" s="32"/>
       <c r="U73" s="37">
-        <v>4219</v>
+        <v>8277</v>
       </c>
       <c r="V73" s="41"/>
       <c r="W73" s="35"/>
       <c r="X73" s="34"/>
-      <c r="Y73" s="49">
-        <v>1455</v>
-      </c>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="51"/>
-      <c r="AB73" s="56"/>
+      <c r="Y73" s="47">
+        <v>660</v>
+      </c>
+      <c r="Z73" s="48"/>
+      <c r="AA73" s="49"/>
+      <c r="AB73" s="54"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="10">
-        <v>78126</v>
+        <v>150</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="43"/>
       <c r="H74" s="25"/>
       <c r="I74" s="6">
-        <v>2036598</v>
+        <v>1008465</v>
       </c>
       <c r="K74" s="44"/>
       <c r="L74" s="45"/>
       <c r="M74" s="8">
-        <v>88198</v>
-      </c>
-      <c r="N74" s="16"/>
+        <v>89282</v>
+      </c>
       <c r="O74" s="29"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="R74" s="14"/>
+      <c r="Q74" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="S74" s="30"/>
       <c r="T74" s="32"/>
-      <c r="U74" s="37">
-        <v>8142</v>
-      </c>
-      <c r="V74" s="41"/>
+      <c r="V74" s="40"/>
       <c r="W74" s="35"/>
       <c r="X74" s="34"/>
-      <c r="Y74" s="49">
-        <v>865</v>
-      </c>
-      <c r="Z74" s="50"/>
-      <c r="AA74" s="51"/>
-      <c r="AB74" s="56"/>
+      <c r="Y74" s="47">
+        <v>706</v>
+      </c>
+      <c r="AA74" s="49"/>
+      <c r="AB74" s="54"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="10">
+        <v>78025</v>
+      </c>
+      <c r="F75" s="11"/>
       <c r="H75" s="24"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="47"/>
+      <c r="I75" s="6">
+        <v>6894232</v>
+      </c>
+      <c r="K75" s="44"/>
+      <c r="L75" s="45"/>
+      <c r="Q75" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="R75" s="14"/>
       <c r="S75" s="30"/>
       <c r="T75" s="32"/>
-      <c r="V75" s="40"/>
+      <c r="V75" s="41"/>
       <c r="W75" s="35"/>
       <c r="X75" s="34"/>
-      <c r="AA75" s="51"/>
-      <c r="AB75" s="52"/>
+      <c r="Y75" s="47">
+        <v>805</v>
+      </c>
+      <c r="Z75" s="48"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="54"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H76" s="24"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="47"/>
+      <c r="A76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y76" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="24"/>
+      <c r="Q77" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y77" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="10">
+        <v>78126</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="6">
+        <v>2036598</v>
+      </c>
+      <c r="K78" s="44"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="8">
+        <v>88198</v>
+      </c>
+      <c r="N78" s="16"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" t="s">
+        <v>188</v>
+      </c>
+      <c r="R78" s="14"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="32"/>
+      <c r="U78" s="37">
+        <v>8142</v>
+      </c>
+      <c r="V78" s="41"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="47">
+        <v>865</v>
+      </c>
+      <c r="Z78" s="48"/>
+      <c r="AA78" s="49"/>
+      <c r="AB78" s="54"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="10">
+        <v>39142</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="6">
+        <v>6235501</v>
+      </c>
+      <c r="K79" s="44"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="8">
+        <v>88305</v>
+      </c>
+      <c r="N79" s="16"/>
+      <c r="O79" s="29"/>
+      <c r="Q79" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="R79" s="14"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="37">
+        <v>4193</v>
+      </c>
+      <c r="V79" s="41"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="47">
+        <v>1150</v>
+      </c>
+      <c r="Z79" s="48"/>
+      <c r="AA79" s="49"/>
+      <c r="AB79" s="54"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="6">
+        <v>1763432</v>
+      </c>
+      <c r="K80" s="44"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="8">
+        <v>88205</v>
+      </c>
+      <c r="N80" s="16"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="R80" s="14"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="32"/>
+      <c r="U80" s="37">
+        <v>4074</v>
+      </c>
+      <c r="V80" s="41"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="47">
+        <v>920</v>
+      </c>
+      <c r="Z80" s="48"/>
+      <c r="AA80" s="49"/>
+      <c r="AB80" s="54"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="10">
+        <v>76800</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="6">
+        <v>6017263</v>
+      </c>
+      <c r="K81" s="44"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="8">
+        <v>88212</v>
+      </c>
+      <c r="N81" s="16"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="R81" s="14"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="37">
+        <v>4050</v>
+      </c>
+      <c r="V81" s="41"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="47">
+        <v>931</v>
+      </c>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="49"/>
+      <c r="AB81" s="54"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB81">
+    <sortCondition ref="A3:A81"/>
+  </sortState>
   <mergeCells count="9">
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="A1:A2"/>
@@ -3824,6 +3993,6 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242EE7B9-EEF5-4840-8360-223907E16208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65C891-76EE-46E0-958B-20A5A14E78C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>Russo Produce</t>
   </si>
   <si>
-    <t>Behlog Produce</t>
-  </si>
-  <si>
     <t>8115</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>10 lb.  Mushroom - USA</t>
+  </si>
+  <si>
+    <t>BEHLOG &amp; SON, INC.</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +690,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -789,12 +796,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,9 +866,6 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,7 +899,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -923,14 +927,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -969,11 +976,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F5A3B920-6024-4AC1-9739-D224492CDEA5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1285,13 +1302,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q76" sqref="Q76"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1316,7 @@
     <col min="1" max="1" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="38" customWidth="1"/>
     <col min="5" max="5" width="15" style="11" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="10" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" style="17" customWidth="1"/>
@@ -1309,82 +1326,82 @@
     <col min="12" max="12" width="12.5703125" style="7" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="8" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="28" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="27" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="9" customWidth="1"/>
     <col min="17" max="17" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="12" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="30" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" style="13" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="37" customWidth="1"/>
-    <col min="22" max="22" width="14" style="20" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="33" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" style="21" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="47" customWidth="1"/>
-    <col min="26" max="26" width="14" style="51" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="52" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" style="53" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="36" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="20" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="32" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" style="21" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="45" customWidth="1"/>
+    <col min="26" max="26" width="14" style="49" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="50" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="58" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="58" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="73"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="58" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="61"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="77"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -1426,7 +1443,7 @@
       <c r="T2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="U2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -1438,7 +1455,7 @@
       <c r="X2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="Z2" s="3" t="s">
@@ -1456,68 +1473,72 @@
         <v>7</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="Q3" s="55" t="s">
-        <v>67</v>
+      <c r="Q3" s="53" t="s">
+        <v>66</v>
       </c>
       <c r="R3" s="14"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="32"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="31"/>
       <c r="V3" s="19"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="47">
+      <c r="W3" s="34"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="45">
         <v>845</v>
       </c>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="54"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="52"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="10"/>
       <c r="H4" s="24"/>
-      <c r="Q4" s="55" t="s">
-        <v>69</v>
+      <c r="L4" s="26"/>
+      <c r="M4" s="57"/>
+      <c r="Q4" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="R4" s="14"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="37">
+      <c r="S4" s="29"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="36">
         <v>4368</v>
       </c>
-      <c r="V4" s="41"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="47">
+      <c r="V4" s="40"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="45">
         <v>1081</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="54"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="52"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="10"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="29"/>
-      <c r="Q5" s="55" t="s">
-        <v>68</v>
+      <c r="O5" s="28"/>
+      <c r="Q5" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="R5" s="14"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="37" t="s">
+      <c r="S5" s="29"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="34"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="54"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="33"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="52"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1527,125 +1548,125 @@
         <v>74966</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="25"/>
       <c r="I6" s="6">
         <v>1254440</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="8">
-        <v>88034</v>
-      </c>
-      <c r="O6" s="29"/>
-      <c r="Q6" s="55" t="s">
-        <v>71</v>
+      <c r="K6" s="43"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="57"/>
+      <c r="O6" s="28"/>
+      <c r="Q6" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="R6" s="14"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="37">
+      <c r="S6" s="29"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="36">
         <v>4009</v>
       </c>
-      <c r="V6" s="41"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="47">
+      <c r="V6" s="40"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="45">
         <v>1125</v>
       </c>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="54"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="52"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="57"/>
       <c r="Q7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y7" s="47" t="s">
-        <v>189</v>
+        <v>174</v>
+      </c>
+      <c r="Y7" s="45" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="25"/>
       <c r="I8" s="6">
         <v>2704989</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="8">
-        <v>88306</v>
+      <c r="K8" s="43"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="58">
+        <v>8239592</v>
       </c>
       <c r="N8" s="16"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="37">
+      <c r="O8" s="28"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="29"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="36">
         <v>8203</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="47">
+      <c r="V8" s="40"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="45">
         <v>45</v>
       </c>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="54"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="52"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="25"/>
       <c r="I9" s="6">
         <v>1675859</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="8">
-        <v>88090</v>
+      <c r="K9" s="43"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="58">
+        <v>4591335</v>
       </c>
       <c r="N9" s="16"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="56"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="54"/>
       <c r="Q9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R9" s="14"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="37">
+      <c r="S9" s="29"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="36">
         <v>8893</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="47">
+      <c r="V9" s="40"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="45">
         <v>50</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="54"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="52"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1655,35 +1676,33 @@
         <v>78516</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="25"/>
       <c r="I10" s="6">
         <v>4510299</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="8">
-        <v>88477</v>
-      </c>
-      <c r="O10" s="29"/>
-      <c r="Q10" s="55" t="s">
-        <v>74</v>
+      <c r="K10" s="43"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="57"/>
+      <c r="O10" s="28"/>
+      <c r="Q10" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="R10" s="14"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="37">
+      <c r="S10" s="29"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="36">
         <v>8227</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="47">
+      <c r="V10" s="40"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="45">
         <v>53</v>
       </c>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="54"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="52"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1693,37 +1712,37 @@
         <v>18</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="25"/>
       <c r="I11" s="6">
         <v>2227007</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="8">
-        <v>88095</v>
+      <c r="K11" s="43"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="58">
+        <v>9228446</v>
       </c>
       <c r="N11" s="16"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="55" t="s">
-        <v>76</v>
+      <c r="O11" s="28"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="53" t="s">
+        <v>75</v>
       </c>
       <c r="R11" s="14"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="37">
+      <c r="S11" s="29"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="36">
         <v>8104</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="47">
+      <c r="V11" s="40"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="45">
         <v>80</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="54"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="52"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1737,27 +1756,27 @@
       <c r="I12" s="6">
         <v>2227015</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="8">
-        <v>88159</v>
+      <c r="K12" s="43"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="58">
+        <v>7228448</v>
       </c>
       <c r="N12" s="16"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="32"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="47">
+      <c r="O12" s="28"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="29"/>
+      <c r="T12" s="31"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="45">
         <v>82</v>
       </c>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="54"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="52"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1767,35 +1786,33 @@
         <v>78270</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="25"/>
       <c r="I13" s="6">
         <v>1243724</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="8">
-        <v>88101</v>
-      </c>
-      <c r="O13" s="29"/>
-      <c r="Q13" s="55" t="s">
-        <v>78</v>
+      <c r="K13" s="43"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="57"/>
+      <c r="O13" s="28"/>
+      <c r="Q13" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="R13" s="14"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="37">
+      <c r="S13" s="29"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="36">
         <v>8107</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="47">
+      <c r="V13" s="40"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="45">
         <v>125</v>
       </c>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="54"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="52"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1805,143 +1822,140 @@
         <v>78112</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="25"/>
-      <c r="M14" s="8">
-        <v>88108</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="Q14" s="55" t="s">
-        <v>79</v>
+      <c r="L14" s="26"/>
+      <c r="M14" s="57"/>
+      <c r="O14" s="28"/>
+      <c r="Q14" s="53" t="s">
+        <v>78</v>
       </c>
       <c r="R14" s="14"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="37">
+      <c r="S14" s="29"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="36">
         <v>8108</v>
       </c>
-      <c r="V14" s="41"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="47">
+      <c r="V14" s="40"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="45">
         <v>141</v>
       </c>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="54"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="52"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="43"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="25"/>
       <c r="I15" s="6">
         <v>1735372</v>
       </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="8">
-        <v>88115</v>
+      <c r="K15" s="43"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="58">
+        <v>8072704</v>
       </c>
       <c r="N15" s="16"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="55" t="s">
-        <v>82</v>
+      <c r="O15" s="28"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="R15" s="14"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="37">
+      <c r="S15" s="29"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="36">
         <v>8448</v>
       </c>
-      <c r="V15" s="41"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="47">
+      <c r="V15" s="40"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="45">
         <v>187</v>
       </c>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="54"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="52"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="25"/>
       <c r="I16" s="6">
         <v>2105773</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="8">
-        <v>27960</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="37" t="s">
+      <c r="K16" s="43"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="57"/>
+      <c r="O16" s="28"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="V16" s="41"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="47">
+      <c r="V16" s="40"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="45">
         <v>1870</v>
       </c>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="54"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="52"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="43"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="25"/>
       <c r="I17" s="6">
         <v>1821537</v>
       </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="8">
-        <v>88121</v>
+      <c r="K17" s="43"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="58">
+        <v>5365192</v>
       </c>
       <c r="N17" s="16"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="S17" s="30"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="37">
+      <c r="O17" s="28"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17" s="29"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="36">
         <v>8084</v>
       </c>
-      <c r="V17" s="41"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="47">
+      <c r="V17" s="40"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="45">
         <v>226</v>
       </c>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="54"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="52"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1951,64 +1965,67 @@
         <v>76346</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="25"/>
-      <c r="Q18" s="55" t="s">
-        <v>84</v>
+      <c r="L18" s="26"/>
+      <c r="M18" s="57"/>
+      <c r="Q18" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="R18" s="14"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="37">
+      <c r="S18" s="29"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="36">
         <v>8153</v>
       </c>
-      <c r="V18" s="41"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="47">
+      <c r="V18" s="40"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="45">
         <v>237</v>
       </c>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="54"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="52"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="10">
         <v>78922</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="25"/>
       <c r="I19" s="6">
         <v>668873</v>
       </c>
-      <c r="M19" s="8">
-        <v>88043</v>
+      <c r="L19" s="26"/>
+      <c r="M19" s="58">
+        <v>2590748</v>
       </c>
       <c r="N19" s="16"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="55" t="s">
-        <v>85</v>
+      <c r="O19" s="28"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="R19" s="14"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="37">
+      <c r="S19" s="29"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="36">
         <v>4094</v>
       </c>
-      <c r="V19" s="41"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="47">
+      <c r="V19" s="40"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="45">
         <v>1250</v>
       </c>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="54"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="52"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2016,19 +2033,21 @@
       </c>
       <c r="E20" s="10"/>
       <c r="H20" s="24"/>
-      <c r="Q20" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="32"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="47">
+      <c r="L20" s="26"/>
+      <c r="M20" s="57"/>
+      <c r="Q20" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="29"/>
+      <c r="T20" s="31"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="45">
         <v>15</v>
       </c>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="54"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="52"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2038,374 +2057,385 @@
         <v>74968</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="43"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="25"/>
       <c r="I21" s="6">
         <v>1810910</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="57"/>
       <c r="Q21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R21" s="14"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="37">
+      <c r="S21" s="29"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="36">
         <v>8076</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="47">
+      <c r="V21" s="40"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="45">
         <v>14</v>
       </c>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="54"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="52"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="43"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="25"/>
       <c r="I22" s="6">
         <v>7975374</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="8">
-        <v>88202</v>
+      <c r="K22" s="43"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="58">
+        <v>6743058</v>
       </c>
       <c r="N22" s="16"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="S22" s="30"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="37">
+      <c r="O22" s="28"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22" s="29"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="36">
         <v>8279</v>
       </c>
-      <c r="V22" s="41"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="47">
+      <c r="V22" s="40"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="45">
         <v>386</v>
       </c>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="54"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="52"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="57"/>
       <c r="Q23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="10"/>
       <c r="H24" s="24"/>
-      <c r="Q24" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S24" s="30"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="37">
+      <c r="L24" s="26"/>
+      <c r="M24" s="57"/>
+      <c r="Q24" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="29"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="36">
         <v>8324</v>
       </c>
-      <c r="V24" s="41"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="47">
+      <c r="V24" s="40"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="45">
         <v>60</v>
       </c>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="54"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="52"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="25"/>
       <c r="I25" s="6">
         <v>1675701</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="8">
-        <v>88139</v>
+      <c r="K25" s="43"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="58">
+        <v>1028629</v>
       </c>
       <c r="N25" s="16"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="57"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="55"/>
       <c r="Q25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R25" s="14"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="37">
+      <c r="S25" s="29"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="36">
         <v>8612</v>
       </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="47">
+      <c r="V25" s="40"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="45">
         <v>170</v>
       </c>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="54"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="52"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="10">
         <v>77264</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="43"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="25"/>
       <c r="I26" s="6">
         <v>2260149</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="Q26" s="55" t="s">
-        <v>81</v>
+      <c r="K26" s="43"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="57"/>
+      <c r="Q26" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="R26" s="14"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="37">
+      <c r="S26" s="29"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="36">
         <v>8236</v>
       </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="47">
+      <c r="V26" s="40"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="45">
         <v>176</v>
       </c>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="54"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="52"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="43"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="25"/>
       <c r="I27" s="6">
         <v>1723857</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="8">
-        <v>88128</v>
+      <c r="K27" s="43"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="58">
+        <v>4295663</v>
       </c>
       <c r="N27" s="16"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="S27" s="30"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="V27" s="40"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="47">
+      <c r="O27" s="28"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" s="29"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" s="39"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="45">
         <v>321</v>
       </c>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="54"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="52"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="43"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="25"/>
       <c r="I28" s="6">
         <v>7199706</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="8">
-        <v>88268</v>
+      <c r="K28" s="43"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="58">
+        <v>4306155</v>
       </c>
       <c r="N28" s="16"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="56"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="54"/>
       <c r="R28" s="14"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="32"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="34"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="54"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="31"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="33"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="52"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" s="10"/>
       <c r="H29" s="24"/>
       <c r="I29" s="6">
         <v>1008143</v>
       </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
-      <c r="Q29" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="S29" s="30"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="37">
+      <c r="K29" s="43"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="57"/>
+      <c r="Q29" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="S29" s="29"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="36">
         <v>8238</v>
       </c>
-      <c r="V29" s="41"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="47">
+      <c r="V29" s="40"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="45">
         <v>275</v>
       </c>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="54"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="52"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="10"/>
       <c r="H30" s="24"/>
       <c r="I30" s="6">
         <v>1985274</v>
       </c>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="8">
-        <v>88340</v>
+      <c r="K30" s="43"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="58">
+        <v>9046103</v>
       </c>
       <c r="N30" s="16"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="56"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="54"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="32"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="34"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="54"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="31"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="33"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="52"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="43"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="25"/>
       <c r="I32" s="6">
         <v>2416691</v>
       </c>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="8">
-        <v>88136</v>
+      <c r="K32" s="43"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="58">
+        <v>7217979</v>
       </c>
       <c r="N32" s="16"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="56"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="54"/>
       <c r="Q32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R32" s="14"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="37">
+      <c r="S32" s="29"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="36">
         <v>8380</v>
       </c>
-      <c r="V32" s="41"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="47">
+      <c r="V32" s="40"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="45">
         <v>340</v>
       </c>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="54"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="52"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="43"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="25"/>
-      <c r="Q33" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="S33" s="30"/>
-      <c r="T33" s="32"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="47">
+      <c r="L33" s="26"/>
+      <c r="M33" s="57"/>
+      <c r="Q33" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="31"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="45">
         <v>347</v>
       </c>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="54"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="52"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="10">
         <v>93004</v>
@@ -2413,250 +2443,258 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="24"/>
-      <c r="Q34" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="S34" s="30"/>
-      <c r="T34" s="32"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="47">
+      <c r="L34" s="26"/>
+      <c r="M34" s="57"/>
+      <c r="Q34" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="S34" s="29"/>
+      <c r="T34" s="31"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="45">
         <v>385</v>
       </c>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="54"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="52"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="43"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="25"/>
       <c r="I35" s="6">
         <v>8474538</v>
       </c>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="8">
-        <v>88204</v>
+      <c r="K35" s="43"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="58">
+        <v>1384692</v>
       </c>
       <c r="N35" s="16"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="55" t="s">
-        <v>107</v>
+      <c r="O35" s="28"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="R35" s="14"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="37">
+      <c r="S35" s="29"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="36">
         <v>8209</v>
       </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="47">
+      <c r="V35" s="40"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="45">
         <v>833</v>
       </c>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="54"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="52"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="43"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="25"/>
       <c r="I36" s="6">
         <v>3629433</v>
       </c>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="8">
-        <v>88138</v>
-      </c>
-      <c r="O36" s="29"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="58">
+        <v>8970711</v>
+      </c>
+      <c r="O36" s="28"/>
       <c r="Q36" t="s">
-        <v>106</v>
-      </c>
-      <c r="S36" s="30"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="37">
+        <v>105</v>
+      </c>
+      <c r="S36" s="29"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="36">
         <v>8520</v>
       </c>
-      <c r="V36" s="41"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="34"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="54"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="33"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="52"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="43"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="57"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="37">
+      <c r="S37" s="29"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="36">
         <v>8297</v>
       </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="34"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="54"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="33"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="52"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="43"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="25"/>
-      <c r="M38" s="8">
-        <v>89225</v>
+      <c r="L38" s="26"/>
+      <c r="M38" s="58">
+        <v>1308774</v>
       </c>
       <c r="N38" s="16"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="55" t="s">
-        <v>80</v>
+      <c r="O38" s="28"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="R38" s="14"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="37">
+      <c r="S38" s="29"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="36">
         <v>8052</v>
       </c>
-      <c r="V38" s="41"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="47">
+      <c r="V38" s="40"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="45">
         <v>253</v>
       </c>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="54"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="52"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="10">
         <v>75778</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="43"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="25"/>
       <c r="I39" s="6">
         <v>2005346</v>
       </c>
       <c r="K39" s="18"/>
-      <c r="L39" s="27"/>
-      <c r="Q39" s="55" t="s">
-        <v>94</v>
+      <c r="L39" s="56"/>
+      <c r="M39" s="57"/>
+      <c r="Q39" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="R39" s="14"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="37">
+      <c r="S39" s="29"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="36">
         <v>8178</v>
       </c>
-      <c r="V39" s="41"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="47">
+      <c r="V39" s="40"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="45">
         <v>259</v>
       </c>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="54"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="52"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="43"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="25"/>
-      <c r="M40" s="8">
-        <v>89164</v>
+      <c r="L40" s="26"/>
+      <c r="M40" s="58">
+        <v>6537666</v>
       </c>
       <c r="N40" s="16"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="55" t="s">
-        <v>95</v>
+      <c r="O40" s="28"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="R40" s="14"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="37">
+      <c r="S40" s="29"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="36">
         <v>8133</v>
       </c>
-      <c r="V40" s="41"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="47">
+      <c r="V40" s="40"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="45">
         <v>554</v>
       </c>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="49"/>
-      <c r="AB40" s="54"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="52"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="43"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="25"/>
       <c r="I41" s="6">
         <v>2219111</v>
       </c>
-      <c r="K41" s="44"/>
-      <c r="L41" s="45"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="32"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="47">
+      <c r="K41" s="43"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="57"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="31"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="45">
         <v>556</v>
       </c>
-      <c r="AA41" s="49"/>
-      <c r="AB41" s="54"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="52"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>12</v>
@@ -2667,30 +2705,28 @@
       <c r="I42" s="6">
         <v>2004547</v>
       </c>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="8">
-        <v>88229</v>
-      </c>
-      <c r="O42" s="29"/>
-      <c r="Q42" s="55" t="s">
-        <v>72</v>
+      <c r="K42" s="43"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="57"/>
+      <c r="O42" s="28"/>
+      <c r="Q42" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="R42" s="14"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="37">
+      <c r="S42" s="29"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="36">
         <v>8170</v>
       </c>
-      <c r="V42" s="41"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="47">
+      <c r="V42" s="40"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="45">
         <v>251</v>
       </c>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="54"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="52"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2700,31 +2736,32 @@
         <v>77662</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="43"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="25"/>
       <c r="I43" s="6">
         <v>1290469</v>
       </c>
-      <c r="K43" s="44"/>
-      <c r="L43" s="45"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="57"/>
       <c r="Q43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R43" s="14"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="37">
+      <c r="S43" s="29"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="36">
         <v>4185</v>
       </c>
-      <c r="V43" s="41"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="47">
+      <c r="V43" s="40"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="45">
         <v>1305</v>
       </c>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="54"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="52"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2734,35 +2771,33 @@
         <v>78414</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="43"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="25"/>
       <c r="I44" s="6">
         <v>1008168</v>
       </c>
-      <c r="K44" s="44"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="8">
-        <v>88514</v>
-      </c>
-      <c r="O44" s="29"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="57"/>
+      <c r="O44" s="28"/>
       <c r="Q44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R44" s="14"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="37">
+      <c r="S44" s="29"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="36">
         <v>8122</v>
       </c>
-      <c r="V44" s="41"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="47">
+      <c r="V44" s="40"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="45">
         <v>285</v>
       </c>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="54"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="52"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2772,35 +2807,33 @@
         <v>78294</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="43"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="25"/>
       <c r="I45" s="6">
         <v>2252039</v>
       </c>
-      <c r="K45" s="44"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="8">
-        <v>88052</v>
-      </c>
-      <c r="O45" s="29"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="57"/>
+      <c r="O45" s="28"/>
       <c r="Q45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R45" s="14"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="37">
+      <c r="S45" s="29"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="36">
         <v>4186</v>
       </c>
-      <c r="V45" s="41"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="47">
+      <c r="V45" s="40"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="45">
         <v>1330</v>
       </c>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="49"/>
-      <c r="AB45" s="54"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="52"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2810,690 +2843,690 @@
         <v>16146</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="43"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="25"/>
       <c r="I46" s="6">
         <v>1079425</v>
       </c>
-      <c r="K46" s="44"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="8">
-        <v>88055</v>
-      </c>
+      <c r="K46" s="43"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="57"/>
       <c r="N46" s="16"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="56"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="54"/>
       <c r="Q46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R46" s="14"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="37" t="s">
+      <c r="S46" s="29"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="V46" s="41"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="47">
+      <c r="V46" s="40"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="45">
         <v>1350</v>
       </c>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="54"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="52"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="10">
         <v>75104</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="43"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="25"/>
       <c r="I47" s="6">
         <v>1164375</v>
       </c>
-      <c r="K47" s="44"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="57"/>
       <c r="Q47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R47" s="14"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="37">
+      <c r="S47" s="29"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="36">
         <v>4176</v>
       </c>
-      <c r="V47" s="41"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="47">
+      <c r="V47" s="40"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="45">
         <v>1375</v>
       </c>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="54"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="52"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E48" s="10">
         <v>75736</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="43"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="25"/>
       <c r="I48" s="6">
         <v>1354135</v>
       </c>
-      <c r="K48" s="44"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="8">
-        <v>88048</v>
+      <c r="K48" s="43"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="58">
+        <v>1457100</v>
       </c>
       <c r="N48" s="16"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="56"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="54"/>
       <c r="Q48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R48" s="14"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="37">
+      <c r="S48" s="29"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="36">
         <v>4184</v>
       </c>
-      <c r="V48" s="41"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="47">
+      <c r="V48" s="40"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="45">
         <v>1425</v>
       </c>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="54"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="52"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="10">
         <v>74844</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="43"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="25"/>
       <c r="I49" s="6">
         <v>9173196</v>
       </c>
-      <c r="K49" s="44"/>
-      <c r="M49" s="8">
-        <v>88076</v>
+      <c r="K49" s="43"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="58">
+        <v>1028530</v>
       </c>
       <c r="N49" s="16"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="55"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="53"/>
       <c r="R49" s="14"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="37">
+      <c r="S49" s="29"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="36">
         <v>4219</v>
       </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="47">
+      <c r="V49" s="40"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="45">
         <v>1455</v>
       </c>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="54"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="52"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E50" s="10">
         <v>20340</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="43"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="25"/>
       <c r="I50" s="6">
         <v>1182211</v>
       </c>
-      <c r="K50" s="44"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="8">
-        <v>88141</v>
-      </c>
-      <c r="O50" s="29"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="57"/>
+      <c r="O50" s="28"/>
       <c r="Q50" t="s">
-        <v>197</v>
-      </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="32"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="47">
+        <v>196</v>
+      </c>
+      <c r="S50" s="29"/>
+      <c r="T50" s="31"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="45">
         <v>390</v>
       </c>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="54"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="52"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="10">
         <v>20478</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="43"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="25"/>
       <c r="I51" s="6">
         <v>4868220</v>
       </c>
-      <c r="K51" s="44"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="8">
-        <v>88298</v>
+      <c r="K51" s="43"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="58">
+        <v>8252660</v>
       </c>
       <c r="N51" s="16"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="55" t="s">
-        <v>90</v>
+      <c r="O51" s="28"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="R51" s="14"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="37">
+      <c r="S51" s="29"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="36">
         <v>8125</v>
       </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="47">
+      <c r="V51" s="40"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="45">
         <v>404</v>
       </c>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="54"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="52"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="10">
         <v>34298</v>
       </c>
       <c r="F52" s="11"/>
-      <c r="G52" s="43"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="25"/>
       <c r="I52" s="6">
         <v>3758778</v>
       </c>
-      <c r="K52" s="44"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="8">
-        <v>88234</v>
-      </c>
-      <c r="O52" s="29"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="57"/>
+      <c r="O52" s="28"/>
       <c r="Q52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R52" s="14"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="37">
+      <c r="S52" s="29"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="36">
         <v>8168</v>
       </c>
-      <c r="V52" s="41"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="47">
+      <c r="V52" s="40"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="45">
         <v>403</v>
       </c>
-      <c r="Z52" s="48"/>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="54"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="52"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="43"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="25"/>
       <c r="I53" s="6">
         <v>6056907</v>
       </c>
-      <c r="K53" s="44"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="8">
-        <v>88228</v>
-      </c>
+      <c r="K53" s="43"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="57"/>
       <c r="N53" s="16"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="56"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="54"/>
       <c r="Q53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R53" s="14"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="37">
+      <c r="S53" s="29"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="36">
         <v>8243</v>
       </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="47">
+      <c r="V53" s="40"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="45">
         <v>420</v>
       </c>
-      <c r="Z53" s="48"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="54"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="52"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="43"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="25"/>
       <c r="I54" s="6">
         <v>7350788</v>
       </c>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="8">
-        <v>88163</v>
+      <c r="K54" s="43"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="58">
+        <v>8187270</v>
       </c>
       <c r="N54" s="16"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="S54" s="30"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="37">
+      <c r="O54" s="28"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="S54" s="29"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="36">
         <v>8169</v>
       </c>
-      <c r="V54" s="41"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="47">
+      <c r="V54" s="40"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="45">
         <v>244</v>
       </c>
-      <c r="Z54" s="48"/>
-      <c r="AA54" s="49"/>
-      <c r="AB54" s="54"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="52"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="43"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="25"/>
       <c r="I55" s="6">
         <v>8313967</v>
       </c>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="8">
-        <v>88161</v>
+      <c r="K55" s="43"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="58">
+        <v>7006521</v>
       </c>
       <c r="N55" s="16"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="55" t="s">
-        <v>91</v>
+      <c r="O55" s="28"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="53" t="s">
+        <v>90</v>
       </c>
       <c r="R55" s="14"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="37">
+      <c r="S55" s="29"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="36">
         <v>8083</v>
       </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="47">
+      <c r="V55" s="40"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="45">
         <v>490</v>
       </c>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="54"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="52"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="43"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="25"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="37">
+      <c r="L56" s="26"/>
+      <c r="M56" s="57"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="36">
         <v>8080</v>
       </c>
-      <c r="V56" s="41"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="47">
+      <c r="V56" s="40"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="45">
         <v>505</v>
       </c>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="54"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="52"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="L57" s="26"/>
+      <c r="M57" s="57"/>
       <c r="Q57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="G58" s="43"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="25"/>
       <c r="I58" s="6">
         <v>1094721</v>
       </c>
-      <c r="K58" s="44"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="8">
-        <v>88153</v>
+      <c r="K58" s="43"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="58">
+        <v>6136985</v>
       </c>
       <c r="N58" s="16"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="55" t="s">
-        <v>92</v>
+      <c r="O58" s="28"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="53" t="s">
+        <v>91</v>
       </c>
       <c r="R58" s="14"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="37">
+      <c r="S58" s="29"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="36">
         <v>8086</v>
       </c>
-      <c r="V58" s="41"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="47">
+      <c r="V58" s="40"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="45">
         <v>455</v>
       </c>
-      <c r="Z58" s="48"/>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="54"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="52"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="11"/>
-      <c r="G59" s="43"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="25"/>
       <c r="I59" s="6">
         <v>6846554</v>
       </c>
-      <c r="K59" s="44"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="8">
-        <v>88945</v>
-      </c>
-      <c r="S59" s="30"/>
-      <c r="T59" s="32"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="47">
+      <c r="K59" s="43"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="57"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="31"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="45">
         <v>500</v>
       </c>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="54"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="52"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H60" s="24"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="57"/>
       <c r="Q60" t="s">
-        <v>185</v>
-      </c>
-      <c r="S60" s="30"/>
-      <c r="T60" s="32"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA60" s="49"/>
-      <c r="AB60" s="50"/>
+        <v>184</v>
+      </c>
+      <c r="S60" s="29"/>
+      <c r="T60" s="31"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="48"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="10">
         <v>78424</v>
       </c>
       <c r="F61" s="11"/>
-      <c r="G61" s="43"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="25"/>
       <c r="I61" s="6">
         <v>1008382</v>
       </c>
-      <c r="K61" s="44"/>
-      <c r="L61" s="45"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="57"/>
       <c r="N61" s="16"/>
-      <c r="O61" s="29"/>
-      <c r="Q61" s="55" t="s">
-        <v>109</v>
+      <c r="O61" s="28"/>
+      <c r="Q61" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="R61" s="14"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="37">
+      <c r="S61" s="29"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="36">
         <v>8275</v>
       </c>
-      <c r="V61" s="41"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="47">
+      <c r="V61" s="40"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="45">
         <v>828</v>
       </c>
-      <c r="Z61" s="48"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="54"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="52"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="10">
         <v>75310</v>
       </c>
       <c r="F62" s="11"/>
-      <c r="G62" s="43"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="25"/>
       <c r="I62" s="6">
         <v>4249389</v>
       </c>
-      <c r="K62" s="44"/>
-      <c r="L62" s="45"/>
-      <c r="Q62" s="55" t="s">
-        <v>110</v>
+      <c r="K62" s="43"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="57"/>
+      <c r="Q62" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="R62" s="14"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="37">
+      <c r="S62" s="29"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="36">
         <v>8110</v>
       </c>
-      <c r="V62" s="41"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="47">
+      <c r="V62" s="40"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="45">
         <v>563</v>
       </c>
-      <c r="Z62" s="48"/>
-      <c r="AA62" s="49"/>
-      <c r="AB62" s="54"/>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="52"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="38"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="11"/>
-      <c r="G63" s="43"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="25"/>
-      <c r="M63" s="8">
-        <v>88550</v>
-      </c>
+      <c r="L63" s="26"/>
+      <c r="M63" s="57"/>
       <c r="N63" s="16"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="56"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="54"/>
       <c r="Q63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R63" s="14"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="37">
+      <c r="S63" s="29"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="36">
         <v>8560</v>
       </c>
-      <c r="V63" s="41"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="47">
+      <c r="V63" s="40"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="45">
         <v>570</v>
       </c>
-      <c r="Z63" s="48"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="54"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="52"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" s="10">
         <v>70646</v>
       </c>
       <c r="F64" s="11"/>
-      <c r="G64" s="43"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="25"/>
       <c r="I64" s="6">
         <v>1420330</v>
       </c>
-      <c r="K64" s="44"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="8">
-        <v>88168</v>
+      <c r="K64" s="43"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="58">
+        <v>1028511</v>
       </c>
       <c r="N64" s="16"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="55" t="s">
-        <v>96</v>
+      <c r="O64" s="28"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="53" t="s">
+        <v>95</v>
       </c>
       <c r="R64" s="14"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="37">
+      <c r="S64" s="29"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="36">
         <v>8127</v>
       </c>
-      <c r="V64" s="41"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="47">
+      <c r="V64" s="40"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="45">
         <v>565</v>
       </c>
-      <c r="Z64" s="48"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="54"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="52"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F65" s="11"/>
-      <c r="G65" s="43"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="25"/>
       <c r="I65" s="6">
         <v>9927799</v>
       </c>
-      <c r="K65" s="44"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="8">
-        <v>88406</v>
+      <c r="K65" s="43"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="58">
+        <v>2012150</v>
       </c>
       <c r="N65" s="16"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="55" t="s">
-        <v>98</v>
+      <c r="O65" s="28"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="R65" s="14"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="37">
+      <c r="S65" s="29"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="36">
         <v>8058</v>
       </c>
-      <c r="V65" s="41"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="47">
+      <c r="V65" s="40"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="45">
         <v>605</v>
       </c>
-      <c r="Z65" s="48"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="54"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="52"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E66" s="10">
         <v>75336</v>
@@ -3504,77 +3537,80 @@
       <c r="I66" s="6">
         <v>1745161</v>
       </c>
-      <c r="K66" s="44"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="8">
-        <v>88429</v>
+      <c r="K66" s="43"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="58">
+        <v>1028515</v>
       </c>
       <c r="N66" s="16"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="S66" s="30"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="37">
+      <c r="O66" s="28"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="S66" s="29"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="36">
         <v>8465</v>
       </c>
-      <c r="V66" s="41"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="47">
+      <c r="V66" s="40"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="45">
         <v>575</v>
       </c>
-      <c r="Z66" s="48"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="54"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="52"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="11"/>
-      <c r="G67" s="43"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="25"/>
       <c r="I67" s="6">
         <v>4615704</v>
       </c>
-      <c r="K67" s="44"/>
-      <c r="L67" s="45"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="32"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="47">
+      <c r="K67" s="43"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="57"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="31"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="45">
         <v>585</v>
       </c>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="54"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="52"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="38"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="H68" s="24"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="57"/>
       <c r="N68" s="16"/>
-      <c r="O68" s="29"/>
+      <c r="O68" s="28"/>
       <c r="R68" s="14"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="32"/>
-      <c r="V68" s="41"/>
-      <c r="X68" s="34"/>
-      <c r="Z68" s="48"/>
-      <c r="AB68" s="54"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="31"/>
+      <c r="V68" s="40"/>
+      <c r="X68" s="33"/>
+      <c r="Z68" s="46"/>
+      <c r="AB68" s="52"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -3584,120 +3620,122 @@
         <v>75690</v>
       </c>
       <c r="F69" s="11"/>
-      <c r="G69" s="43"/>
+      <c r="G69" s="42"/>
       <c r="H69" s="25"/>
       <c r="I69" s="6">
         <v>7413057</v>
       </c>
-      <c r="K69" s="44"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="8">
-        <v>88070</v>
+      <c r="K69" s="43"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="58">
+        <v>4221933</v>
       </c>
       <c r="N69" s="16"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="55" t="s">
-        <v>99</v>
+      <c r="O69" s="28"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="R69" s="14"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="32"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="47">
+      <c r="S69" s="29"/>
+      <c r="T69" s="31"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="45">
         <v>1650</v>
       </c>
-      <c r="Z69" s="48"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="54"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="52"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" s="10">
         <v>77278</v>
       </c>
       <c r="F70" s="11"/>
-      <c r="G70" s="43"/>
+      <c r="G70" s="42"/>
       <c r="H70" s="25"/>
-      <c r="Q70" s="55" t="s">
-        <v>100</v>
+      <c r="L70" s="26"/>
+      <c r="M70" s="57"/>
+      <c r="Q70" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="R70" s="14"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="37">
+      <c r="S70" s="29"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="36">
         <v>4060</v>
       </c>
-      <c r="V70" s="41"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="34"/>
-      <c r="Z70" s="48"/>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="54"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="33"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="52"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F71" s="11"/>
-      <c r="G71" s="43"/>
+      <c r="G71" s="42"/>
       <c r="H71" s="25"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="32"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="34"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="54"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="57"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="31"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="33"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="52"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F72" s="11"/>
-      <c r="G72" s="43"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="25"/>
       <c r="I72" s="6">
         <v>1313154</v>
       </c>
-      <c r="K72" s="44"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="8">
-        <v>88609</v>
-      </c>
-      <c r="O72" s="29"/>
-      <c r="Q72" s="55" t="s">
-        <v>101</v>
+      <c r="K72" s="43"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="57"/>
+      <c r="O72" s="28"/>
+      <c r="Q72" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="R72" s="14"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="37">
+      <c r="S72" s="29"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="36">
         <v>8484</v>
       </c>
-      <c r="V72" s="41"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="47">
+      <c r="V72" s="40"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="45">
         <v>651</v>
       </c>
-      <c r="Z72" s="48"/>
-      <c r="AA72" s="49"/>
-      <c r="AB72" s="54"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="47"/>
+      <c r="AB72" s="52"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73" s="10">
         <v>34768</v>
@@ -3708,65 +3746,63 @@
       <c r="I73" s="6">
         <v>8481756</v>
       </c>
-      <c r="K73" s="44"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="8">
-        <v>88177</v>
+      <c r="K73" s="43"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="58">
+        <v>8010498</v>
       </c>
       <c r="N73" s="16"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="55" t="s">
-        <v>102</v>
+      <c r="O73" s="28"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="R73" s="14"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="32"/>
-      <c r="U73" s="37">
+      <c r="S73" s="29"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="36">
         <v>8277</v>
       </c>
-      <c r="V73" s="41"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="47">
+      <c r="V73" s="40"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="45">
         <v>660</v>
       </c>
-      <c r="Z73" s="48"/>
-      <c r="AA73" s="49"/>
-      <c r="AB73" s="54"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="47"/>
+      <c r="AB73" s="52"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F74" s="11"/>
-      <c r="G74" s="43"/>
+      <c r="G74" s="42"/>
       <c r="H74" s="25"/>
       <c r="I74" s="6">
         <v>1008465</v>
       </c>
-      <c r="K74" s="44"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="8">
-        <v>89282</v>
-      </c>
-      <c r="O74" s="29"/>
-      <c r="Q74" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="S74" s="30"/>
-      <c r="T74" s="32"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="47">
+      <c r="K74" s="43"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="57"/>
+      <c r="O74" s="28"/>
+      <c r="Q74" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="S74" s="29"/>
+      <c r="T74" s="31"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="33"/>
+      <c r="Y74" s="45">
         <v>706</v>
       </c>
-      <c r="AA74" s="49"/>
-      <c r="AB74" s="54"/>
+      <c r="AA74" s="47"/>
+      <c r="AB74" s="52"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3780,202 +3816,285 @@
       <c r="I75" s="6">
         <v>6894232</v>
       </c>
-      <c r="K75" s="44"/>
-      <c r="L75" s="45"/>
-      <c r="Q75" s="55" t="s">
-        <v>104</v>
+      <c r="K75" s="43"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="57"/>
+      <c r="Q75" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="R75" s="14"/>
-      <c r="S75" s="30"/>
-      <c r="T75" s="32"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="35"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="47">
+      <c r="S75" s="29"/>
+      <c r="T75" s="31"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="45">
         <v>805</v>
       </c>
-      <c r="Z75" s="48"/>
-      <c r="AA75" s="49"/>
-      <c r="AB75" s="54"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="52"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y76" s="47" t="s">
-        <v>191</v>
+        <v>115</v>
+      </c>
+      <c r="L76" s="26"/>
+      <c r="M76" s="57"/>
+      <c r="Y76" s="45" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H77" s="24"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="57"/>
       <c r="Q77" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y77" s="47" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="Y77" s="45" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E78" s="10">
         <v>78126</v>
       </c>
       <c r="F78" s="11"/>
-      <c r="G78" s="43"/>
+      <c r="G78" s="42"/>
       <c r="H78" s="25"/>
       <c r="I78" s="6">
         <v>2036598</v>
       </c>
-      <c r="K78" s="44"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="8">
-        <v>88198</v>
+      <c r="K78" s="43"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="58">
+        <v>4074472</v>
       </c>
       <c r="N78" s="16"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="56"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="54"/>
       <c r="Q78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R78" s="14"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="32"/>
-      <c r="U78" s="37">
+      <c r="S78" s="29"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="36">
         <v>8142</v>
       </c>
-      <c r="V78" s="41"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="47">
+      <c r="V78" s="40"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="45">
         <v>865</v>
       </c>
-      <c r="Z78" s="48"/>
-      <c r="AA78" s="49"/>
-      <c r="AB78" s="54"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="52"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E79" s="10">
         <v>39142</v>
       </c>
       <c r="F79" s="11"/>
-      <c r="G79" s="43"/>
+      <c r="G79" s="42"/>
       <c r="H79" s="25"/>
       <c r="I79" s="6">
         <v>6235501</v>
       </c>
-      <c r="K79" s="44"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="8">
-        <v>88305</v>
-      </c>
+      <c r="K79" s="43"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="57"/>
       <c r="N79" s="16"/>
-      <c r="O79" s="29"/>
-      <c r="Q79" s="55" t="s">
-        <v>108</v>
+      <c r="O79" s="28"/>
+      <c r="Q79" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="R79" s="14"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="37">
+      <c r="S79" s="29"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="36">
         <v>4193</v>
       </c>
-      <c r="V79" s="41"/>
-      <c r="W79" s="35"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="47">
+      <c r="V79" s="40"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="45">
         <v>1150</v>
       </c>
-      <c r="Z79" s="48"/>
-      <c r="AA79" s="49"/>
-      <c r="AB79" s="54"/>
+      <c r="Z79" s="46"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="52"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F80" s="11"/>
-      <c r="G80" s="43"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="25"/>
       <c r="I80" s="6">
         <v>1763432</v>
       </c>
-      <c r="K80" s="44"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="8">
-        <v>88205</v>
+      <c r="K80" s="43"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="58">
+        <v>9007303</v>
       </c>
       <c r="N80" s="16"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="55" t="s">
-        <v>112</v>
+      <c r="O80" s="28"/>
+      <c r="P80" s="54"/>
+      <c r="Q80" s="53" t="s">
+        <v>111</v>
       </c>
       <c r="R80" s="14"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="32"/>
-      <c r="U80" s="37">
+      <c r="S80" s="29"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="36">
         <v>4074</v>
       </c>
-      <c r="V80" s="41"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="47">
+      <c r="V80" s="40"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="33"/>
+      <c r="Y80" s="45">
         <v>920</v>
       </c>
-      <c r="Z80" s="48"/>
-      <c r="AA80" s="49"/>
-      <c r="AB80" s="54"/>
+      <c r="Z80" s="46"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="52"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E81" s="10">
         <v>76800</v>
       </c>
       <c r="F81" s="11"/>
-      <c r="G81" s="43"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="25"/>
       <c r="I81" s="6">
         <v>6017263</v>
       </c>
-      <c r="K81" s="44"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="8">
-        <v>88212</v>
+      <c r="K81" s="43"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="58">
+        <v>6264014</v>
       </c>
       <c r="N81" s="16"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="55" t="s">
-        <v>111</v>
+      <c r="O81" s="28"/>
+      <c r="P81" s="54"/>
+      <c r="Q81" s="53" t="s">
+        <v>110</v>
       </c>
       <c r="R81" s="14"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="37">
+      <c r="S81" s="29"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="36">
         <v>4050</v>
       </c>
-      <c r="V81" s="41"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="47">
+      <c r="V81" s="40"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="33"/>
+      <c r="Y81" s="45">
         <v>931</v>
       </c>
-      <c r="Z81" s="48"/>
-      <c r="AA81" s="49"/>
-      <c r="AB81" s="54"/>
+      <c r="Z81" s="46"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="52"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L82" s="26"/>
+      <c r="M82" s="57"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L83" s="26"/>
+      <c r="M83" s="57"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L84" s="26"/>
+      <c r="M84" s="57"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L85" s="26"/>
+      <c r="M85" s="57"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L86" s="26"/>
+      <c r="M86" s="57"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L87" s="26"/>
+      <c r="M87" s="57"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L88" s="26"/>
+      <c r="M88" s="57"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L89" s="26"/>
+      <c r="M89" s="57"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L90" s="26"/>
+      <c r="M90" s="57"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L91" s="26"/>
+      <c r="M91" s="57"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L92" s="26"/>
+      <c r="M92" s="57"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L93" s="26"/>
+      <c r="M93" s="57"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L94" s="26"/>
+      <c r="M94" s="57"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L95" s="26"/>
+      <c r="M95" s="57"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L96" s="26"/>
+      <c r="M96" s="57"/>
+    </row>
+    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L97" s="26"/>
+      <c r="M97" s="57"/>
+    </row>
+    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L98" s="26"/>
+      <c r="M98" s="57"/>
+    </row>
+    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L99" s="26"/>
+      <c r="M99" s="57"/>
+    </row>
+    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L100" s="26"/>
+      <c r="M100" s="57"/>
+    </row>
+    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L101" s="26"/>
+      <c r="M101" s="57"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB81">

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65C891-76EE-46E0-958B-20A5A14E78C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D345B338-0188-4076-9898-2B1A5489BE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,17 +936,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,15 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1305,10 +1305,10 @@
   <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:AB1"/>
+      <selection pane="bottomRight" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,58 +1343,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="44"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="59" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="59" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="59" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="59" t="s">
+      <c r="R1" s="75"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="68"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="75" t="s">
+      <c r="V1" s="71"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="77"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="44"/>
-      <c r="D2" s="63"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1496,9 @@
       <c r="E4" s="10"/>
       <c r="H4" s="24"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="57"/>
+      <c r="M4">
+        <v>6793301</v>
+      </c>
       <c r="Q4" s="53" t="s">
         <v>68</v>
       </c>
@@ -2814,7 +2816,9 @@
       </c>
       <c r="K45" s="43"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="57"/>
+      <c r="M45">
+        <v>5384284</v>
+      </c>
       <c r="O45" s="28"/>
       <c r="Q45" t="s">
         <v>178</v>
@@ -2850,7 +2854,9 @@
       </c>
       <c r="K46" s="43"/>
       <c r="L46" s="18"/>
-      <c r="M46" s="57"/>
+      <c r="M46">
+        <v>3114824</v>
+      </c>
       <c r="N46" s="16"/>
       <c r="O46" s="28"/>
       <c r="P46" s="54"/>
@@ -3914,7 +3920,9 @@
       </c>
       <c r="K79" s="43"/>
       <c r="L79" s="18"/>
-      <c r="M79" s="57"/>
+      <c r="M79">
+        <v>1205582</v>
+      </c>
       <c r="N79" s="16"/>
       <c r="O79" s="28"/>
       <c r="Q79" s="53" t="s">

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB57C8-840A-45A8-A5FE-8062A0F833FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB82046-1D46-4B50-9B97-E976AB46C34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1170" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +757,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="SF Pro Regular"/>
     </font>
   </fonts>
   <fills count="9">
@@ -990,6 +995,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1038,19 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1372,13 +1375,13 @@
   <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I66" sqref="I66"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
@@ -1387,7 +1390,7 @@
     <col min="5" max="5" width="15" style="9" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="8" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="80" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="60" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="16" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="24" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="5" customWidth="1"/>
@@ -1409,59 +1412,59 @@
     <col min="28" max="28" width="13.7109375" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:28" ht="21" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="80" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="42"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="64" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="64" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="64" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="73"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="64" t="s">
+      <c r="R1" s="78"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="57" t="s">
+      <c r="V1" s="74"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="75"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="64"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A2" s="66"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="42"/>
-      <c r="D2" s="63"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="59" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1535,7 +1538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1556,13 +1559,13 @@
       <c r="AA3" s="45"/>
       <c r="AB3" s="50"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E4" s="8"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="80">
+      <c r="I4" s="60">
         <v>1268572</v>
       </c>
       <c r="L4" s="24"/>
@@ -1588,7 +1591,7 @@
       <c r="AA4" s="45"/>
       <c r="AB4" s="50"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1612,17 +1615,17 @@
       <c r="AA5" s="45"/>
       <c r="AB5" s="50"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="60">
         <v>4418752</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1632,7 +1635,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="40"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="80">
+      <c r="I7" s="60">
         <v>1254440</v>
       </c>
       <c r="K7" s="41"/>
@@ -1658,11 +1661,11 @@
       <c r="AA7" s="45"/>
       <c r="AB7" s="50"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="60">
         <v>7567159</v>
       </c>
       <c r="L8" s="24"/>
@@ -1674,7 +1677,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -1684,7 +1687,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="40"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="80">
+      <c r="I9" s="60">
         <v>2704989</v>
       </c>
       <c r="K9" s="41"/>
@@ -1713,7 +1716,7 @@
       <c r="AA9" s="45"/>
       <c r="AB9" s="50"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
         <v>169</v>
       </c>
@@ -1723,7 +1726,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="40"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="80">
+      <c r="I10" s="60">
         <v>1675859</v>
       </c>
       <c r="K10" s="41"/>
@@ -1753,7 +1756,7 @@
       <c r="AA10" s="45"/>
       <c r="AB10" s="50"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1766,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="40"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="80">
+      <c r="I11" s="60">
         <v>4510299</v>
       </c>
       <c r="K11" s="41"/>
@@ -1789,21 +1792,21 @@
       <c r="AA11" s="45"/>
       <c r="AB11" s="50"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="55"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="55"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1816,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="40"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="80">
+      <c r="I14" s="60">
         <v>2227007</v>
       </c>
       <c r="K14" s="41"/>
@@ -1843,7 +1846,7 @@
       <c r="AA14" s="45"/>
       <c r="AB14" s="50"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1852,13 +1855,13 @@
       </c>
       <c r="F15" s="9"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="80">
+      <c r="I15" s="60">
         <v>2227015</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="56">
-        <v>7228448</v>
+      <c r="M15" s="61">
+        <v>2054542</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="26"/>
@@ -1877,7 +1880,7 @@
       <c r="AA15" s="45"/>
       <c r="AB15" s="50"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1887,7 +1890,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="80">
+      <c r="I16" s="60">
         <v>1243724</v>
       </c>
       <c r="K16" s="41"/>
@@ -1913,7 +1916,7 @@
       <c r="AA16" s="45"/>
       <c r="AB16" s="50"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1923,7 +1926,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="40"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="80">
+      <c r="I17" s="60">
         <v>1120625</v>
       </c>
       <c r="L17" s="24"/>
@@ -1948,7 +1951,7 @@
       <c r="AA17" s="45"/>
       <c r="AB17" s="50"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
         <v>124</v>
       </c>
@@ -1958,7 +1961,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="40"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="80">
+      <c r="I18" s="60">
         <v>1735372</v>
       </c>
       <c r="K18" s="41"/>
@@ -1988,17 +1991,17 @@
       <c r="AA18" s="45"/>
       <c r="AB18" s="50"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I19" s="80">
+      <c r="I19" s="60">
         <v>4294294</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="55"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
         <v>125</v>
       </c>
@@ -2008,7 +2011,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="40"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="80">
+      <c r="I20" s="60">
         <v>2105773</v>
       </c>
       <c r="K20" s="41"/>
@@ -2030,7 +2033,7 @@
       <c r="AA20" s="45"/>
       <c r="AB20" s="50"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -2040,7 +2043,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="40"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="80">
+      <c r="I21" s="60">
         <v>1821537</v>
       </c>
       <c r="K21" s="41"/>
@@ -2069,7 +2072,7 @@
       <c r="AA21" s="45"/>
       <c r="AB21" s="50"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2079,7 +2082,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="40"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="80">
+      <c r="I22" s="60">
         <v>1185545</v>
       </c>
       <c r="L22" s="24"/>
@@ -2103,17 +2106,17 @@
       <c r="AA22" s="45"/>
       <c r="AB22" s="50"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="60" t="s">
         <v>208</v>
       </c>
       <c r="L23" s="24"/>
       <c r="M23" s="55"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
@@ -2123,7 +2126,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="40"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="60" t="s">
         <v>207</v>
       </c>
       <c r="L24" s="24"/>
@@ -2152,13 +2155,13 @@
       <c r="AA24" s="45"/>
       <c r="AB24" s="50"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="8"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="60" t="s">
         <v>209</v>
       </c>
       <c r="L25" s="24"/>
@@ -2177,7 +2180,7 @@
       <c r="AA25" s="45"/>
       <c r="AB25" s="50"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -2187,7 +2190,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="40"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="80">
+      <c r="I26" s="60">
         <v>1810910</v>
       </c>
       <c r="K26" s="41"/>
@@ -2212,7 +2215,7 @@
       <c r="AA26" s="45"/>
       <c r="AB26" s="50"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
         <v>119</v>
       </c>
@@ -2222,7 +2225,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="40"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="80">
+      <c r="I27" s="60">
         <v>7975374</v>
       </c>
       <c r="K27" s="41"/>
@@ -2251,11 +2254,11 @@
       <c r="AA27" s="45"/>
       <c r="AB27" s="50"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="60" t="s">
         <v>210</v>
       </c>
       <c r="L28" s="24"/>
@@ -2264,13 +2267,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E29" s="8"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="80" t="s">
+      <c r="I29" s="60" t="s">
         <v>211</v>
       </c>
       <c r="L29" s="24"/>
@@ -2293,7 +2296,7 @@
       <c r="AA29" s="45"/>
       <c r="AB29" s="50"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="40"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="80" t="s">
+      <c r="I30" s="60" t="s">
         <v>212</v>
       </c>
       <c r="K30" s="41"/>
@@ -2333,7 +2336,7 @@
       <c r="AA30" s="45"/>
       <c r="AB30" s="50"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="40"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="80">
+      <c r="I31" s="60">
         <v>2260149</v>
       </c>
       <c r="K31" s="41"/>
@@ -2368,7 +2371,7 @@
       <c r="AA31" s="45"/>
       <c r="AB31" s="50"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
         <v>132</v>
       </c>
@@ -2378,7 +2381,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="40"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="80">
+      <c r="I32" s="60">
         <v>1723857</v>
       </c>
       <c r="K32" s="41"/>
@@ -2406,7 +2409,7 @@
       <c r="AA32" s="45"/>
       <c r="AB32" s="50"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -2416,7 +2419,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="40"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="80">
+      <c r="I33" s="60">
         <v>7199706</v>
       </c>
       <c r="K33" s="41"/>
@@ -2437,13 +2440,13 @@
       <c r="AA33" s="45"/>
       <c r="AB33" s="50"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E34" s="8"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="80">
+      <c r="I34" s="60">
         <v>1008143</v>
       </c>
       <c r="K34" s="41"/>
@@ -2467,13 +2470,13 @@
       <c r="AA34" s="45"/>
       <c r="AB34" s="50"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28">
       <c r="A35" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E35" s="8"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="80">
+      <c r="I35" s="60">
         <v>1985274</v>
       </c>
       <c r="K35" s="41"/>
@@ -2494,17 +2497,17 @@
       <c r="AA35" s="45"/>
       <c r="AB35" s="50"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="80" t="s">
+      <c r="I36" s="60" t="s">
         <v>213</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="55"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28">
       <c r="A37" s="1" t="s">
         <v>150</v>
       </c>
@@ -2514,7 +2517,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="40"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="80">
+      <c r="I37" s="60">
         <v>2416691</v>
       </c>
       <c r="K37" s="41"/>
@@ -2544,7 +2547,7 @@
       <c r="AA37" s="45"/>
       <c r="AB37" s="50"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -2570,7 +2573,7 @@
       <c r="AA38" s="45"/>
       <c r="AB38" s="50"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28">
       <c r="A39" s="1" t="s">
         <v>152</v>
       </c>
@@ -2596,7 +2599,7 @@
       <c r="AA39" s="45"/>
       <c r="AB39" s="50"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
@@ -2606,7 +2609,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="40"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="80">
+      <c r="I40" s="60">
         <v>8474538</v>
       </c>
       <c r="K40" s="41"/>
@@ -2636,7 +2639,7 @@
       <c r="AA40" s="45"/>
       <c r="AB40" s="50"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28">
       <c r="A41" s="1" t="s">
         <v>154</v>
       </c>
@@ -2646,7 +2649,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="40"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="80">
+      <c r="I41" s="60">
         <v>3629433</v>
       </c>
       <c r="K41" s="41"/>
@@ -2670,7 +2673,7 @@
       <c r="AA41" s="45"/>
       <c r="AB41" s="50"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28">
       <c r="A42" s="1" t="s">
         <v>157</v>
       </c>
@@ -2695,7 +2698,7 @@
       <c r="AA42" s="45"/>
       <c r="AB42" s="50"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28">
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
@@ -2705,7 +2708,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="40"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="80" t="s">
+      <c r="I43" s="60" t="s">
         <v>214</v>
       </c>
       <c r="L43" s="24"/>
@@ -2734,7 +2737,7 @@
       <c r="AA43" s="45"/>
       <c r="AB43" s="50"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28">
       <c r="A44" s="1" t="s">
         <v>139</v>
       </c>
@@ -2744,7 +2747,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="40"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="80">
+      <c r="I44" s="60">
         <v>2005346</v>
       </c>
       <c r="K44" s="16"/>
@@ -2769,7 +2772,7 @@
       <c r="AA44" s="45"/>
       <c r="AB44" s="50"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28">
       <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
@@ -2779,11 +2782,11 @@
       <c r="F45" s="9"/>
       <c r="G45" s="40"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="80" t="s">
+      <c r="I45" s="60" t="s">
         <v>215</v>
       </c>
       <c r="L45" s="24"/>
-      <c r="M45" s="77">
+      <c r="M45" s="58">
         <v>6537666</v>
       </c>
       <c r="N45" s="14"/>
@@ -2808,7 +2811,7 @@
       <c r="AA45" s="45"/>
       <c r="AB45" s="50"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
@@ -2818,12 +2821,11 @@
       <c r="F46" s="9"/>
       <c r="G46" s="40"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="80">
+      <c r="I46" s="60">
         <v>2219111</v>
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="78"/>
       <c r="S46" s="27"/>
       <c r="T46" s="29"/>
       <c r="V46" s="37"/>
@@ -2835,7 +2837,7 @@
       <c r="AA46" s="45"/>
       <c r="AB46" s="50"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -2845,7 +2847,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="22"/>
-      <c r="I47" s="80">
+      <c r="I47" s="60">
         <v>2004547</v>
       </c>
       <c r="K47" s="41"/>
@@ -2871,7 +2873,7 @@
       <c r="AA47" s="45"/>
       <c r="AB47" s="50"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -2881,7 +2883,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="40"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="80">
+      <c r="I48" s="60">
         <v>1290469</v>
       </c>
       <c r="K48" s="41"/>
@@ -2906,7 +2908,7 @@
       <c r="AA48" s="45"/>
       <c r="AB48" s="50"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -2916,7 +2918,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="40"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="80">
+      <c r="I49" s="60">
         <v>1008168</v>
       </c>
       <c r="K49" s="41"/>
@@ -2942,7 +2944,7 @@
       <c r="AA49" s="45"/>
       <c r="AB49" s="50"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -2952,12 +2954,12 @@
       <c r="F50" s="9"/>
       <c r="G50" s="40"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="80">
+      <c r="I50" s="60">
         <v>2252039</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="76">
+      <c r="M50" s="57">
         <v>5384284</v>
       </c>
       <c r="O50" s="26"/>
@@ -2980,7 +2982,7 @@
       <c r="AA50" s="45"/>
       <c r="AB50" s="50"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
@@ -2990,12 +2992,12 @@
       <c r="F51" s="9"/>
       <c r="G51" s="40"/>
       <c r="H51" s="23"/>
-      <c r="I51" s="80">
+      <c r="I51" s="60">
         <v>1079425</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="76">
+      <c r="M51" s="57">
         <v>3114824</v>
       </c>
       <c r="N51" s="14"/>
@@ -3020,7 +3022,7 @@
       <c r="AA51" s="45"/>
       <c r="AB51" s="50"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28">
       <c r="A52" s="1" t="s">
         <v>162</v>
       </c>
@@ -3030,7 +3032,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="40"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="80">
+      <c r="I52" s="60">
         <v>1164375</v>
       </c>
       <c r="K52" s="41"/>
@@ -3055,7 +3057,7 @@
       <c r="AA52" s="45"/>
       <c r="AB52" s="50"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -3065,7 +3067,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="40"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="80">
+      <c r="I53" s="60">
         <v>1354135</v>
       </c>
       <c r="K53" s="41"/>
@@ -3095,7 +3097,7 @@
       <c r="AA53" s="45"/>
       <c r="AB53" s="50"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3105,7 +3107,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="40"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="80">
+      <c r="I54" s="60">
         <v>9173196</v>
       </c>
       <c r="K54" s="41"/>
@@ -3133,7 +3135,7 @@
       <c r="AA54" s="45"/>
       <c r="AB54" s="50"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -3143,7 +3145,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="40"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="80">
+      <c r="I55" s="60">
         <v>1182211</v>
       </c>
       <c r="K55" s="41"/>
@@ -3164,7 +3166,7 @@
       <c r="AA55" s="45"/>
       <c r="AB55" s="50"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28">
       <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
@@ -3174,7 +3176,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="40"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="80">
+      <c r="I56" s="60">
         <v>4868220</v>
       </c>
       <c r="K56" s="41"/>
@@ -3204,7 +3206,7 @@
       <c r="AA56" s="45"/>
       <c r="AB56" s="50"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -3214,7 +3216,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="40"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="80">
+      <c r="I57" s="60">
         <v>3758778</v>
       </c>
       <c r="K57" s="41"/>
@@ -3240,7 +3242,7 @@
       <c r="AA57" s="45"/>
       <c r="AB57" s="50"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
@@ -3250,7 +3252,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="40"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="80">
+      <c r="I58" s="60">
         <v>6056907</v>
       </c>
       <c r="K58" s="41"/>
@@ -3278,7 +3280,7 @@
       <c r="AA58" s="45"/>
       <c r="AB58" s="50"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28">
       <c r="A59" s="1" t="s">
         <v>166</v>
       </c>
@@ -3288,7 +3290,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="40"/>
       <c r="H59" s="23"/>
-      <c r="I59" s="80">
+      <c r="I59" s="60">
         <v>7350788</v>
       </c>
       <c r="K59" s="41"/>
@@ -3317,7 +3319,7 @@
       <c r="AA59" s="45"/>
       <c r="AB59" s="50"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -3327,14 +3329,12 @@
       <c r="F60" s="9"/>
       <c r="G60" s="40"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="80">
+      <c r="I60" s="60">
         <v>8313967</v>
       </c>
       <c r="K60" s="41"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="56">
-        <v>7006521</v>
-      </c>
+      <c r="M60" s="56"/>
       <c r="N60" s="14"/>
       <c r="O60" s="26"/>
       <c r="P60" s="52"/>
@@ -3357,7 +3357,7 @@
       <c r="AA60" s="45"/>
       <c r="AB60" s="50"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28">
       <c r="A61" s="1" t="s">
         <v>136</v>
       </c>
@@ -3384,11 +3384,11 @@
       <c r="AA61" s="45"/>
       <c r="AB61" s="50"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I62" s="80" t="s">
+      <c r="I62" s="60" t="s">
         <v>216</v>
       </c>
       <c r="L62" s="24"/>
@@ -3397,7 +3397,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="40"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="80">
+      <c r="I63" s="60">
         <v>1094721</v>
       </c>
       <c r="K63" s="41"/>
@@ -3437,7 +3437,7 @@
       <c r="AA63" s="45"/>
       <c r="AB63" s="50"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="40"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="80">
+      <c r="I64" s="60">
         <v>6846554</v>
       </c>
       <c r="K64" s="41"/>
@@ -3464,24 +3464,24 @@
       <c r="AA64" s="45"/>
       <c r="AB64" s="50"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I65" s="80" t="s">
+      <c r="I65" s="60" t="s">
         <v>217</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="55"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28">
       <c r="A66" s="1" t="s">
         <v>204</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="55"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28">
       <c r="A67" s="1" t="s">
         <v>113</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="AA67" s="45"/>
       <c r="AB67" s="46"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28">
       <c r="A68" s="1" t="s">
         <v>155</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="40"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="80">
+      <c r="I68" s="60">
         <v>1008382</v>
       </c>
       <c r="K68" s="41"/>
@@ -3539,7 +3539,7 @@
       <c r="AA68" s="45"/>
       <c r="AB68" s="50"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="40"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="80">
+      <c r="I69" s="60">
         <v>4249389</v>
       </c>
       <c r="K69" s="41"/>
@@ -3574,7 +3574,7 @@
       <c r="AA69" s="45"/>
       <c r="AB69" s="50"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28">
       <c r="A70" s="3" t="s">
         <v>143</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="AA70" s="45"/>
       <c r="AB70" s="50"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28">
       <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="40"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="80">
+      <c r="I71" s="60">
         <v>1420330</v>
       </c>
       <c r="K71" s="41"/>
@@ -3651,7 +3651,7 @@
       <c r="AA71" s="45"/>
       <c r="AB71" s="50"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="40"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="80">
+      <c r="I72" s="60">
         <v>9927799</v>
       </c>
       <c r="K72" s="41"/>
@@ -3691,7 +3691,7 @@
       <c r="AA72" s="45"/>
       <c r="AB72" s="50"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28">
       <c r="A73" s="1" t="s">
         <v>170</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="22"/>
-      <c r="I73" s="80">
+      <c r="I73" s="60">
         <v>1745161</v>
       </c>
       <c r="K73" s="41"/>
@@ -3730,7 +3730,7 @@
       <c r="AA73" s="45"/>
       <c r="AB73" s="50"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28">
       <c r="A74" s="1" t="s">
         <v>171</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="40"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="80">
+      <c r="I74" s="60">
         <v>4615704</v>
       </c>
       <c r="K74" s="41"/>
@@ -3757,7 +3757,7 @@
       <c r="AA74" s="45"/>
       <c r="AB74" s="50"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28">
       <c r="A75" s="3" t="s">
         <v>172</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="Z75" s="44"/>
       <c r="AB75" s="50"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28">
       <c r="A76" s="1" t="s">
         <v>49</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="40"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="80">
+      <c r="I76" s="60">
         <v>7413057</v>
       </c>
       <c r="K76" s="41"/>
@@ -3816,7 +3816,7 @@
       <c r="AA76" s="45"/>
       <c r="AB76" s="50"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28">
       <c r="A77" s="1" t="s">
         <v>146</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="AA77" s="45"/>
       <c r="AB77" s="50"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28">
       <c r="A78" s="1" t="s">
         <v>145</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="AA78" s="45"/>
       <c r="AB78" s="50"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28">
       <c r="A79" s="1" t="s">
         <v>147</v>
       </c>
@@ -3874,12 +3874,11 @@
       <c r="F79" s="9"/>
       <c r="G79" s="40"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="80">
+      <c r="I79" s="60">
         <v>1313154</v>
       </c>
       <c r="K79" s="41"/>
       <c r="L79" s="16"/>
-      <c r="M79" s="78"/>
       <c r="O79" s="26"/>
       <c r="Q79" s="51" t="s">
         <v>100</v>
@@ -3900,7 +3899,7 @@
       <c r="AA79" s="45"/>
       <c r="AB79" s="50"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28">
       <c r="A80" s="1" t="s">
         <v>148</v>
       </c>
@@ -3910,7 +3909,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="80">
+      <c r="I80" s="60">
         <v>8481756</v>
       </c>
       <c r="K80" s="41"/>
@@ -3940,7 +3939,7 @@
       <c r="AA80" s="45"/>
       <c r="AB80" s="50"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28">
       <c r="A81" s="1" t="s">
         <v>149</v>
       </c>
@@ -3950,7 +3949,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="40"/>
       <c r="H81" s="23"/>
-      <c r="I81" s="80">
+      <c r="I81" s="60">
         <v>1008465</v>
       </c>
       <c r="K81" s="41"/>
@@ -3971,14 +3970,14 @@
       <c r="AA81" s="45"/>
       <c r="AB81" s="50"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28">
       <c r="A82" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="55"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28">
       <c r="A83" s="1" t="s">
         <v>53</v>
       </c>
@@ -3987,7 +3986,7 @@
       </c>
       <c r="F83" s="9"/>
       <c r="H83" s="22"/>
-      <c r="I83" s="80">
+      <c r="I83" s="60">
         <v>6894232</v>
       </c>
       <c r="K83" s="41"/>
@@ -4009,7 +4008,7 @@
       <c r="AA83" s="45"/>
       <c r="AB83" s="50"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28">
       <c r="A84" s="1" t="s">
         <v>115</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28">
       <c r="A85" s="1" t="s">
         <v>114</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28">
       <c r="A86" s="1" t="s">
         <v>173</v>
       </c>
@@ -4043,7 +4042,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="40"/>
       <c r="H86" s="23"/>
-      <c r="I86" s="80">
+      <c r="I86" s="60">
         <v>2036598</v>
       </c>
       <c r="K86" s="41"/>
@@ -4073,7 +4072,7 @@
       <c r="AA86" s="45"/>
       <c r="AB86" s="50"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28">
       <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
@@ -4083,12 +4082,12 @@
       <c r="F87" s="9"/>
       <c r="G87" s="40"/>
       <c r="H87" s="23"/>
-      <c r="I87" s="80">
+      <c r="I87" s="60">
         <v>6235501</v>
       </c>
       <c r="K87" s="41"/>
       <c r="L87" s="16"/>
-      <c r="M87" s="76">
+      <c r="M87" s="57">
         <v>1205582</v>
       </c>
       <c r="N87" s="14"/>
@@ -4112,7 +4111,7 @@
       <c r="AA87" s="45"/>
       <c r="AB87" s="50"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28">
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
@@ -4122,7 +4121,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="40"/>
       <c r="H88" s="23"/>
-      <c r="I88" s="80">
+      <c r="I88" s="60">
         <v>1763432</v>
       </c>
       <c r="K88" s="41"/>
@@ -4152,7 +4151,7 @@
       <c r="AA88" s="45"/>
       <c r="AB88" s="50"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28">
       <c r="A89" s="1" t="s">
         <v>158</v>
       </c>
@@ -4162,7 +4161,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="40"/>
       <c r="H89" s="23"/>
-      <c r="I89" s="80">
+      <c r="I89" s="60">
         <v>6017263</v>
       </c>
       <c r="K89" s="41"/>
@@ -4192,54 +4191,54 @@
       <c r="AA89" s="45"/>
       <c r="AB89" s="50"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28">
       <c r="A90" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="55"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28">
       <c r="L91" s="24"/>
       <c r="M91" s="55"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28">
       <c r="L92" s="24"/>
       <c r="M92" s="55"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28">
       <c r="L93" s="24"/>
       <c r="M93" s="55"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28">
       <c r="L94" s="24"/>
       <c r="M94" s="55"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28">
       <c r="L95" s="24"/>
       <c r="M95" s="55"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28">
       <c r="L96" s="24"/>
       <c r="M96" s="55"/>
     </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:13">
       <c r="L97" s="24"/>
       <c r="M97" s="55"/>
     </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:13">
       <c r="L98" s="24"/>
       <c r="M98" s="55"/>
     </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:13">
       <c r="L99" s="24"/>
       <c r="M99" s="55"/>
     </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:13">
       <c r="L100" s="24"/>
       <c r="M100" s="55"/>
     </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:13">
       <c r="L101" s="24"/>
       <c r="M101" s="55"/>
     </row>

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB82046-1D46-4B50-9B97-E976AB46C34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFFB05E-A91A-44D6-9BA2-43632150625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1170" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="217">
   <si>
     <t>Item</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Broccoli Crown - 20lb -USA</t>
   </si>
   <si>
-    <t>Brussel Sprout 25# - Mex</t>
-  </si>
-  <si>
     <t>Napa 30lb - USA</t>
   </si>
   <si>
@@ -669,9 +666,6 @@
     <t>1873421</t>
   </si>
   <si>
-    <t>1675701</t>
-  </si>
-  <si>
     <t>1796077</t>
   </si>
   <si>
@@ -685,6 +679,9 @@
   </si>
   <si>
     <t>7651967</t>
+  </si>
+  <si>
+    <t>Brussel Sprout 25# -USA</t>
   </si>
 </sst>
 </file>
@@ -694,7 +691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,9 +756,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF2F2F2F"/>
-      <name val="SF Pro Regular"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -867,7 +865,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -996,16 +994,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1055,6 +1049,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1378,10 +1373,10 @@
       <pane xSplit="1" ySplit="2" topLeftCell="H51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
@@ -1390,7 +1385,7 @@
     <col min="5" max="5" width="15" style="9" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="8" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="60" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="59" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="16" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="24" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="5" customWidth="1"/>
@@ -1412,59 +1407,59 @@
     <col min="28" max="28" width="13.7109375" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="78" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="42"/>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="69" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="69" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="69" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="69" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="64"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="80"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="62"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="42"/>
-      <c r="D2" s="68"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1477,7 +1472,7 @@
       <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1538,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1559,13 +1554,13 @@
       <c r="AA3" s="45"/>
       <c r="AB3" s="50"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="8"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="60">
+      <c r="I4" s="59">
         <v>1268572</v>
       </c>
       <c r="L4" s="24"/>
@@ -1591,7 +1586,7 @@
       <c r="AA4" s="45"/>
       <c r="AB4" s="50"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1615,17 +1610,17 @@
       <c r="AA5" s="45"/>
       <c r="AB5" s="50"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="60">
+        <v>197</v>
+      </c>
+      <c r="I6" s="59">
         <v>4418752</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1630,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="40"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="60">
+      <c r="I7" s="59">
         <v>1254440</v>
       </c>
       <c r="K7" s="41"/>
@@ -1661,25 +1656,25 @@
       <c r="AA7" s="45"/>
       <c r="AB7" s="50"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="60">
+        <v>116</v>
+      </c>
+      <c r="I8" s="59">
         <v>7567159</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="55"/>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y8" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>13</v>
@@ -1687,13 +1682,13 @@
       <c r="F9" s="9"/>
       <c r="G9" s="40"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="60">
+      <c r="I9" s="59">
         <v>2704989</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="56">
-        <v>8239592</v>
+      <c r="M9" s="79">
+        <v>8355281</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="26"/>
@@ -1716,9 +1711,9 @@
       <c r="AA9" s="45"/>
       <c r="AB9" s="50"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -1726,19 +1721,19 @@
       <c r="F10" s="9"/>
       <c r="G10" s="40"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="60">
+      <c r="I10" s="59">
         <v>1675859</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="56">
-        <v>4591335</v>
+      <c r="M10" s="79">
+        <v>2326429</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="26"/>
       <c r="P10" s="52"/>
       <c r="Q10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="27"/>
@@ -1756,7 +1751,7 @@
       <c r="AA10" s="45"/>
       <c r="AB10" s="50"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1766,15 +1761,15 @@
       <c r="F11" s="9"/>
       <c r="G11" s="40"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="60">
+      <c r="I11" s="59">
         <v>4510299</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="16"/>
       <c r="M11" s="55"/>
       <c r="O11" s="26"/>
-      <c r="Q11" s="51" t="s">
-        <v>73</v>
+      <c r="Q11" t="s">
+        <v>216</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="27"/>
@@ -1792,21 +1787,21 @@
       <c r="AA11" s="45"/>
       <c r="AB11" s="50"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="55"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="55"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1811,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="40"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="60">
+      <c r="I14" s="59">
         <v>2227007</v>
       </c>
       <c r="K14" s="41"/>
@@ -1828,7 +1823,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="27"/>
@@ -1846,7 +1841,7 @@
       <c r="AA14" s="45"/>
       <c r="AB14" s="50"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1855,19 +1850,19 @@
       </c>
       <c r="F15" s="9"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="60">
+      <c r="I15" s="59">
         <v>2227015</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="61">
+      <c r="M15" s="56">
         <v>2054542</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="26"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S15" s="27"/>
       <c r="T15" s="29"/>
@@ -1880,7 +1875,7 @@
       <c r="AA15" s="45"/>
       <c r="AB15" s="50"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1890,7 +1885,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="60">
+      <c r="I16" s="59">
         <v>1243724</v>
       </c>
       <c r="K16" s="41"/>
@@ -1898,7 +1893,7 @@
       <c r="M16" s="55"/>
       <c r="O16" s="26"/>
       <c r="Q16" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="27"/>
@@ -1916,7 +1911,7 @@
       <c r="AA16" s="45"/>
       <c r="AB16" s="50"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1926,14 +1921,14 @@
       <c r="F17" s="9"/>
       <c r="G17" s="40"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="60">
+      <c r="I17" s="59">
         <v>1120625</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="55"/>
       <c r="O17" s="26"/>
       <c r="Q17" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="27"/>
@@ -1951,9 +1946,9 @@
       <c r="AA17" s="45"/>
       <c r="AB17" s="50"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -1961,7 +1956,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="40"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="60">
+      <c r="I18" s="59">
         <v>1735372</v>
       </c>
       <c r="K18" s="41"/>
@@ -1973,7 +1968,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="52"/>
       <c r="Q18" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="27"/>
@@ -1991,19 +1986,19 @@
       <c r="AA18" s="45"/>
       <c r="AB18" s="50"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I19" s="60">
+        <v>200</v>
+      </c>
+      <c r="I19" s="59">
         <v>4294294</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="55"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>25</v>
@@ -2011,7 +2006,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="40"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="60">
+      <c r="I20" s="59">
         <v>2105773</v>
       </c>
       <c r="K20" s="41"/>
@@ -2033,9 +2028,9 @@
       <c r="AA20" s="45"/>
       <c r="AB20" s="50"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>27</v>
@@ -2043,7 +2038,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="40"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="60">
+      <c r="I21" s="59">
         <v>1821537</v>
       </c>
       <c r="K21" s="41"/>
@@ -2055,7 +2050,7 @@
       <c r="O21" s="26"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="29"/>
@@ -2072,7 +2067,7 @@
       <c r="AA21" s="45"/>
       <c r="AB21" s="50"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2082,13 +2077,13 @@
       <c r="F22" s="9"/>
       <c r="G22" s="40"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="60">
+      <c r="I22" s="59">
         <v>1185545</v>
       </c>
       <c r="L22" s="24"/>
       <c r="M22" s="55"/>
       <c r="Q22" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="27"/>
@@ -2106,19 +2101,21 @@
       <c r="AA22" s="45"/>
       <c r="AB22" s="50"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>208</v>
+        <v>201</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="L23" s="24"/>
-      <c r="M23" s="55"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="M23" s="55">
+        <v>4056479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="8">
         <v>78922</v>
@@ -2126,18 +2123,16 @@
       <c r="F24" s="9"/>
       <c r="G24" s="40"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="60" t="s">
-        <v>207</v>
+      <c r="I24" s="59" t="s">
+        <v>206</v>
       </c>
       <c r="L24" s="24"/>
-      <c r="M24" s="56">
-        <v>2590748</v>
-      </c>
+      <c r="M24" s="56"/>
       <c r="N24" s="14"/>
       <c r="O24" s="26"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="27"/>
@@ -2155,19 +2150,19 @@
       <c r="AA24" s="45"/>
       <c r="AB24" s="50"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="8"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="60" t="s">
-        <v>209</v>
+      <c r="I25" s="59" t="s">
+        <v>208</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="55"/>
       <c r="Q25" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="29"/>
@@ -2180,7 +2175,7 @@
       <c r="AA25" s="45"/>
       <c r="AB25" s="50"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -2190,14 +2185,14 @@
       <c r="F26" s="9"/>
       <c r="G26" s="40"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="60">
+      <c r="I26" s="59">
         <v>1810910</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="16"/>
       <c r="M26" s="55"/>
       <c r="Q26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="27"/>
@@ -2215,9 +2210,9 @@
       <c r="AA26" s="45"/>
       <c r="AB26" s="50"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>10</v>
@@ -2225,13 +2220,13 @@
       <c r="F27" s="9"/>
       <c r="G27" s="40"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="60">
+      <c r="I27" s="59">
         <v>7975374</v>
       </c>
       <c r="K27" s="41"/>
       <c r="L27" s="16"/>
       <c r="M27" s="56">
-        <v>6743058</v>
+        <v>9546982</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="26"/>
@@ -2254,32 +2249,32 @@
       <c r="AA27" s="45"/>
       <c r="AB27" s="50"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>210</v>
+        <v>117</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="55"/>
       <c r="Q28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="8"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="60" t="s">
-        <v>211</v>
+      <c r="I29" s="59" t="s">
+        <v>210</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="55"/>
       <c r="Q29" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
@@ -2296,9 +2291,9 @@
       <c r="AA29" s="45"/>
       <c r="AB29" s="50"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>16</v>
@@ -2306,19 +2301,19 @@
       <c r="F30" s="9"/>
       <c r="G30" s="40"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="60" t="s">
-        <v>212</v>
+      <c r="I30">
+        <v>7779911</v>
       </c>
       <c r="K30" s="41"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="56">
-        <v>1028629</v>
+      <c r="M30" s="79">
+        <v>3332830</v>
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="26"/>
       <c r="P30" s="53"/>
       <c r="Q30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="27"/>
@@ -2336,9 +2331,9 @@
       <c r="AA30" s="45"/>
       <c r="AB30" s="50"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="8">
         <v>77264</v>
@@ -2346,14 +2341,14 @@
       <c r="F31" s="9"/>
       <c r="G31" s="40"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="60">
+      <c r="I31" s="59">
         <v>2260149</v>
       </c>
       <c r="K31" s="41"/>
       <c r="L31" s="16"/>
       <c r="M31" s="55"/>
       <c r="Q31" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="27"/>
@@ -2371,9 +2366,9 @@
       <c r="AA31" s="45"/>
       <c r="AB31" s="50"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>35</v>
@@ -2381,19 +2376,17 @@
       <c r="F32" s="9"/>
       <c r="G32" s="40"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="60">
+      <c r="I32" s="59">
         <v>1723857</v>
       </c>
       <c r="K32" s="41"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="56">
-        <v>4295663</v>
-      </c>
+      <c r="M32" s="56"/>
       <c r="N32" s="14"/>
       <c r="O32" s="26"/>
       <c r="P32" s="52"/>
       <c r="Q32" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S32" s="27"/>
       <c r="T32" s="29"/>
@@ -2409,9 +2402,9 @@
       <c r="AA32" s="45"/>
       <c r="AB32" s="50"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>34</v>
@@ -2419,13 +2412,13 @@
       <c r="F33" s="9"/>
       <c r="G33" s="40"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="60">
+      <c r="I33" s="59">
         <v>7199706</v>
       </c>
       <c r="K33" s="41"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="56">
-        <v>4306155</v>
+      <c r="M33" s="79">
+        <v>3355294</v>
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="26"/>
@@ -2440,20 +2433,20 @@
       <c r="AA33" s="45"/>
       <c r="AB33" s="50"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E34" s="8"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="60">
+      <c r="I34" s="59">
         <v>1008143</v>
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="16"/>
       <c r="M34" s="55"/>
       <c r="Q34" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S34" s="27"/>
       <c r="T34" s="29"/>
@@ -2470,18 +2463,18 @@
       <c r="AA34" s="45"/>
       <c r="AB34" s="50"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="8"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="60">
+      <c r="I35" s="59">
         <v>1985274</v>
       </c>
       <c r="K35" s="41"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="56">
+      <c r="M35" s="79">
         <v>9046103</v>
       </c>
       <c r="N35" s="14"/>
@@ -2497,19 +2490,19 @@
       <c r="AA35" s="45"/>
       <c r="AB35" s="50"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>213</v>
+        <v>160</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>211</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="55"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>54</v>
@@ -2517,7 +2510,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="40"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="60">
+      <c r="I37" s="59">
         <v>2416691</v>
       </c>
       <c r="K37" s="41"/>
@@ -2529,7 +2522,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="52"/>
       <c r="Q37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="27"/>
@@ -2547,9 +2540,9 @@
       <c r="AA37" s="45"/>
       <c r="AB37" s="50"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>55</v>
@@ -2560,7 +2553,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="55"/>
       <c r="Q38" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S38" s="27"/>
       <c r="T38" s="29"/>
@@ -2573,9 +2566,9 @@
       <c r="AA38" s="45"/>
       <c r="AB38" s="50"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E39" s="8">
         <v>93004</v>
@@ -2586,7 +2579,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="55"/>
       <c r="Q39" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S39" s="27"/>
       <c r="T39" s="29"/>
@@ -2599,9 +2592,9 @@
       <c r="AA39" s="45"/>
       <c r="AB39" s="50"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>56</v>
@@ -2609,19 +2602,19 @@
       <c r="F40" s="9"/>
       <c r="G40" s="40"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="60">
+      <c r="I40" s="59">
         <v>8474538</v>
       </c>
       <c r="K40" s="41"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="56">
-        <v>1384692</v>
+      <c r="M40" s="79">
+        <v>4425690</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="26"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="27"/>
@@ -2639,9 +2632,9 @@
       <c r="AA40" s="45"/>
       <c r="AB40" s="50"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>57</v>
@@ -2649,17 +2642,17 @@
       <c r="F41" s="9"/>
       <c r="G41" s="40"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="60">
+      <c r="I41" s="59">
         <v>3629433</v>
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="56">
-        <v>8970711</v>
+      <c r="M41" s="79">
+        <v>2326445</v>
       </c>
       <c r="O41" s="26"/>
       <c r="Q41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S41" s="27"/>
       <c r="T41" s="29"/>
@@ -2673,9 +2666,9 @@
       <c r="AA41" s="45"/>
       <c r="AB41" s="50"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>58</v>
@@ -2698,9 +2691,9 @@
       <c r="AA42" s="45"/>
       <c r="AB42" s="50"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>23</v>
@@ -2708,18 +2701,18 @@
       <c r="F43" s="9"/>
       <c r="G43" s="40"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="60" t="s">
-        <v>214</v>
+      <c r="I43" s="59" t="s">
+        <v>212</v>
       </c>
       <c r="L43" s="24"/>
-      <c r="M43" s="56">
-        <v>1308774</v>
+      <c r="M43" s="79">
+        <v>6579288</v>
       </c>
       <c r="N43" s="14"/>
       <c r="O43" s="26"/>
       <c r="P43" s="52"/>
       <c r="Q43" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R43" s="12"/>
       <c r="S43" s="27"/>
@@ -2737,9 +2730,9 @@
       <c r="AA43" s="45"/>
       <c r="AB43" s="50"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="8">
         <v>75778</v>
@@ -2747,14 +2740,14 @@
       <c r="F44" s="9"/>
       <c r="G44" s="40"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="60">
+      <c r="I44" s="59">
         <v>2005346</v>
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="54"/>
       <c r="M44" s="55"/>
       <c r="Q44" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="27"/>
@@ -2772,9 +2765,9 @@
       <c r="AA44" s="45"/>
       <c r="AB44" s="50"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>44</v>
@@ -2782,18 +2775,18 @@
       <c r="F45" s="9"/>
       <c r="G45" s="40"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="60" t="s">
-        <v>215</v>
+      <c r="I45" s="59" t="s">
+        <v>213</v>
       </c>
       <c r="L45" s="24"/>
-      <c r="M45" s="58">
-        <v>6537666</v>
+      <c r="M45" s="79">
+        <v>6114656</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="26"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="27"/>
@@ -2811,9 +2804,9 @@
       <c r="AA45" s="45"/>
       <c r="AB45" s="50"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>45</v>
@@ -2821,7 +2814,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="40"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="60">
+      <c r="I46" s="59">
         <v>2219111</v>
       </c>
       <c r="K46" s="41"/>
@@ -2837,9 +2830,9 @@
       <c r="AA46" s="45"/>
       <c r="AB46" s="50"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>12</v>
@@ -2847,7 +2840,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="22"/>
-      <c r="I47" s="60">
+      <c r="I47" s="59">
         <v>2004547</v>
       </c>
       <c r="K47" s="41"/>
@@ -2873,7 +2866,7 @@
       <c r="AA47" s="45"/>
       <c r="AB47" s="50"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -2883,14 +2876,14 @@
       <c r="F48" s="9"/>
       <c r="G48" s="40"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="60">
+      <c r="I48" s="59">
         <v>1290469</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="16"/>
       <c r="M48" s="55"/>
       <c r="Q48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R48" s="12"/>
       <c r="S48" s="27"/>
@@ -2908,7 +2901,7 @@
       <c r="AA48" s="45"/>
       <c r="AB48" s="50"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -2918,7 +2911,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="40"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="60">
+      <c r="I49" s="59">
         <v>1008168</v>
       </c>
       <c r="K49" s="41"/>
@@ -2926,7 +2919,7 @@
       <c r="M49" s="55"/>
       <c r="O49" s="26"/>
       <c r="Q49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R49" s="12"/>
       <c r="S49" s="27"/>
@@ -2944,7 +2937,7 @@
       <c r="AA49" s="45"/>
       <c r="AB49" s="50"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -2954,7 +2947,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="40"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="60">
+      <c r="I50" s="59">
         <v>2252039</v>
       </c>
       <c r="K50" s="41"/>
@@ -2964,7 +2957,7 @@
       </c>
       <c r="O50" s="26"/>
       <c r="Q50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="27"/>
@@ -2982,7 +2975,7 @@
       <c r="AA50" s="45"/>
       <c r="AB50" s="50"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
@@ -2992,7 +2985,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="40"/>
       <c r="H51" s="23"/>
-      <c r="I51" s="60">
+      <c r="I51" s="59">
         <v>1079425</v>
       </c>
       <c r="K51" s="41"/>
@@ -3004,7 +2997,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="52"/>
       <c r="Q51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="27"/>
@@ -3022,9 +3015,9 @@
       <c r="AA51" s="45"/>
       <c r="AB51" s="50"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="8">
         <v>75104</v>
@@ -3032,14 +3025,14 @@
       <c r="F52" s="9"/>
       <c r="G52" s="40"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="60">
+      <c r="I52" s="59">
         <v>1164375</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="24"/>
       <c r="M52" s="55"/>
       <c r="Q52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R52" s="12"/>
       <c r="S52" s="27"/>
@@ -3057,9 +3050,9 @@
       <c r="AA52" s="45"/>
       <c r="AB52" s="50"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="8">
         <v>75736</v>
@@ -3067,7 +3060,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="40"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="60">
+      <c r="I53" s="59">
         <v>1354135</v>
       </c>
       <c r="K53" s="41"/>
@@ -3079,7 +3072,7 @@
       <c r="O53" s="26"/>
       <c r="P53" s="52"/>
       <c r="Q53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R53" s="12"/>
       <c r="S53" s="27"/>
@@ -3097,9 +3090,9 @@
       <c r="AA53" s="45"/>
       <c r="AB53" s="50"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" s="8">
         <v>74844</v>
@@ -3107,13 +3100,13 @@
       <c r="F54" s="9"/>
       <c r="G54" s="40"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="60">
+      <c r="I54" s="59">
         <v>9173196</v>
       </c>
       <c r="K54" s="41"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="56">
-        <v>1028530</v>
+      <c r="M54" s="79">
+        <v>2016442</v>
       </c>
       <c r="N54" s="14"/>
       <c r="O54" s="26"/>
@@ -3135,9 +3128,9 @@
       <c r="AA54" s="45"/>
       <c r="AB54" s="50"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55" s="8">
         <v>20340</v>
@@ -3145,7 +3138,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="40"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="60">
+      <c r="I55" s="59">
         <v>1182211</v>
       </c>
       <c r="K55" s="41"/>
@@ -3153,7 +3146,7 @@
       <c r="M55" s="55"/>
       <c r="O55" s="26"/>
       <c r="Q55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S55" s="27"/>
       <c r="T55" s="29"/>
@@ -3166,9 +3159,9 @@
       <c r="AA55" s="45"/>
       <c r="AB55" s="50"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="8">
         <v>20478</v>
@@ -3176,19 +3169,19 @@
       <c r="F56" s="9"/>
       <c r="G56" s="40"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="60">
+      <c r="I56" s="59">
         <v>4868220</v>
       </c>
       <c r="K56" s="41"/>
       <c r="L56" s="16"/>
-      <c r="M56" s="56">
-        <v>8252660</v>
+      <c r="M56" s="79">
+        <v>6419329</v>
       </c>
       <c r="N56" s="14"/>
       <c r="O56" s="26"/>
       <c r="P56" s="52"/>
       <c r="Q56" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R56" s="12"/>
       <c r="S56" s="27"/>
@@ -3206,9 +3199,9 @@
       <c r="AA56" s="45"/>
       <c r="AB56" s="50"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" s="8">
         <v>34298</v>
@@ -3216,7 +3209,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="40"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="60">
+      <c r="I57" s="59">
         <v>3758778</v>
       </c>
       <c r="K57" s="41"/>
@@ -3224,7 +3217,7 @@
       <c r="M57" s="55"/>
       <c r="O57" s="26"/>
       <c r="Q57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R57" s="12"/>
       <c r="S57" s="27"/>
@@ -3242,9 +3235,9 @@
       <c r="AA57" s="45"/>
       <c r="AB57" s="50"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>38</v>
@@ -3252,7 +3245,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="40"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="60">
+      <c r="I58" s="59">
         <v>6056907</v>
       </c>
       <c r="K58" s="41"/>
@@ -3262,7 +3255,7 @@
       <c r="O58" s="26"/>
       <c r="P58" s="52"/>
       <c r="Q58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="27"/>
@@ -3280,9 +3273,9 @@
       <c r="AA58" s="45"/>
       <c r="AB58" s="50"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>43</v>
@@ -3290,19 +3283,19 @@
       <c r="F59" s="9"/>
       <c r="G59" s="40"/>
       <c r="H59" s="23"/>
-      <c r="I59" s="60">
+      <c r="I59" s="59">
         <v>7350788</v>
       </c>
       <c r="K59" s="41"/>
       <c r="L59" s="16"/>
-      <c r="M59" s="56">
-        <v>8187270</v>
+      <c r="M59" s="79">
+        <v>1326438</v>
       </c>
       <c r="N59" s="14"/>
       <c r="O59" s="26"/>
       <c r="P59" s="52"/>
       <c r="Q59" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S59" s="27"/>
       <c r="T59" s="29"/>
@@ -3319,9 +3312,9 @@
       <c r="AA59" s="45"/>
       <c r="AB59" s="50"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>39</v>
@@ -3329,7 +3322,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="40"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="60">
+      <c r="I60" s="59">
         <v>8313967</v>
       </c>
       <c r="K60" s="41"/>
@@ -3339,7 +3332,7 @@
       <c r="O60" s="26"/>
       <c r="P60" s="52"/>
       <c r="Q60" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R60" s="12"/>
       <c r="S60" s="27"/>
@@ -3357,9 +3350,9 @@
       <c r="AA60" s="45"/>
       <c r="AB60" s="50"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>40</v>
@@ -3384,22 +3377,22 @@
       <c r="AA61" s="45"/>
       <c r="AB61" s="50"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="60" t="s">
-        <v>216</v>
+        <v>115</v>
+      </c>
+      <c r="I62" s="59" t="s">
+        <v>214</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="55"/>
       <c r="Q62" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>41</v>
@@ -3407,19 +3400,19 @@
       <c r="F63" s="9"/>
       <c r="G63" s="40"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="60">
+      <c r="I63" s="59">
         <v>1094721</v>
       </c>
       <c r="K63" s="41"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="56">
-        <v>6136985</v>
+      <c r="M63" s="79">
+        <v>8326696</v>
       </c>
       <c r="N63" s="14"/>
       <c r="O63" s="26"/>
       <c r="P63" s="52"/>
       <c r="Q63" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R63" s="12"/>
       <c r="S63" s="27"/>
@@ -3437,9 +3430,9 @@
       <c r="AA63" s="45"/>
       <c r="AB63" s="50"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>42</v>
@@ -3447,7 +3440,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="40"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="60">
+      <c r="I64" s="59">
         <v>6846554</v>
       </c>
       <c r="K64" s="41"/>
@@ -3464,32 +3457,32 @@
       <c r="AA64" s="45"/>
       <c r="AB64" s="50"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I65" s="60" t="s">
-        <v>217</v>
+        <v>202</v>
+      </c>
+      <c r="I65" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="55"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="55"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H67" s="22"/>
       <c r="L67" s="24"/>
       <c r="M67" s="55"/>
       <c r="Q67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S67" s="27"/>
       <c r="T67" s="29"/>
@@ -3497,14 +3490,14 @@
       <c r="W67" s="32"/>
       <c r="X67" s="31"/>
       <c r="Y67" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA67" s="45"/>
       <c r="AB67" s="46"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E68" s="8">
         <v>78424</v>
@@ -3512,7 +3505,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="40"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="60">
+      <c r="I68" s="59">
         <v>1008382</v>
       </c>
       <c r="K68" s="41"/>
@@ -3521,7 +3514,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="26"/>
       <c r="Q68" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R68" s="12"/>
       <c r="S68" s="27"/>
@@ -3539,9 +3532,9 @@
       <c r="AA68" s="45"/>
       <c r="AB68" s="50"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E69" s="8">
         <v>75310</v>
@@ -3549,14 +3542,14 @@
       <c r="F69" s="9"/>
       <c r="G69" s="40"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="60">
+      <c r="I69" s="59">
         <v>4249389</v>
       </c>
       <c r="K69" s="41"/>
       <c r="L69" s="16"/>
       <c r="M69" s="55"/>
       <c r="Q69" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R69" s="12"/>
       <c r="S69" s="27"/>
@@ -3574,9 +3567,9 @@
       <c r="AA69" s="45"/>
       <c r="AB69" s="50"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3593,7 +3586,7 @@
       <c r="O70" s="26"/>
       <c r="P70" s="52"/>
       <c r="Q70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R70" s="12"/>
       <c r="S70" s="27"/>
@@ -3611,9 +3604,9 @@
       <c r="AA70" s="45"/>
       <c r="AB70" s="50"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" s="8">
         <v>70646</v>
@@ -3621,7 +3614,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="40"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="60">
+      <c r="I71" s="59">
         <v>1420330</v>
       </c>
       <c r="K71" s="41"/>
@@ -3633,7 +3626,7 @@
       <c r="O71" s="26"/>
       <c r="P71" s="52"/>
       <c r="Q71" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R71" s="12"/>
       <c r="S71" s="27"/>
@@ -3651,9 +3644,9 @@
       <c r="AA71" s="45"/>
       <c r="AB71" s="50"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>48</v>
@@ -3661,7 +3654,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="40"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="60">
+      <c r="I72" s="59">
         <v>9927799</v>
       </c>
       <c r="K72" s="41"/>
@@ -3673,7 +3666,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="52"/>
       <c r="Q72" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="27"/>
@@ -3691,9 +3684,9 @@
       <c r="AA72" s="45"/>
       <c r="AB72" s="50"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E73" s="8">
         <v>75336</v>
@@ -3701,7 +3694,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="22"/>
-      <c r="I73" s="60">
+      <c r="I73" s="59">
         <v>1745161</v>
       </c>
       <c r="K73" s="41"/>
@@ -3713,7 +3706,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="52"/>
       <c r="Q73" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S73" s="27"/>
       <c r="T73" s="29"/>
@@ -3730,9 +3723,9 @@
       <c r="AA73" s="45"/>
       <c r="AB73" s="50"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>47</v>
@@ -3740,7 +3733,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="40"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="60">
+      <c r="I74" s="59">
         <v>4615704</v>
       </c>
       <c r="K74" s="41"/>
@@ -3757,9 +3750,9 @@
       <c r="AA74" s="45"/>
       <c r="AB74" s="50"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3779,7 +3772,7 @@
       <c r="Z75" s="44"/>
       <c r="AB75" s="50"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>49</v>
       </c>
@@ -3789,7 +3782,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="40"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="60">
+      <c r="I76" s="59">
         <v>7413057</v>
       </c>
       <c r="K76" s="41"/>
@@ -3801,7 +3794,7 @@
       <c r="O76" s="26"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R76" s="12"/>
       <c r="S76" s="27"/>
@@ -3816,9 +3809,9 @@
       <c r="AA76" s="45"/>
       <c r="AB76" s="50"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" s="8">
         <v>77278</v>
@@ -3829,7 +3822,7 @@
       <c r="L77" s="24"/>
       <c r="M77" s="55"/>
       <c r="Q77" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R77" s="12"/>
       <c r="S77" s="27"/>
@@ -3844,9 +3837,9 @@
       <c r="AA77" s="45"/>
       <c r="AB77" s="50"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>50</v>
@@ -3864,9 +3857,9 @@
       <c r="AA78" s="45"/>
       <c r="AB78" s="50"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>51</v>
@@ -3874,14 +3867,14 @@
       <c r="F79" s="9"/>
       <c r="G79" s="40"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="60">
+      <c r="I79" s="59">
         <v>1313154</v>
       </c>
       <c r="K79" s="41"/>
       <c r="L79" s="16"/>
       <c r="O79" s="26"/>
       <c r="Q79" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R79" s="12"/>
       <c r="S79" s="27"/>
@@ -3899,9 +3892,9 @@
       <c r="AA79" s="45"/>
       <c r="AB79" s="50"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E80" s="8">
         <v>34768</v>
@@ -3909,7 +3902,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="60">
+      <c r="I80" s="59">
         <v>8481756</v>
       </c>
       <c r="K80" s="41"/>
@@ -3921,7 +3914,7 @@
       <c r="O80" s="26"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R80" s="12"/>
       <c r="S80" s="27"/>
@@ -3939,9 +3932,9 @@
       <c r="AA80" s="45"/>
       <c r="AB80" s="50"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>52</v>
@@ -3949,7 +3942,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="40"/>
       <c r="H81" s="23"/>
-      <c r="I81" s="60">
+      <c r="I81" s="59">
         <v>1008465</v>
       </c>
       <c r="K81" s="41"/>
@@ -3957,7 +3950,7 @@
       <c r="M81" s="55"/>
       <c r="O81" s="26"/>
       <c r="Q81" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S81" s="27"/>
       <c r="T81" s="29"/>
@@ -3970,14 +3963,14 @@
       <c r="AA81" s="45"/>
       <c r="AB81" s="50"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="55"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>53</v>
       </c>
@@ -3986,14 +3979,14 @@
       </c>
       <c r="F83" s="9"/>
       <c r="H83" s="22"/>
-      <c r="I83" s="60">
+      <c r="I83" s="59">
         <v>6894232</v>
       </c>
       <c r="K83" s="41"/>
       <c r="L83" s="16"/>
       <c r="M83" s="55"/>
       <c r="Q83" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R83" s="12"/>
       <c r="S83" s="27"/>
@@ -4008,33 +4001,33 @@
       <c r="AA83" s="45"/>
       <c r="AB83" s="50"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L84" s="24"/>
       <c r="M84" s="55"/>
       <c r="Y84" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H85" s="22"/>
       <c r="L85" s="24"/>
       <c r="M85" s="55"/>
       <c r="Q85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y85" s="43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E86" s="8">
         <v>78126</v>
@@ -4042,7 +4035,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="40"/>
       <c r="H86" s="23"/>
-      <c r="I86" s="60">
+      <c r="I86" s="59">
         <v>2036598</v>
       </c>
       <c r="K86" s="41"/>
@@ -4054,7 +4047,7 @@
       <c r="O86" s="26"/>
       <c r="P86" s="52"/>
       <c r="Q86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R86" s="12"/>
       <c r="S86" s="27"/>
@@ -4072,9 +4065,9 @@
       <c r="AA86" s="45"/>
       <c r="AB86" s="50"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E87" s="8">
         <v>39142</v>
@@ -4082,7 +4075,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="40"/>
       <c r="H87" s="23"/>
-      <c r="I87" s="60">
+      <c r="I87" s="59">
         <v>6235501</v>
       </c>
       <c r="K87" s="41"/>
@@ -4093,7 +4086,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="26"/>
       <c r="Q87" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R87" s="12"/>
       <c r="S87" s="27"/>
@@ -4111,9 +4104,9 @@
       <c r="AA87" s="45"/>
       <c r="AB87" s="50"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>59</v>
@@ -4121,7 +4114,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="40"/>
       <c r="H88" s="23"/>
-      <c r="I88" s="60">
+      <c r="I88" s="59">
         <v>1763432</v>
       </c>
       <c r="K88" s="41"/>
@@ -4133,7 +4126,7 @@
       <c r="O88" s="26"/>
       <c r="P88" s="52"/>
       <c r="Q88" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R88" s="12"/>
       <c r="S88" s="27"/>
@@ -4151,9 +4144,9 @@
       <c r="AA88" s="45"/>
       <c r="AB88" s="50"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E89" s="8">
         <v>76800</v>
@@ -4161,7 +4154,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="40"/>
       <c r="H89" s="23"/>
-      <c r="I89" s="60">
+      <c r="I89" s="59">
         <v>6017263</v>
       </c>
       <c r="K89" s="41"/>
@@ -4173,7 +4166,7 @@
       <c r="O89" s="26"/>
       <c r="P89" s="52"/>
       <c r="Q89" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R89" s="12"/>
       <c r="S89" s="27"/>
@@ -4191,54 +4184,54 @@
       <c r="AA89" s="45"/>
       <c r="AB89" s="50"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="55"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L91" s="24"/>
       <c r="M91" s="55"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L92" s="24"/>
       <c r="M92" s="55"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L93" s="24"/>
       <c r="M93" s="55"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L94" s="24"/>
       <c r="M94" s="55"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L95" s="24"/>
       <c r="M95" s="55"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L96" s="24"/>
       <c r="M96" s="55"/>
     </row>
-    <row r="97" spans="12:13">
+    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L97" s="24"/>
       <c r="M97" s="55"/>
     </row>
-    <row r="98" spans="12:13">
+    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L98" s="24"/>
       <c r="M98" s="55"/>
     </row>
-    <row r="99" spans="12:13">
+    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L99" s="24"/>
       <c r="M99" s="55"/>
     </row>
-    <row r="100" spans="12:13">
+    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L100" s="24"/>
       <c r="M100" s="55"/>
     </row>
-    <row r="101" spans="12:13">
+    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L101" s="24"/>
       <c r="M101" s="55"/>
     </row>

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFFB05E-A91A-44D6-9BA2-43632150625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8EC93-8444-4917-A7D7-C19535BFD4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,6 @@
     <t>Green Leaf Crowns 10# - USA</t>
   </si>
   <si>
-    <t>5 lb. Portabello Cap Mush-USA</t>
-  </si>
-  <si>
     <t>25 lb.  Red  Onions - USA</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   </si>
   <si>
     <t>Brussel Sprout 25# -USA</t>
+  </si>
+  <si>
+    <t>5 lb. Portabello Mush-USA</t>
   </si>
 </sst>
 </file>
@@ -865,7 +865,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1000,6 +1000,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1049,7 +1050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1370,10 +1371,10 @@
   <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
+      <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,58 +1409,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="42"/>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="67" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="67" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="76"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="67" t="s">
+      <c r="R1" s="77"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="62"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="63"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="42"/>
-      <c r="D2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1556,7 +1557,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="8"/>
       <c r="H4" s="22"/>
@@ -1612,7 +1613,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" s="59">
         <v>4418752</v>
@@ -1658,7 +1659,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="59">
         <v>7567159</v>
@@ -1666,15 +1667,15 @@
       <c r="L8" s="24"/>
       <c r="M8" s="55"/>
       <c r="Q8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y8" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>13</v>
@@ -1687,7 +1688,7 @@
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="79">
+      <c r="M9" s="60">
         <v>8355281</v>
       </c>
       <c r="N9" s="14"/>
@@ -1713,7 +1714,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -1726,14 +1727,14 @@
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="79">
+      <c r="M10" s="60">
         <v>2326429</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="26"/>
       <c r="P10" s="52"/>
       <c r="Q10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="27"/>
@@ -1769,7 +1770,7 @@
       <c r="M11" s="55"/>
       <c r="O11" s="26"/>
       <c r="Q11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="27"/>
@@ -1789,14 +1790,14 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="55"/>
@@ -1948,7 +1949,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -1988,7 +1989,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I19" s="59">
         <v>4294294</v>
@@ -1998,7 +1999,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>25</v>
@@ -2030,7 +2031,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>27</v>
@@ -2103,10 +2104,10 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L23" s="24"/>
       <c r="M23" s="55">
@@ -2115,7 +2116,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="8">
         <v>78922</v>
@@ -2124,7 +2125,7 @@
       <c r="G24" s="40"/>
       <c r="H24" s="23"/>
       <c r="I24" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="56"/>
@@ -2157,7 +2158,7 @@
       <c r="E25" s="8"/>
       <c r="H25" s="22"/>
       <c r="I25" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="55"/>
@@ -2192,7 +2193,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="55"/>
       <c r="Q26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="27"/>
@@ -2212,7 +2213,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>10</v>
@@ -2251,25 +2252,25 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="55"/>
       <c r="Q28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="8"/>
       <c r="H29" s="22"/>
       <c r="I29" s="59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="55"/>
@@ -2293,7 +2294,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>16</v>
@@ -2306,14 +2307,14 @@
       </c>
       <c r="K30" s="41"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="79">
+      <c r="M30" s="60">
         <v>3332830</v>
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="26"/>
       <c r="P30" s="53"/>
       <c r="Q30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="27"/>
@@ -2333,7 +2334,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="8">
         <v>77264</v>
@@ -2368,7 +2369,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>35</v>
@@ -2404,7 +2405,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>34</v>
@@ -2417,7 +2418,7 @@
       </c>
       <c r="K33" s="41"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="79">
+      <c r="M33" s="60">
         <v>3355294</v>
       </c>
       <c r="N33" s="14"/>
@@ -2435,7 +2436,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E34" s="8"/>
       <c r="H34" s="22"/>
@@ -2465,7 +2466,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" s="8"/>
       <c r="H35" s="22"/>
@@ -2474,7 +2475,7 @@
       </c>
       <c r="K35" s="41"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="79">
+      <c r="M35" s="60">
         <v>9046103</v>
       </c>
       <c r="N35" s="14"/>
@@ -2492,17 +2493,17 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="55"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>54</v>
@@ -2522,7 +2523,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="52"/>
       <c r="Q37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="27"/>
@@ -2542,7 +2543,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>55</v>
@@ -2553,7 +2554,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="55"/>
       <c r="Q38" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S38" s="27"/>
       <c r="T38" s="29"/>
@@ -2568,7 +2569,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="8">
         <v>93004</v>
@@ -2579,7 +2580,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="55"/>
       <c r="Q39" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S39" s="27"/>
       <c r="T39" s="29"/>
@@ -2594,7 +2595,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>56</v>
@@ -2607,14 +2608,14 @@
       </c>
       <c r="K40" s="41"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="79">
+      <c r="M40" s="60">
         <v>4425690</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="26"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="27"/>
@@ -2634,7 +2635,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>57</v>
@@ -2647,12 +2648,12 @@
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="79">
+      <c r="M41" s="60">
         <v>2326445</v>
       </c>
       <c r="O41" s="26"/>
       <c r="Q41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S41" s="27"/>
       <c r="T41" s="29"/>
@@ -2668,7 +2669,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>58</v>
@@ -2693,7 +2694,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>23</v>
@@ -2702,10 +2703,10 @@
       <c r="G43" s="40"/>
       <c r="H43" s="23"/>
       <c r="I43" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L43" s="24"/>
-      <c r="M43" s="79">
+      <c r="M43" s="60">
         <v>6579288</v>
       </c>
       <c r="N43" s="14"/>
@@ -2732,7 +2733,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="8">
         <v>75778</v>
@@ -2747,7 +2748,7 @@
       <c r="L44" s="54"/>
       <c r="M44" s="55"/>
       <c r="Q44" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="27"/>
@@ -2767,7 +2768,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>44</v>
@@ -2776,17 +2777,17 @@
       <c r="G45" s="40"/>
       <c r="H45" s="23"/>
       <c r="I45" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L45" s="24"/>
-      <c r="M45" s="79">
+      <c r="M45" s="60">
         <v>6114656</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="26"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="27"/>
@@ -2806,7 +2807,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>45</v>
@@ -2832,7 +2833,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>12</v>
@@ -2883,7 +2884,7 @@
       <c r="L48" s="16"/>
       <c r="M48" s="55"/>
       <c r="Q48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R48" s="12"/>
       <c r="S48" s="27"/>
@@ -2919,7 +2920,7 @@
       <c r="M49" s="55"/>
       <c r="O49" s="26"/>
       <c r="Q49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R49" s="12"/>
       <c r="S49" s="27"/>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="O50" s="26"/>
       <c r="Q50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="27"/>
@@ -2997,7 +2998,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="52"/>
       <c r="Q51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="27"/>
@@ -3017,7 +3018,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E52" s="8">
         <v>75104</v>
@@ -3032,7 +3033,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="55"/>
       <c r="Q52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R52" s="12"/>
       <c r="S52" s="27"/>
@@ -3052,7 +3053,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="8">
         <v>75736</v>
@@ -3092,7 +3093,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="8">
         <v>74844</v>
@@ -3105,7 +3106,7 @@
       </c>
       <c r="K54" s="41"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="79">
+      <c r="M54" s="60">
         <v>2016442</v>
       </c>
       <c r="N54" s="14"/>
@@ -3130,7 +3131,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E55" s="8">
         <v>20340</v>
@@ -3146,7 +3147,7 @@
       <c r="M55" s="55"/>
       <c r="O55" s="26"/>
       <c r="Q55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S55" s="27"/>
       <c r="T55" s="29"/>
@@ -3161,7 +3162,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="8">
         <v>20478</v>
@@ -3174,14 +3175,14 @@
       </c>
       <c r="K56" s="41"/>
       <c r="L56" s="16"/>
-      <c r="M56" s="79">
+      <c r="M56" s="60">
         <v>6419329</v>
       </c>
       <c r="N56" s="14"/>
       <c r="O56" s="26"/>
       <c r="P56" s="52"/>
-      <c r="Q56" s="51" t="s">
-        <v>88</v>
+      <c r="Q56" s="80" t="s">
+        <v>216</v>
       </c>
       <c r="R56" s="12"/>
       <c r="S56" s="27"/>
@@ -3201,7 +3202,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="8">
         <v>34298</v>
@@ -3217,7 +3218,7 @@
       <c r="M57" s="55"/>
       <c r="O57" s="26"/>
       <c r="Q57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R57" s="12"/>
       <c r="S57" s="27"/>
@@ -3237,7 +3238,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>38</v>
@@ -3255,7 +3256,7 @@
       <c r="O58" s="26"/>
       <c r="P58" s="52"/>
       <c r="Q58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="27"/>
@@ -3275,7 +3276,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>43</v>
@@ -3288,14 +3289,14 @@
       </c>
       <c r="K59" s="41"/>
       <c r="L59" s="16"/>
-      <c r="M59" s="79">
+      <c r="M59" s="60">
         <v>1326438</v>
       </c>
       <c r="N59" s="14"/>
       <c r="O59" s="26"/>
       <c r="P59" s="52"/>
       <c r="Q59" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S59" s="27"/>
       <c r="T59" s="29"/>
@@ -3314,7 +3315,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>39</v>
@@ -3332,7 +3333,7 @@
       <c r="O60" s="26"/>
       <c r="P60" s="52"/>
       <c r="Q60" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R60" s="12"/>
       <c r="S60" s="27"/>
@@ -3352,7 +3353,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>40</v>
@@ -3379,20 +3380,20 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I62" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="55"/>
       <c r="Q62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>41</v>
@@ -3405,14 +3406,14 @@
       </c>
       <c r="K63" s="41"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="79">
+      <c r="M63" s="60">
         <v>8326696</v>
       </c>
       <c r="N63" s="14"/>
       <c r="O63" s="26"/>
       <c r="P63" s="52"/>
       <c r="Q63" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R63" s="12"/>
       <c r="S63" s="27"/>
@@ -3432,7 +3433,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>42</v>
@@ -3459,30 +3460,30 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I65" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="55"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="55"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H67" s="22"/>
       <c r="L67" s="24"/>
       <c r="M67" s="55"/>
       <c r="Q67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S67" s="27"/>
       <c r="T67" s="29"/>
@@ -3490,14 +3491,14 @@
       <c r="W67" s="32"/>
       <c r="X67" s="31"/>
       <c r="Y67" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA67" s="45"/>
       <c r="AB67" s="46"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E68" s="8">
         <v>78424</v>
@@ -3514,7 +3515,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="26"/>
       <c r="Q68" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R68" s="12"/>
       <c r="S68" s="27"/>
@@ -3534,7 +3535,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E69" s="8">
         <v>75310</v>
@@ -3549,7 +3550,7 @@
       <c r="L69" s="16"/>
       <c r="M69" s="55"/>
       <c r="Q69" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R69" s="12"/>
       <c r="S69" s="27"/>
@@ -3569,7 +3570,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3586,7 +3587,7 @@
       <c r="O70" s="26"/>
       <c r="P70" s="52"/>
       <c r="Q70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R70" s="12"/>
       <c r="S70" s="27"/>
@@ -3606,7 +3607,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" s="8">
         <v>70646</v>
@@ -3626,7 +3627,7 @@
       <c r="O71" s="26"/>
       <c r="P71" s="52"/>
       <c r="Q71" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R71" s="12"/>
       <c r="S71" s="27"/>
@@ -3646,7 +3647,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>48</v>
@@ -3666,7 +3667,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="52"/>
       <c r="Q72" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="27"/>
@@ -3686,7 +3687,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E73" s="8">
         <v>75336</v>
@@ -3706,7 +3707,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="52"/>
       <c r="Q73" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S73" s="27"/>
       <c r="T73" s="29"/>
@@ -3725,7 +3726,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>47</v>
@@ -3752,7 +3753,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3794,7 +3795,7 @@
       <c r="O76" s="26"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R76" s="12"/>
       <c r="S76" s="27"/>
@@ -3811,7 +3812,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E77" s="8">
         <v>77278</v>
@@ -3822,7 +3823,7 @@
       <c r="L77" s="24"/>
       <c r="M77" s="55"/>
       <c r="Q77" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R77" s="12"/>
       <c r="S77" s="27"/>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>50</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>51</v>
@@ -3874,7 +3875,7 @@
       <c r="L79" s="16"/>
       <c r="O79" s="26"/>
       <c r="Q79" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R79" s="12"/>
       <c r="S79" s="27"/>
@@ -3894,7 +3895,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E80" s="8">
         <v>34768</v>
@@ -3914,7 +3915,7 @@
       <c r="O80" s="26"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R80" s="12"/>
       <c r="S80" s="27"/>
@@ -3934,7 +3935,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>52</v>
@@ -3950,7 +3951,7 @@
       <c r="M81" s="55"/>
       <c r="O81" s="26"/>
       <c r="Q81" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S81" s="27"/>
       <c r="T81" s="29"/>
@@ -3965,7 +3966,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="55"/>
@@ -3986,7 +3987,7 @@
       <c r="L83" s="16"/>
       <c r="M83" s="55"/>
       <c r="Q83" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R83" s="12"/>
       <c r="S83" s="27"/>
@@ -4003,31 +4004,31 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L84" s="24"/>
       <c r="M84" s="55"/>
       <c r="Y84" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H85" s="22"/>
       <c r="L85" s="24"/>
       <c r="M85" s="55"/>
       <c r="Q85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y85" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E86" s="8">
         <v>78126</v>
@@ -4047,7 +4048,7 @@
       <c r="O86" s="26"/>
       <c r="P86" s="52"/>
       <c r="Q86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R86" s="12"/>
       <c r="S86" s="27"/>
@@ -4067,7 +4068,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E87" s="8">
         <v>39142</v>
@@ -4086,7 +4087,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="26"/>
       <c r="Q87" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R87" s="12"/>
       <c r="S87" s="27"/>
@@ -4106,7 +4107,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>59</v>
@@ -4126,7 +4127,7 @@
       <c r="O88" s="26"/>
       <c r="P88" s="52"/>
       <c r="Q88" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R88" s="12"/>
       <c r="S88" s="27"/>
@@ -4146,7 +4147,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E89" s="8">
         <v>76800</v>
@@ -4166,7 +4167,7 @@
       <c r="O89" s="26"/>
       <c r="P89" s="52"/>
       <c r="Q89" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R89" s="12"/>
       <c r="S89" s="27"/>
@@ -4186,7 +4187,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="55"/>

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8EC93-8444-4917-A7D7-C19535BFD4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9353F-AA53-49DB-8057-D5EBE10C5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
   <si>
     <t>Item</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <t>5 lb. Portabello Mush-USA</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Only Watermelon - USA</t>
   </si>
 </sst>
 </file>
@@ -865,7 +871,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1001,6 +1007,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1050,7 +1063,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1371,10 +1383,10 @@
   <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,58 +1421,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="82" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="42"/>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="68" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="68" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="68" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="68" t="s">
+      <c r="R1" s="80"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="61" t="s">
+      <c r="V1" s="76"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="63"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="66"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="42"/>
-      <c r="D2" s="67"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
@@ -2906,9 +2918,7 @@
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="8">
-        <v>78414</v>
-      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="9"/>
       <c r="G49" s="40"/>
       <c r="H49" s="23"/>
@@ -3018,74 +3028,44 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="8">
-        <v>75104</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="59">
-        <v>1164375</v>
-      </c>
-      <c r="K52" s="41"/>
+        <v>217</v>
+      </c>
+      <c r="I52" s="57">
+        <v>2030393</v>
+      </c>
       <c r="L52" s="24"/>
       <c r="M52" s="55"/>
-      <c r="Q52" t="s">
-        <v>178</v>
-      </c>
-      <c r="R52" s="12"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="34">
-        <v>4176</v>
-      </c>
-      <c r="V52" s="38"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="43">
-        <v>1375</v>
-      </c>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="50"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E53" s="8">
-        <v>75736</v>
+        <v>75104</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="40"/>
       <c r="H53" s="23"/>
       <c r="I53" s="59">
-        <v>1354135</v>
+        <v>1164375</v>
       </c>
       <c r="K53" s="41"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="56">
-        <v>1457100</v>
-      </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="52"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="55"/>
       <c r="Q53" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="R53" s="12"/>
       <c r="S53" s="27"/>
       <c r="T53" s="29"/>
       <c r="U53" s="34">
-        <v>4184</v>
+        <v>4176</v>
       </c>
       <c r="V53" s="38"/>
       <c r="W53" s="32"/>
       <c r="X53" s="31"/>
       <c r="Y53" s="43">
-        <v>1425</v>
+        <v>1375</v>
       </c>
       <c r="Z53" s="44"/>
       <c r="AA53" s="45"/>
@@ -3093,37 +3073,39 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E54" s="8">
-        <v>74844</v>
+        <v>75736</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="40"/>
       <c r="H54" s="23"/>
       <c r="I54" s="59">
-        <v>9173196</v>
+        <v>1354135</v>
       </c>
       <c r="K54" s="41"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="60">
-        <v>2016442</v>
+      <c r="L54" s="16"/>
+      <c r="M54" s="63">
+        <v>1457100</v>
       </c>
       <c r="N54" s="14"/>
       <c r="O54" s="26"/>
       <c r="P54" s="52"/>
-      <c r="Q54" s="51"/>
+      <c r="Q54" t="s">
+        <v>85</v>
+      </c>
       <c r="R54" s="12"/>
       <c r="S54" s="27"/>
       <c r="T54" s="29"/>
       <c r="U54" s="34">
-        <v>4219</v>
+        <v>4184</v>
       </c>
       <c r="V54" s="38"/>
       <c r="W54" s="32"/>
       <c r="X54" s="31"/>
       <c r="Y54" s="43">
-        <v>1455</v>
+        <v>1425</v>
       </c>
       <c r="Z54" s="44"/>
       <c r="AA54" s="45"/>
@@ -3131,106 +3113,109 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E55" s="8">
-        <v>20340</v>
+        <v>74844</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="40"/>
       <c r="H55" s="23"/>
       <c r="I55" s="59">
-        <v>1182211</v>
+        <v>9173196</v>
       </c>
       <c r="K55" s="41"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="55"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="62">
+        <v>2016442</v>
+      </c>
+      <c r="N55" s="14"/>
       <c r="O55" s="26"/>
-      <c r="Q55" t="s">
-        <v>194</v>
-      </c>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="R55" s="12"/>
       <c r="S55" s="27"/>
       <c r="T55" s="29"/>
-      <c r="V55" s="37"/>
+      <c r="U55" s="34">
+        <v>4219</v>
+      </c>
+      <c r="V55" s="38"/>
       <c r="W55" s="32"/>
       <c r="X55" s="31"/>
       <c r="Y55" s="43">
-        <v>390</v>
-      </c>
+        <v>1455</v>
+      </c>
+      <c r="Z55" s="44"/>
       <c r="AA55" s="45"/>
       <c r="AB55" s="50"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="E56" s="8">
-        <v>20478</v>
+        <v>20340</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="40"/>
       <c r="H56" s="23"/>
       <c r="I56" s="59">
-        <v>4868220</v>
+        <v>1182211</v>
       </c>
       <c r="K56" s="41"/>
       <c r="L56" s="16"/>
-      <c r="M56" s="60">
-        <v>6419329</v>
-      </c>
-      <c r="N56" s="14"/>
       <c r="O56" s="26"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="R56" s="12"/>
+      <c r="Q56" t="s">
+        <v>194</v>
+      </c>
       <c r="S56" s="27"/>
       <c r="T56" s="29"/>
-      <c r="U56" s="34">
-        <v>8125</v>
-      </c>
-      <c r="V56" s="38"/>
+      <c r="V56" s="37"/>
       <c r="W56" s="32"/>
       <c r="X56" s="31"/>
       <c r="Y56" s="43">
-        <v>404</v>
-      </c>
-      <c r="Z56" s="44"/>
+        <v>390</v>
+      </c>
       <c r="AA56" s="45"/>
       <c r="AB56" s="50"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" s="8">
-        <v>34298</v>
+        <v>20478</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="40"/>
       <c r="H57" s="23"/>
       <c r="I57" s="59">
-        <v>3758778</v>
+        <v>4868220</v>
       </c>
       <c r="K57" s="41"/>
       <c r="L57" s="16"/>
-      <c r="M57" s="55"/>
+      <c r="M57" s="62">
+        <v>6419329</v>
+      </c>
+      <c r="N57" s="14"/>
       <c r="O57" s="26"/>
+      <c r="P57" s="52"/>
       <c r="Q57" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="R57" s="12"/>
       <c r="S57" s="27"/>
       <c r="T57" s="29"/>
       <c r="U57" s="34">
-        <v>8168</v>
+        <v>8125</v>
       </c>
       <c r="V57" s="38"/>
       <c r="W57" s="32"/>
       <c r="X57" s="31"/>
       <c r="Y57" s="43">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z57" s="44"/>
       <c r="AA57" s="45"/>
@@ -3238,37 +3223,35 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>38</v>
+        <v>131</v>
+      </c>
+      <c r="E58" s="8">
+        <v>34298</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="40"/>
       <c r="H58" s="23"/>
       <c r="I58" s="59">
-        <v>6056907</v>
+        <v>3758778</v>
       </c>
       <c r="K58" s="41"/>
       <c r="L58" s="16"/>
       <c r="M58" s="55"/>
-      <c r="N58" s="14"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="52"/>
       <c r="Q58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="27"/>
       <c r="T58" s="29"/>
       <c r="U58" s="34">
-        <v>8243</v>
+        <v>8168</v>
       </c>
       <c r="V58" s="38"/>
       <c r="W58" s="32"/>
       <c r="X58" s="31"/>
       <c r="Y58" s="43">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="Z58" s="44"/>
       <c r="AA58" s="45"/>
@@ -3276,38 +3259,36 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="40"/>
       <c r="H59" s="23"/>
       <c r="I59" s="59">
-        <v>7350788</v>
+        <v>6056907</v>
       </c>
       <c r="K59" s="41"/>
       <c r="L59" s="16"/>
-      <c r="M59" s="60">
-        <v>1326438</v>
-      </c>
       <c r="N59" s="14"/>
       <c r="O59" s="26"/>
       <c r="P59" s="52"/>
-      <c r="Q59" s="51" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q59" t="s">
+        <v>180</v>
+      </c>
+      <c r="R59" s="12"/>
       <c r="S59" s="27"/>
       <c r="T59" s="29"/>
       <c r="U59" s="34">
-        <v>8169</v>
+        <v>8243</v>
       </c>
       <c r="V59" s="38"/>
       <c r="W59" s="32"/>
       <c r="X59" s="31"/>
       <c r="Y59" s="43">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="Z59" s="44"/>
       <c r="AA59" s="45"/>
@@ -3315,37 +3296,38 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="40"/>
       <c r="H60" s="23"/>
       <c r="I60" s="59">
-        <v>8313967</v>
+        <v>7350788</v>
       </c>
       <c r="K60" s="41"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="56"/>
+      <c r="M60" s="62">
+        <v>1326438</v>
+      </c>
       <c r="N60" s="14"/>
       <c r="O60" s="26"/>
       <c r="P60" s="52"/>
       <c r="Q60" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="R60" s="12"/>
+        <v>90</v>
+      </c>
       <c r="S60" s="27"/>
       <c r="T60" s="29"/>
       <c r="U60" s="34">
-        <v>8083</v>
+        <v>8169</v>
       </c>
       <c r="V60" s="38"/>
       <c r="W60" s="32"/>
       <c r="X60" s="31"/>
       <c r="Y60" s="43">
-        <v>490</v>
+        <v>244</v>
       </c>
       <c r="Z60" s="44"/>
       <c r="AA60" s="45"/>
@@ -3353,26 +3335,37 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="40"/>
       <c r="H61" s="23"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="55"/>
+      <c r="I61" s="59">
+        <v>8313967</v>
+      </c>
+      <c r="K61" s="41"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="R61" s="12"/>
       <c r="S61" s="27"/>
       <c r="T61" s="29"/>
       <c r="U61" s="34">
-        <v>8080</v>
+        <v>8083</v>
       </c>
       <c r="V61" s="38"/>
       <c r="W61" s="32"/>
       <c r="X61" s="31"/>
       <c r="Y61" s="43">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="Z61" s="44"/>
       <c r="AA61" s="45"/>
@@ -3380,266 +3373,252 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I62" s="59" t="s">
-        <v>213</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="23"/>
       <c r="L62" s="24"/>
       <c r="M62" s="55"/>
-      <c r="Q62" t="s">
-        <v>181</v>
-      </c>
+      <c r="S62" s="27"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="34">
+        <v>8080</v>
+      </c>
+      <c r="V62" s="38"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="31"/>
+      <c r="Y62" s="43">
+        <v>505</v>
+      </c>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="45"/>
+      <c r="AB62" s="50"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="59">
-        <v>1094721</v>
-      </c>
-      <c r="K63" s="41"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="60">
-        <v>8326696</v>
-      </c>
-      <c r="N63" s="14"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="R63" s="12"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="34">
-        <v>8086</v>
-      </c>
-      <c r="V63" s="38"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="43">
-        <v>455</v>
-      </c>
-      <c r="Z63" s="44"/>
-      <c r="AA63" s="45"/>
-      <c r="AB63" s="50"/>
+        <v>114</v>
+      </c>
+      <c r="I63" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L63" s="24"/>
+      <c r="Q63" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="40"/>
       <c r="H64" s="23"/>
       <c r="I64" s="59">
-        <v>6846554</v>
+        <v>1094721</v>
       </c>
       <c r="K64" s="41"/>
       <c r="L64" s="16"/>
-      <c r="M64" s="55"/>
+      <c r="M64" s="62">
+        <v>8326696</v>
+      </c>
+      <c r="N64" s="14"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="R64" s="12"/>
       <c r="S64" s="27"/>
       <c r="T64" s="29"/>
-      <c r="V64" s="37"/>
+      <c r="U64" s="34">
+        <v>8086</v>
+      </c>
+      <c r="V64" s="38"/>
       <c r="W64" s="32"/>
       <c r="X64" s="31"/>
       <c r="Y64" s="43">
-        <v>500</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="Z64" s="44"/>
       <c r="AA64" s="45"/>
       <c r="AB64" s="50"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I65" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="L65" s="24"/>
+        <v>136</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="59">
+        <v>6846554</v>
+      </c>
+      <c r="K65" s="41"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="55"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="29"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="31"/>
+      <c r="Y65" s="43">
+        <v>500</v>
+      </c>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="50"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="I66" s="59" t="s">
+        <v>214</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="55"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H67" s="22"/>
+        <v>202</v>
+      </c>
       <c r="L67" s="24"/>
       <c r="M67" s="55"/>
-      <c r="Q67" t="s">
-        <v>182</v>
-      </c>
-      <c r="S67" s="27"/>
-      <c r="T67" s="29"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="31"/>
-      <c r="Y67" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA67" s="45"/>
-      <c r="AB67" s="46"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="8">
-        <v>78424</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="59">
-        <v>1008382</v>
-      </c>
-      <c r="K68" s="41"/>
-      <c r="L68" s="16"/>
+        <v>111</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="55"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="26"/>
-      <c r="Q68" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="R68" s="12"/>
+      <c r="Q68" t="s">
+        <v>182</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="29"/>
-      <c r="U68" s="34">
-        <v>8275</v>
-      </c>
-      <c r="V68" s="38"/>
+      <c r="V68" s="37"/>
       <c r="W68" s="32"/>
       <c r="X68" s="31"/>
-      <c r="Y68" s="43">
-        <v>828</v>
-      </c>
-      <c r="Z68" s="44"/>
+      <c r="Y68" s="43" t="s">
+        <v>187</v>
+      </c>
       <c r="AA68" s="45"/>
-      <c r="AB68" s="50"/>
+      <c r="AB68" s="46"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" s="8">
-        <v>75310</v>
+        <v>78424</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="40"/>
       <c r="H69" s="23"/>
       <c r="I69" s="59">
-        <v>4249389</v>
+        <v>1008382</v>
       </c>
       <c r="K69" s="41"/>
       <c r="L69" s="16"/>
       <c r="M69" s="55"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="26"/>
       <c r="Q69" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R69" s="12"/>
       <c r="S69" s="27"/>
       <c r="T69" s="29"/>
       <c r="U69" s="34">
-        <v>8110</v>
+        <v>8275</v>
       </c>
       <c r="V69" s="38"/>
       <c r="W69" s="32"/>
       <c r="X69" s="31"/>
       <c r="Y69" s="43">
-        <v>563</v>
+        <v>828</v>
       </c>
       <c r="Z69" s="44"/>
       <c r="AA69" s="45"/>
       <c r="AB69" s="50"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="8" t="s">
-        <v>46</v>
+      <c r="A70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="8">
+        <v>75310</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="40"/>
       <c r="H70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="I70" s="59">
+        <v>4249389</v>
+      </c>
+      <c r="K70" s="41"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="55"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" t="s">
-        <v>183</v>
+      <c r="Q70" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="R70" s="12"/>
       <c r="S70" s="27"/>
       <c r="T70" s="29"/>
       <c r="U70" s="34">
-        <v>8560</v>
+        <v>8110</v>
       </c>
       <c r="V70" s="38"/>
       <c r="W70" s="32"/>
       <c r="X70" s="31"/>
       <c r="Y70" s="43">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="Z70" s="44"/>
       <c r="AA70" s="45"/>
       <c r="AB70" s="50"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="8">
-        <v>70646</v>
+      <c r="A71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="40"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="59">
-        <v>1420330</v>
-      </c>
-      <c r="K71" s="41"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="56">
-        <v>1028511</v>
-      </c>
+      <c r="L71" s="24"/>
+      <c r="M71" s="55"/>
       <c r="N71" s="14"/>
       <c r="O71" s="26"/>
       <c r="P71" s="52"/>
-      <c r="Q71" s="51" t="s">
-        <v>93</v>
+      <c r="Q71" t="s">
+        <v>183</v>
       </c>
       <c r="R71" s="12"/>
       <c r="S71" s="27"/>
       <c r="T71" s="29"/>
       <c r="U71" s="34">
-        <v>8127</v>
+        <v>8560</v>
       </c>
       <c r="V71" s="38"/>
       <c r="W71" s="32"/>
       <c r="X71" s="31"/>
       <c r="Y71" s="43">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="Z71" s="44"/>
       <c r="AA71" s="45"/>
@@ -3647,39 +3626,39 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>48</v>
+        <v>140</v>
+      </c>
+      <c r="E72" s="8">
+        <v>70646</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="40"/>
       <c r="H72" s="23"/>
       <c r="I72" s="59">
-        <v>9927799</v>
+        <v>1420330</v>
       </c>
       <c r="K72" s="41"/>
       <c r="L72" s="16"/>
       <c r="M72" s="56">
-        <v>2012150</v>
+        <v>1028511</v>
       </c>
       <c r="N72" s="14"/>
       <c r="O72" s="26"/>
       <c r="P72" s="52"/>
       <c r="Q72" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="27"/>
       <c r="T72" s="29"/>
       <c r="U72" s="34">
-        <v>8058</v>
+        <v>8127</v>
       </c>
       <c r="V72" s="38"/>
       <c r="W72" s="32"/>
       <c r="X72" s="31"/>
       <c r="Y72" s="43">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="Z72" s="44"/>
       <c r="AA72" s="45"/>
@@ -3687,38 +3666,39 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="8">
-        <v>75336</v>
+        <v>142</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="22"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="59">
-        <v>1745161</v>
+        <v>9927799</v>
       </c>
       <c r="K73" s="41"/>
       <c r="L73" s="16"/>
       <c r="M73" s="56">
-        <v>1028515</v>
+        <v>2012150</v>
       </c>
       <c r="N73" s="14"/>
       <c r="O73" s="26"/>
       <c r="P73" s="52"/>
       <c r="Q73" s="51" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R73" s="12"/>
       <c r="S73" s="27"/>
       <c r="T73" s="29"/>
       <c r="U73" s="34">
-        <v>8465</v>
+        <v>8058</v>
       </c>
       <c r="V73" s="38"/>
       <c r="W73" s="32"/>
       <c r="X73" s="31"/>
       <c r="Y73" s="43">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="Z73" s="44"/>
       <c r="AA73" s="45"/>
@@ -3726,208 +3706,207 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>47</v>
+        <v>168</v>
+      </c>
+      <c r="E74" s="8">
+        <v>75336</v>
       </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="23"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="59">
-        <v>4615704</v>
+        <v>1745161</v>
       </c>
       <c r="K74" s="41"/>
       <c r="L74" s="16"/>
-      <c r="M74" s="55"/>
+      <c r="M74" s="56">
+        <v>1028515</v>
+      </c>
+      <c r="N74" s="14"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="51" t="s">
+        <v>94</v>
+      </c>
       <c r="S74" s="27"/>
       <c r="T74" s="29"/>
-      <c r="V74" s="37"/>
+      <c r="U74" s="34">
+        <v>8465</v>
+      </c>
+      <c r="V74" s="38"/>
       <c r="W74" s="32"/>
       <c r="X74" s="31"/>
       <c r="Y74" s="43">
-        <v>585</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="Z74" s="44"/>
       <c r="AA74" s="45"/>
       <c r="AB74" s="50"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="8"/>
+      <c r="A75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="F75" s="9"/>
-      <c r="H75" s="22"/>
-      <c r="L75" s="24"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="59">
+        <v>4615704</v>
+      </c>
+      <c r="K75" s="41"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="55"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="26"/>
-      <c r="R75" s="12"/>
       <c r="S75" s="27"/>
       <c r="T75" s="29"/>
-      <c r="V75" s="38"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="32"/>
       <c r="X75" s="31"/>
-      <c r="Z75" s="44"/>
+      <c r="Y75" s="43">
+        <v>585</v>
+      </c>
+      <c r="AA75" s="45"/>
       <c r="AB75" s="50"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="8">
-        <v>75690</v>
-      </c>
+      <c r="A76" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="59">
-        <v>7413057</v>
-      </c>
-      <c r="K76" s="41"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="56">
-        <v>4221933</v>
-      </c>
+      <c r="H76" s="22"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="55"/>
       <c r="N76" s="14"/>
       <c r="O76" s="26"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="51" t="s">
-        <v>96</v>
-      </c>
       <c r="R76" s="12"/>
       <c r="S76" s="27"/>
       <c r="T76" s="29"/>
       <c r="V76" s="38"/>
-      <c r="W76" s="32"/>
       <c r="X76" s="31"/>
-      <c r="Y76" s="43">
-        <v>1650</v>
-      </c>
       <c r="Z76" s="44"/>
-      <c r="AA76" s="45"/>
       <c r="AB76" s="50"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E77" s="8">
-        <v>77278</v>
+        <v>75690</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="40"/>
       <c r="H77" s="23"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="55"/>
+      <c r="I77" s="59">
+        <v>7413057</v>
+      </c>
+      <c r="K77" s="41"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="56">
+        <v>4221933</v>
+      </c>
+      <c r="N77" s="14"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="52"/>
       <c r="Q77" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R77" s="12"/>
       <c r="S77" s="27"/>
       <c r="T77" s="29"/>
-      <c r="U77" s="34">
-        <v>4060</v>
-      </c>
       <c r="V77" s="38"/>
       <c r="W77" s="32"/>
       <c r="X77" s="31"/>
+      <c r="Y77" s="43">
+        <v>1650</v>
+      </c>
       <c r="Z77" s="44"/>
       <c r="AA77" s="45"/>
       <c r="AB77" s="50"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>50</v>
+        <v>144</v>
+      </c>
+      <c r="E78" s="8">
+        <v>77278</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="40"/>
       <c r="H78" s="23"/>
       <c r="L78" s="24"/>
       <c r="M78" s="55"/>
+      <c r="Q78" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="R78" s="12"/>
       <c r="S78" s="27"/>
       <c r="T78" s="29"/>
-      <c r="V78" s="37"/>
+      <c r="U78" s="34">
+        <v>4060</v>
+      </c>
+      <c r="V78" s="38"/>
       <c r="W78" s="32"/>
       <c r="X78" s="31"/>
+      <c r="Z78" s="44"/>
       <c r="AA78" s="45"/>
       <c r="AB78" s="50"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="40"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="59">
-        <v>1313154</v>
-      </c>
-      <c r="K79" s="41"/>
-      <c r="L79" s="16"/>
-      <c r="O79" s="26"/>
-      <c r="Q79" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="R79" s="12"/>
+      <c r="L79" s="24"/>
       <c r="S79" s="27"/>
       <c r="T79" s="29"/>
-      <c r="U79" s="34">
-        <v>8484</v>
-      </c>
-      <c r="V79" s="38"/>
+      <c r="V79" s="37"/>
       <c r="W79" s="32"/>
       <c r="X79" s="31"/>
-      <c r="Y79" s="43">
-        <v>651</v>
-      </c>
-      <c r="Z79" s="44"/>
       <c r="AA79" s="45"/>
       <c r="AB79" s="50"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E80" s="8">
-        <v>34768</v>
+        <v>145</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="22"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="59">
-        <v>8481756</v>
+        <v>1313154</v>
       </c>
       <c r="K80" s="41"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="56">
-        <v>8010498</v>
-      </c>
-      <c r="N80" s="14"/>
+      <c r="M80" s="55"/>
       <c r="O80" s="26"/>
-      <c r="P80" s="52"/>
       <c r="Q80" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R80" s="12"/>
       <c r="S80" s="27"/>
       <c r="T80" s="29"/>
       <c r="U80" s="34">
-        <v>8277</v>
+        <v>8484</v>
       </c>
       <c r="V80" s="38"/>
       <c r="W80" s="32"/>
       <c r="X80" s="31"/>
       <c r="Y80" s="43">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="Z80" s="44"/>
       <c r="AA80" s="45"/>
@@ -3935,171 +3914,172 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>52</v>
+        <v>146</v>
+      </c>
+      <c r="E81" s="8">
+        <v>34768</v>
       </c>
       <c r="F81" s="9"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="23"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="59">
-        <v>1008465</v>
+        <v>8481756</v>
       </c>
       <c r="K81" s="41"/>
       <c r="L81" s="16"/>
-      <c r="M81" s="55"/>
+      <c r="M81" s="56">
+        <v>8010498</v>
+      </c>
+      <c r="N81" s="14"/>
       <c r="O81" s="26"/>
+      <c r="P81" s="52"/>
       <c r="Q81" s="51" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="R81" s="12"/>
       <c r="S81" s="27"/>
       <c r="T81" s="29"/>
-      <c r="V81" s="37"/>
+      <c r="U81" s="34">
+        <v>8277</v>
+      </c>
+      <c r="V81" s="38"/>
       <c r="W81" s="32"/>
       <c r="X81" s="31"/>
       <c r="Y81" s="43">
-        <v>706</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="Z81" s="44"/>
       <c r="AA81" s="45"/>
       <c r="AB81" s="50"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L82" s="24"/>
+        <v>147</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="59">
+        <v>1008465</v>
+      </c>
+      <c r="K82" s="41"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="55"/>
+      <c r="O82" s="26"/>
+      <c r="Q82" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="S82" s="27"/>
+      <c r="T82" s="29"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="31"/>
+      <c r="Y82" s="43">
+        <v>706</v>
+      </c>
+      <c r="AA82" s="45"/>
+      <c r="AB82" s="50"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="8">
-        <v>78025</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="59">
-        <v>6894232</v>
-      </c>
-      <c r="K83" s="41"/>
-      <c r="L83" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="L83" s="24"/>
       <c r="M83" s="55"/>
-      <c r="Q83" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="R83" s="12"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="29"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="32"/>
-      <c r="X83" s="31"/>
-      <c r="Y83" s="43">
-        <v>805</v>
-      </c>
-      <c r="Z83" s="44"/>
-      <c r="AA83" s="45"/>
-      <c r="AB83" s="50"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L84" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="E84" s="8">
+        <v>78025</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="59">
+        <v>6894232</v>
+      </c>
+      <c r="K84" s="41"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="55"/>
-      <c r="Y84" s="43" t="s">
-        <v>188</v>
-      </c>
+      <c r="Q84" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="R84" s="12"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="29"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="31"/>
+      <c r="Y84" s="43">
+        <v>805</v>
+      </c>
+      <c r="Z84" s="44"/>
+      <c r="AA84" s="45"/>
+      <c r="AB84" s="50"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H85" s="22"/>
+        <v>113</v>
+      </c>
       <c r="L85" s="24"/>
       <c r="M85" s="55"/>
-      <c r="Q85" t="s">
-        <v>184</v>
-      </c>
       <c r="Y85" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" s="8">
-        <v>78126</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="59">
-        <v>2036598</v>
-      </c>
-      <c r="K86" s="41"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="56">
-        <v>4074472</v>
-      </c>
-      <c r="N86" s="14"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="52"/>
+        <v>112</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="55"/>
       <c r="Q86" t="s">
-        <v>185</v>
-      </c>
-      <c r="R86" s="12"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="34">
-        <v>8142</v>
-      </c>
-      <c r="V86" s="38"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="43">
-        <v>865</v>
-      </c>
-      <c r="Z86" s="44"/>
-      <c r="AA86" s="45"/>
-      <c r="AB86" s="50"/>
+        <v>184</v>
+      </c>
+      <c r="Y86" s="43" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="E87" s="8">
-        <v>39142</v>
+        <v>78126</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="40"/>
       <c r="H87" s="23"/>
       <c r="I87" s="59">
-        <v>6235501</v>
+        <v>2036598</v>
       </c>
       <c r="K87" s="41"/>
       <c r="L87" s="16"/>
-      <c r="M87" s="57">
-        <v>1205582</v>
+      <c r="M87" s="56">
+        <v>4074472</v>
       </c>
       <c r="N87" s="14"/>
       <c r="O87" s="26"/>
-      <c r="Q87" s="51" t="s">
-        <v>105</v>
+      <c r="P87" s="52"/>
+      <c r="Q87" t="s">
+        <v>185</v>
       </c>
       <c r="R87" s="12"/>
       <c r="S87" s="27"/>
       <c r="T87" s="29"/>
       <c r="U87" s="34">
-        <v>4193</v>
+        <v>8142</v>
       </c>
       <c r="V87" s="38"/>
       <c r="W87" s="32"/>
       <c r="X87" s="31"/>
       <c r="Y87" s="43">
-        <v>1150</v>
+        <v>865</v>
       </c>
       <c r="Z87" s="44"/>
       <c r="AA87" s="45"/>
@@ -4107,39 +4087,38 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>59</v>
+        <v>110</v>
+      </c>
+      <c r="E88" s="8">
+        <v>39142</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="40"/>
       <c r="H88" s="23"/>
       <c r="I88" s="59">
-        <v>1763432</v>
+        <v>6235501</v>
       </c>
       <c r="K88" s="41"/>
       <c r="L88" s="16"/>
-      <c r="M88" s="56">
-        <v>9007303</v>
+      <c r="M88" s="57">
+        <v>1205582</v>
       </c>
       <c r="N88" s="14"/>
       <c r="O88" s="26"/>
-      <c r="P88" s="52"/>
       <c r="Q88" s="51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R88" s="12"/>
       <c r="S88" s="27"/>
       <c r="T88" s="29"/>
       <c r="U88" s="34">
-        <v>4074</v>
+        <v>4193</v>
       </c>
       <c r="V88" s="38"/>
       <c r="W88" s="32"/>
       <c r="X88" s="31"/>
       <c r="Y88" s="43">
-        <v>920</v>
+        <v>1150</v>
       </c>
       <c r="Z88" s="44"/>
       <c r="AA88" s="45"/>
@@ -4147,39 +4126,39 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" s="8">
-        <v>76800</v>
+        <v>157</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="40"/>
       <c r="H89" s="23"/>
       <c r="I89" s="59">
-        <v>6017263</v>
+        <v>1763432</v>
       </c>
       <c r="K89" s="41"/>
       <c r="L89" s="16"/>
       <c r="M89" s="56">
-        <v>6264014</v>
+        <v>9007303</v>
       </c>
       <c r="N89" s="14"/>
       <c r="O89" s="26"/>
       <c r="P89" s="52"/>
       <c r="Q89" s="51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R89" s="12"/>
       <c r="S89" s="27"/>
       <c r="T89" s="29"/>
       <c r="U89" s="34">
-        <v>4050</v>
+        <v>4074</v>
       </c>
       <c r="V89" s="38"/>
       <c r="W89" s="32"/>
       <c r="X89" s="31"/>
       <c r="Y89" s="43">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="Z89" s="44"/>
       <c r="AA89" s="45"/>
@@ -4187,12 +4166,49 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" s="8">
+        <v>76800</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="59">
+        <v>6017263</v>
+      </c>
+      <c r="K90" s="41"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="56">
+        <v>6264014</v>
+      </c>
+      <c r="N90" s="14"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="R90" s="12"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="34">
+        <v>4050</v>
+      </c>
+      <c r="V90" s="38"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="31"/>
+      <c r="Y90" s="43">
+        <v>931</v>
+      </c>
+      <c r="Z90" s="44"/>
+      <c r="AA90" s="45"/>
+      <c r="AB90" s="50"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L90" s="24"/>
-      <c r="M90" s="55"/>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I91" s="61"/>
       <c r="L91" s="24"/>
       <c r="M91" s="55"/>
     </row>
@@ -4237,8 +4253,8 @@
       <c r="M101" s="55"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB90">
-    <sortCondition ref="A3:A90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB91">
+    <sortCondition ref="A3:A91"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="Y1:AB1"/>

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9353F-AA53-49DB-8057-D5EBE10C5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027151DB-DB3B-4A95-955F-155783C43D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="2160" windowWidth="25500" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="226">
   <si>
     <t>Item</t>
   </si>
@@ -688,6 +688,27 @@
   </si>
   <si>
     <t>Only Watermelon - USA</t>
+  </si>
+  <si>
+    <t>ASP11</t>
+  </si>
+  <si>
+    <t>EGGP24</t>
+  </si>
+  <si>
+    <t>GRAPEGREEN18</t>
+  </si>
+  <si>
+    <t>ORAN88</t>
+  </si>
+  <si>
+    <t>PARSN20</t>
+  </si>
+  <si>
+    <t>SWEETPOT40</t>
+  </si>
+  <si>
+    <t>TURNIP25</t>
   </si>
 </sst>
 </file>
@@ -1383,10 +1404,10 @@
   <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="Y62" sqref="Y62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,6 +1653,9 @@
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="55"/>
+      <c r="Q6" s="12" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2008,6 +2032,9 @@
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="55"/>
+      <c r="Q19" s="12" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2124,6 +2151,9 @@
       <c r="L23" s="24"/>
       <c r="M23" s="55">
         <v>4056479</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -3486,6 +3516,9 @@
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="55"/>
+      <c r="Q66" s="12" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -3493,6 +3526,9 @@
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="55"/>
+      <c r="Q67" s="12" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3989,6 +4025,9 @@
       </c>
       <c r="L83" s="24"/>
       <c r="M83" s="55"/>
+      <c r="Q83" s="12" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -4211,6 +4250,9 @@
       <c r="I91" s="61"/>
       <c r="L91" s="24"/>
       <c r="M91" s="55"/>
+      <c r="Q91" s="12" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L92" s="24"/>

--- a/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
+++ b/WorkBot/main/backend/pricing/Templates/IBProduce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027151DB-DB3B-4A95-955F-155783C43D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36545FD9-77EB-4315-8DE6-130C0EA4816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2160" windowWidth="25500" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
   <si>
     <t>Item</t>
   </si>
@@ -231,138 +231,6 @@
     <t>US Foods</t>
   </si>
   <si>
-    <t>Alfalfa Sprout - 5LB - NYS</t>
-  </si>
-  <si>
-    <t>6/1 Gallon Cider - Beak</t>
-  </si>
-  <si>
-    <t>12x3lb Empire Apple -  - USA</t>
-  </si>
-  <si>
-    <t>Baby Arugula 4lb - usa</t>
-  </si>
-  <si>
-    <t>Banana -40lb- CRI</t>
-  </si>
-  <si>
-    <t>Only Basil - LB</t>
-  </si>
-  <si>
-    <t>Broccoli Crown - 20lb -USA</t>
-  </si>
-  <si>
-    <t>Napa 30lb - USA</t>
-  </si>
-  <si>
-    <t>25 lb. Carrot -US</t>
-  </si>
-  <si>
-    <t>10x5 lb. Carrot - us</t>
-  </si>
-  <si>
-    <t>Cauliflower 12's - USA</t>
-  </si>
-  <si>
-    <t>4x5 lb. Celery Stix - USA</t>
-  </si>
-  <si>
-    <t>CILANTRO - 60ct CASE</t>
-  </si>
-  <si>
-    <t>Collard Greens - USA</t>
-  </si>
-  <si>
-    <t>Cucumber  SS - USA</t>
-  </si>
-  <si>
-    <t>5LB Peeled Garlic</t>
-  </si>
-  <si>
-    <t>Ginger - 30lb - CHN</t>
-  </si>
-  <si>
-    <t>Red Seedless Grape - per</t>
-  </si>
-  <si>
-    <t>Green Bean - USA</t>
-  </si>
-  <si>
-    <t>Honeydew 5 ct - USA</t>
-  </si>
-  <si>
-    <t>Kale  16lb - USA</t>
-  </si>
-  <si>
-    <t>Green Leaf Crowns 10# - USA</t>
-  </si>
-  <si>
-    <t>25 lb.  Red  Onions - USA</t>
-  </si>
-  <si>
-    <t>50 lb.  Spanish Onions - USA</t>
-  </si>
-  <si>
-    <t>Green Onion 48ct  - USA</t>
-  </si>
-  <si>
-    <t>Oregano - Only Bunch</t>
-  </si>
-  <si>
-    <t>Bunches Curly Parsley - Mex</t>
-  </si>
-  <si>
-    <t>Large  Pepper 25# - USA</t>
-  </si>
-  <si>
-    <t>Red Pepper 11# - CAN</t>
-  </si>
-  <si>
-    <t>Jalapeno Pepper-Bushel-USA</t>
-  </si>
-  <si>
-    <t>7ct Pineapple - Costa Rico</t>
-  </si>
-  <si>
-    <t>Pomegranate -30 CT - usa</t>
-  </si>
-  <si>
-    <t>Chef Potato 50# - USA</t>
-  </si>
-  <si>
-    <t>50lb Red 'A' Potato - USA</t>
-  </si>
-  <si>
-    <t>10x5 lb. Russett Potato - USA</t>
-  </si>
-  <si>
-    <t>14x1lb.  Radish - USA</t>
-  </si>
-  <si>
-    <t>Romaine - Chopped 6x2lb - USA</t>
-  </si>
-  <si>
-    <t>Spring Mix 3lb -HERITAGE -USA</t>
-  </si>
-  <si>
-    <t>Baby Spinach 4/2.5lb. - USA</t>
-  </si>
-  <si>
-    <t>8/1# Strawberry - USA</t>
-  </si>
-  <si>
-    <t>Snow Pea 10# - Guat</t>
-  </si>
-  <si>
-    <t>Snap Pea -10# -</t>
-  </si>
-  <si>
-    <t>Grape Tomato - USA</t>
-  </si>
-  <si>
-    <t>5X6 Tomato 25 lb. - USA</t>
-  </si>
-  <si>
     <t>Strawberries Fresh</t>
   </si>
   <si>
@@ -549,48 +417,6 @@
     <t>Squash - Zucchini (Fancy, Medium)</t>
   </si>
   <si>
-    <t>25 lb Cut Beet</t>
-  </si>
-  <si>
-    <t>Broccoli Floret -6/3lb-USA</t>
-  </si>
-  <si>
-    <t>Kiwifruit - ITA</t>
-  </si>
-  <si>
-    <t>Leek 12 ct - Mex</t>
-  </si>
-  <si>
-    <t>115 Lemon - USA</t>
-  </si>
-  <si>
-    <t>36 ct Lime  - Mex</t>
-  </si>
-  <si>
-    <t>Lopes 9's - USA</t>
-  </si>
-  <si>
-    <t>Shitake Mushroom 3LB - USA</t>
-  </si>
-  <si>
-    <t>Sliced Mushroom - 10lb- USA</t>
-  </si>
-  <si>
-    <t>Peeled Shallot</t>
-  </si>
-  <si>
-    <t>D`Anjou Pear 46# - USA</t>
-  </si>
-  <si>
-    <t>Jumbo Pepper 1 1/9 bu- USA</t>
-  </si>
-  <si>
-    <t>Yellow  Squash  - USA</t>
-  </si>
-  <si>
-    <t>Green Squash  - USA</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -603,21 +429,6 @@
     <t>880</t>
   </si>
   <si>
-    <t>Snipped Gr. Beans 10lb. - USA</t>
-  </si>
-  <si>
-    <t>Bok Choy 30lb - can</t>
-  </si>
-  <si>
-    <t>4x5lb. Cole Slaw - USA</t>
-  </si>
-  <si>
-    <t>Romaine  Heart 12/3 ct - USA</t>
-  </si>
-  <si>
-    <t>10 lb.  Mushroom - USA</t>
-  </si>
-  <si>
     <t>BEHLOG &amp; SON, INC.</t>
   </si>
   <si>
@@ -678,37 +489,256 @@
     <t>7651967</t>
   </si>
   <si>
-    <t>Brussel Sprout 25# -USA</t>
-  </si>
-  <si>
-    <t>5 lb. Portabello Mush-USA</t>
-  </si>
-  <si>
     <t>Mango</t>
   </si>
   <si>
-    <t>Only Watermelon - USA</t>
-  </si>
-  <si>
-    <t>ASP11</t>
-  </si>
-  <si>
-    <t>EGGP24</t>
-  </si>
-  <si>
-    <t>GRAPEGREEN18</t>
-  </si>
-  <si>
-    <t>ORAN88</t>
-  </si>
-  <si>
-    <t>PARSN20</t>
-  </si>
-  <si>
-    <t>SWEETPOT40</t>
-  </si>
-  <si>
-    <t>TURNIP25</t>
+    <t>MALFALFA</t>
+  </si>
+  <si>
+    <t>FAPE80</t>
+  </si>
+  <si>
+    <t>MCIDG</t>
+  </si>
+  <si>
+    <t>VASP28</t>
+  </si>
+  <si>
+    <t>FBAN</t>
+  </si>
+  <si>
+    <t>VBT25</t>
+  </si>
+  <si>
+    <t>VBRCCN</t>
+  </si>
+  <si>
+    <t>PBRFL</t>
+  </si>
+  <si>
+    <t>VBRSP</t>
+  </si>
+  <si>
+    <t>VCAR25US</t>
+  </si>
+  <si>
+    <t>VCAR50</t>
+  </si>
+  <si>
+    <t>VFLOW12</t>
+  </si>
+  <si>
+    <t>VCELSL</t>
+  </si>
+  <si>
+    <t>VCUKG</t>
+  </si>
+  <si>
+    <t>VRG</t>
+  </si>
+  <si>
+    <t>MEGG</t>
+  </si>
+  <si>
+    <t>PPGAR</t>
+  </si>
+  <si>
+    <t>VGIN</t>
+  </si>
+  <si>
+    <t>FGPWB</t>
+  </si>
+  <si>
+    <t>FGPRB</t>
+  </si>
+  <si>
+    <t>VGRB</t>
+  </si>
+  <si>
+    <t>PGRBS</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>VBK</t>
+  </si>
+  <si>
+    <t>VNP</t>
+  </si>
+  <si>
+    <t>PSLAW20</t>
+  </si>
+  <si>
+    <t>VCOL</t>
+  </si>
+  <si>
+    <t>PGRLFC</t>
+  </si>
+  <si>
+    <t>VKL</t>
+  </si>
+  <si>
+    <t>PKL</t>
+  </si>
+  <si>
+    <t>VRAP</t>
+  </si>
+  <si>
+    <t>VLTROMH</t>
+  </si>
+  <si>
+    <t>PCHROM</t>
+  </si>
+  <si>
+    <t>PSPMX</t>
+  </si>
+  <si>
+    <t>PSPB10</t>
+  </si>
+  <si>
+    <t>VCHARD</t>
+  </si>
+  <si>
+    <t>VCIL</t>
+  </si>
+  <si>
+    <t>HOREGANO</t>
+  </si>
+  <si>
+    <t>VPARC</t>
+  </si>
+  <si>
+    <t>PPARS</t>
+  </si>
+  <si>
+    <t>VBSI</t>
+  </si>
+  <si>
+    <t>FKIWI</t>
+  </si>
+  <si>
+    <t>VLEEK</t>
+  </si>
+  <si>
+    <t>FLEM115</t>
+  </si>
+  <si>
+    <t>FLM36</t>
+  </si>
+  <si>
+    <t>FMGO</t>
+  </si>
+  <si>
+    <t>FLP9</t>
+  </si>
+  <si>
+    <t>FHD</t>
+  </si>
+  <si>
+    <t>FWMEL</t>
+  </si>
+  <si>
+    <t>VMUSH10</t>
+  </si>
+  <si>
+    <t>VMUSH5P</t>
+  </si>
+  <si>
+    <t>VMUSHSHI</t>
+  </si>
+  <si>
+    <t>VMUSHSL10</t>
+  </si>
+  <si>
+    <t>VGRON</t>
+  </si>
+  <si>
+    <t>VONRD</t>
+  </si>
+  <si>
+    <t>PONRD</t>
+  </si>
+  <si>
+    <t>PSHALP</t>
+  </si>
+  <si>
+    <t>VONSP</t>
+  </si>
+  <si>
+    <t>PONPY</t>
+  </si>
+  <si>
+    <t>FNAV88</t>
+  </si>
+  <si>
+    <t>VPAR</t>
+  </si>
+  <si>
+    <t>FPRD</t>
+  </si>
+  <si>
+    <t>VSNO</t>
+  </si>
+  <si>
+    <t>VSNAP</t>
+  </si>
+  <si>
+    <t>VPEPXL</t>
+  </si>
+  <si>
+    <t>VPEPLG</t>
+  </si>
+  <si>
+    <t>VPEPJAL</t>
+  </si>
+  <si>
+    <t>VPEPRD</t>
+  </si>
+  <si>
+    <t>VPEP15</t>
+  </si>
+  <si>
+    <t>FPINE7</t>
+  </si>
+  <si>
+    <t>FPOM</t>
+  </si>
+  <si>
+    <t>VPOTC</t>
+  </si>
+  <si>
+    <t>VPOTRDA</t>
+  </si>
+  <si>
+    <t>VPOT70</t>
+  </si>
+  <si>
+    <t>VYM</t>
+  </si>
+  <si>
+    <t>VRAD1</t>
+  </si>
+  <si>
+    <t>VSQA</t>
+  </si>
+  <si>
+    <t>VSQY</t>
+  </si>
+  <si>
+    <t>VSQG</t>
+  </si>
+  <si>
+    <t>FBERST</t>
+  </si>
+  <si>
+    <t>VTOM56</t>
+  </si>
+  <si>
+    <t>VTOMG</t>
+  </si>
+  <si>
+    <t>VPT</t>
   </si>
 </sst>
 </file>
@@ -718,7 +748,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,12 +797,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -890,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1004,9 +1028,6 @@
     <xf numFmtId="44" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,11 +1048,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,6 +1105,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1404,10 +1426,10 @@
   <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y62" sqref="Y62"/>
+      <selection pane="bottomRight" activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1441,7 @@
     <col min="5" max="5" width="15" style="9" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="8" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="58" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="16" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="24" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="5" customWidth="1"/>
@@ -1442,58 +1464,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="42"/>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="71" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="71" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="71" t="s">
+      <c r="N1" s="77"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="71" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="66"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="65"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="42"/>
-      <c r="D2" s="70"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1506,7 +1528,7 @@
       <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1572,8 +1594,8 @@
         <v>7</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="Q3" s="51" t="s">
-        <v>66</v>
+      <c r="Q3" t="s">
+        <v>153</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="27"/>
@@ -1590,19 +1612,19 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="E4" s="8"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>1268572</v>
       </c>
       <c r="L4" s="24"/>
       <c r="M4">
         <v>6793301</v>
       </c>
-      <c r="Q4" s="51" t="s">
-        <v>68</v>
+      <c r="Q4" t="s">
+        <v>154</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="27"/>
@@ -1626,11 +1648,11 @@
       </c>
       <c r="E5" s="8"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="55"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="14"/>
       <c r="O5" s="26"/>
-      <c r="Q5" s="51" t="s">
-        <v>67</v>
+      <c r="Q5" t="s">
+        <v>155</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="27"/>
@@ -1646,15 +1668,15 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="59">
+        <v>133</v>
+      </c>
+      <c r="I6" s="58">
         <v>4418752</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="55"/>
-      <c r="Q6" s="12" t="s">
-        <v>219</v>
+      <c r="M6" s="54"/>
+      <c r="Q6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1667,15 +1689,15 @@
       <c r="F7" s="9"/>
       <c r="G7" s="40"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="59">
+      <c r="I7" s="58">
         <v>1254440</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="55"/>
+      <c r="M7" s="54"/>
       <c r="O7" s="26"/>
-      <c r="Q7" s="51" t="s">
-        <v>70</v>
+      <c r="Q7" t="s">
+        <v>157</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="27"/>
@@ -1695,23 +1717,23 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="59">
+        <v>71</v>
+      </c>
+      <c r="I8" s="58">
         <v>7567159</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="55"/>
+      <c r="M8" s="54"/>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Y8" s="43" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>13</v>
@@ -1719,19 +1741,19 @@
       <c r="F9" s="9"/>
       <c r="G9" s="40"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="59">
+      <c r="I9" s="58">
         <v>2704989</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="60">
+      <c r="M9" s="59">
         <v>8355281</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="51" t="s">
-        <v>72</v>
+      <c r="P9" s="51"/>
+      <c r="Q9" t="s">
+        <v>159</v>
       </c>
       <c r="S9" s="27"/>
       <c r="T9" s="29"/>
@@ -1750,7 +1772,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -1758,19 +1780,19 @@
       <c r="F10" s="9"/>
       <c r="G10" s="40"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="59">
+      <c r="I10" s="58">
         <v>1675859</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="60">
+      <c r="M10" s="59">
         <v>2326429</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="52"/>
+      <c r="P10" s="51"/>
       <c r="Q10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="27"/>
@@ -1798,15 +1820,15 @@
       <c r="F11" s="9"/>
       <c r="G11" s="40"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="59">
+      <c r="I11" s="58">
         <v>4510299</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="55"/>
+      <c r="M11" s="54"/>
       <c r="O11" s="26"/>
       <c r="Q11" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="27"/>
@@ -1826,17 +1848,19 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="55"/>
+      <c r="M12" s="54"/>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="L13" s="24"/>
-      <c r="M13" s="55"/>
+      <c r="M13" s="54"/>
+      <c r="Q13"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1848,19 +1872,19 @@
       <c r="F14" s="9"/>
       <c r="G14" s="40"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="59">
+      <c r="I14" s="58">
         <v>2227007</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="56">
+      <c r="M14" s="55">
         <v>9228446</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="51" t="s">
-        <v>74</v>
+      <c r="P14" s="51"/>
+      <c r="Q14" t="s">
+        <v>162</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="27"/>
@@ -1887,19 +1911,19 @@
       </c>
       <c r="F15" s="9"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="59">
+      <c r="I15" s="58">
         <v>2227015</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="56">
+      <c r="M15" s="55">
         <v>2054542</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="51" t="s">
-        <v>75</v>
+      <c r="P15" s="51"/>
+      <c r="Q15" t="s">
+        <v>163</v>
       </c>
       <c r="S15" s="27"/>
       <c r="T15" s="29"/>
@@ -1922,15 +1946,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="59">
+      <c r="I16" s="58">
         <v>1243724</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="55"/>
+      <c r="M16" s="54"/>
       <c r="O16" s="26"/>
-      <c r="Q16" s="51" t="s">
-        <v>76</v>
+      <c r="Q16" t="s">
+        <v>164</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="27"/>
@@ -1958,14 +1982,14 @@
       <c r="F17" s="9"/>
       <c r="G17" s="40"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="59">
+      <c r="I17" s="58">
         <v>1120625</v>
       </c>
       <c r="L17" s="24"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="54"/>
       <c r="O17" s="26"/>
-      <c r="Q17" s="51" t="s">
-        <v>77</v>
+      <c r="Q17" t="s">
+        <v>165</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="27"/>
@@ -1985,7 +2009,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -1993,19 +2017,19 @@
       <c r="F18" s="9"/>
       <c r="G18" s="40"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="59">
+      <c r="I18" s="58">
         <v>1735372</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="56">
+      <c r="M18" s="55">
         <v>8072704</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="26"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="51" t="s">
-        <v>80</v>
+      <c r="P18" s="51"/>
+      <c r="Q18" t="s">
+        <v>166</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="27"/>
@@ -2025,20 +2049,20 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" s="59">
+        <v>136</v>
+      </c>
+      <c r="I19" s="58">
         <v>4294294</v>
       </c>
       <c r="L19" s="24"/>
-      <c r="M19" s="55"/>
-      <c r="Q19" s="12" t="s">
-        <v>220</v>
+      <c r="M19" s="54"/>
+      <c r="Q19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>25</v>
@@ -2046,13 +2070,16 @@
       <c r="F20" s="9"/>
       <c r="G20" s="40"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="59">
+      <c r="I20" s="58">
         <v>2105773</v>
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="55"/>
+      <c r="M20" s="54"/>
       <c r="O20" s="26"/>
+      <c r="Q20" t="s">
+        <v>168</v>
+      </c>
       <c r="S20" s="27"/>
       <c r="T20" s="29"/>
       <c r="U20" s="34" t="s">
@@ -2070,7 +2097,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>27</v>
@@ -2078,19 +2105,19 @@
       <c r="F21" s="9"/>
       <c r="G21" s="40"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="59">
+      <c r="I21" s="58">
         <v>1821537</v>
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="56">
+      <c r="M21" s="55">
         <v>5365192</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="51" t="s">
-        <v>81</v>
+      <c r="P21" s="51"/>
+      <c r="Q21" t="s">
+        <v>169</v>
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="29"/>
@@ -2117,13 +2144,13 @@
       <c r="F22" s="9"/>
       <c r="G22" s="40"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="59">
+      <c r="I22" s="58">
         <v>1185545</v>
       </c>
       <c r="L22" s="24"/>
-      <c r="M22" s="55"/>
-      <c r="Q22" s="51" t="s">
-        <v>82</v>
+      <c r="M22" s="54"/>
+      <c r="Q22" t="s">
+        <v>170</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="27"/>
@@ -2143,22 +2170,22 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>206</v>
+        <v>137</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>143</v>
       </c>
       <c r="L23" s="24"/>
-      <c r="M23" s="55">
+      <c r="M23" s="54">
         <v>4056479</v>
       </c>
-      <c r="Q23" s="12" t="s">
-        <v>221</v>
+      <c r="Q23" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E24" s="8">
         <v>78922</v>
@@ -2166,16 +2193,16 @@
       <c r="F24" s="9"/>
       <c r="G24" s="40"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="59" t="s">
-        <v>205</v>
+      <c r="I24" s="58" t="s">
+        <v>142</v>
       </c>
       <c r="L24" s="24"/>
-      <c r="M24" s="56"/>
+      <c r="M24" s="55"/>
       <c r="N24" s="14"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="51" t="s">
-        <v>83</v>
+      <c r="P24" s="51"/>
+      <c r="Q24" t="s">
+        <v>172</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="27"/>
@@ -2199,13 +2226,13 @@
       </c>
       <c r="E25" s="8"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="59" t="s">
-        <v>207</v>
+      <c r="I25" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="L25" s="24"/>
-      <c r="M25" s="55"/>
-      <c r="Q25" s="51" t="s">
-        <v>84</v>
+      <c r="M25" s="54"/>
+      <c r="Q25" t="s">
+        <v>173</v>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="29"/>
@@ -2228,14 +2255,14 @@
       <c r="F26" s="9"/>
       <c r="G26" s="40"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="59">
+      <c r="I26" s="58">
         <v>1810910</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="55"/>
+      <c r="M26" s="54"/>
       <c r="Q26" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="27"/>
@@ -2255,7 +2282,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>10</v>
@@ -2263,19 +2290,19 @@
       <c r="F27" s="9"/>
       <c r="G27" s="40"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="59">
+      <c r="I27" s="58">
         <v>7975374</v>
       </c>
       <c r="K27" s="41"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="56">
+      <c r="M27" s="55">
         <v>9546982</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="51" t="s">
-        <v>69</v>
+      <c r="P27" s="51"/>
+      <c r="Q27" t="s">
+        <v>175</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="29"/>
@@ -2294,30 +2321,30 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>208</v>
+        <v>72</v>
+      </c>
+      <c r="I28" s="58" t="s">
+        <v>145</v>
       </c>
       <c r="L28" s="24"/>
-      <c r="M28" s="55"/>
+      <c r="M28" s="54"/>
       <c r="Q28" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E29" s="8"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="59" t="s">
-        <v>209</v>
+      <c r="I29" s="58" t="s">
+        <v>146</v>
       </c>
       <c r="L29" s="24"/>
-      <c r="M29" s="55"/>
-      <c r="Q29" s="51" t="s">
-        <v>73</v>
+      <c r="M29" s="54"/>
+      <c r="Q29" t="s">
+        <v>177</v>
       </c>
       <c r="S29" s="27"/>
       <c r="T29" s="29"/>
@@ -2336,7 +2363,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>16</v>
@@ -2349,14 +2376,14 @@
       </c>
       <c r="K30" s="41"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="60">
+      <c r="M30" s="59">
         <v>3332830</v>
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="53"/>
+      <c r="P30" s="52"/>
       <c r="Q30" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="27"/>
@@ -2376,7 +2403,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="E31" s="8">
         <v>77264</v>
@@ -2384,14 +2411,14 @@
       <c r="F31" s="9"/>
       <c r="G31" s="40"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="59">
+      <c r="I31" s="58">
         <v>2260149</v>
       </c>
       <c r="K31" s="41"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="55"/>
-      <c r="Q31" s="51" t="s">
-        <v>79</v>
+      <c r="M31" s="54"/>
+      <c r="Q31" t="s">
+        <v>179</v>
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="27"/>
@@ -2411,7 +2438,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>35</v>
@@ -2419,17 +2446,17 @@
       <c r="F32" s="9"/>
       <c r="G32" s="40"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="59">
+      <c r="I32" s="58">
         <v>1723857</v>
       </c>
       <c r="K32" s="41"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="56"/>
+      <c r="M32" s="55"/>
       <c r="N32" s="14"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="51" t="s">
-        <v>87</v>
+      <c r="P32" s="51"/>
+      <c r="Q32" t="s">
+        <v>180</v>
       </c>
       <c r="S32" s="27"/>
       <c r="T32" s="29"/>
@@ -2447,7 +2474,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>34</v>
@@ -2455,17 +2482,18 @@
       <c r="F33" s="9"/>
       <c r="G33" s="40"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="59">
+      <c r="I33" s="58">
         <v>7199706</v>
       </c>
       <c r="K33" s="41"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="60">
+      <c r="M33" s="59">
         <v>3355294</v>
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="52"/>
+      <c r="P33" s="51"/>
+      <c r="Q33"/>
       <c r="R33" s="12"/>
       <c r="S33" s="27"/>
       <c r="T33" s="29"/>
@@ -2478,18 +2506,18 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="E34" s="8"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="59">
+      <c r="I34" s="58">
         <v>1008143</v>
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="55"/>
-      <c r="Q34" s="51" t="s">
-        <v>86</v>
+      <c r="M34" s="54"/>
+      <c r="Q34" t="s">
+        <v>181</v>
       </c>
       <c r="S34" s="27"/>
       <c r="T34" s="29"/>
@@ -2508,21 +2536,24 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="E35" s="8"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="59">
+      <c r="I35" s="58">
         <v>1985274</v>
       </c>
       <c r="K35" s="41"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="60">
+      <c r="M35" s="59">
         <v>9046103</v>
       </c>
       <c r="N35" s="14"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="52"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" t="s">
+        <v>182</v>
+      </c>
       <c r="R35" s="12"/>
       <c r="S35" s="27"/>
       <c r="T35" s="29"/>
@@ -2535,17 +2566,20 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>210</v>
+        <v>115</v>
+      </c>
+      <c r="I36" s="58" t="s">
+        <v>147</v>
       </c>
       <c r="L36" s="24"/>
-      <c r="M36" s="55"/>
+      <c r="M36" s="54"/>
+      <c r="Q36" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>54</v>
@@ -2553,19 +2587,19 @@
       <c r="F37" s="9"/>
       <c r="G37" s="40"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="59">
+      <c r="I37" s="58">
         <v>2416691</v>
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="56">
+      <c r="M37" s="55">
         <v>7217979</v>
       </c>
       <c r="N37" s="14"/>
       <c r="O37" s="26"/>
-      <c r="P37" s="52"/>
+      <c r="P37" s="51"/>
       <c r="Q37" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="27"/>
@@ -2585,7 +2619,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>55</v>
@@ -2594,9 +2628,9 @@
       <c r="G38" s="40"/>
       <c r="H38" s="23"/>
       <c r="L38" s="24"/>
-      <c r="M38" s="55"/>
-      <c r="Q38" s="51" t="s">
-        <v>102</v>
+      <c r="M38" s="54"/>
+      <c r="Q38" t="s">
+        <v>185</v>
       </c>
       <c r="S38" s="27"/>
       <c r="T38" s="29"/>
@@ -2611,7 +2645,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="E39" s="8">
         <v>93004</v>
@@ -2620,9 +2654,9 @@
       <c r="G39" s="9"/>
       <c r="H39" s="22"/>
       <c r="L39" s="24"/>
-      <c r="M39" s="55"/>
-      <c r="Q39" s="51" t="s">
-        <v>103</v>
+      <c r="M39" s="54"/>
+      <c r="Q39" t="s">
+        <v>186</v>
       </c>
       <c r="S39" s="27"/>
       <c r="T39" s="29"/>
@@ -2637,7 +2671,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>56</v>
@@ -2645,19 +2679,19 @@
       <c r="F40" s="9"/>
       <c r="G40" s="40"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="59">
+      <c r="I40" s="58">
         <v>8474538</v>
       </c>
       <c r="K40" s="41"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="60">
+      <c r="M40" s="59">
         <v>4425690</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="26"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="51" t="s">
-        <v>104</v>
+      <c r="P40" s="51"/>
+      <c r="Q40" t="s">
+        <v>187</v>
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="27"/>
@@ -2677,7 +2711,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>57</v>
@@ -2685,17 +2719,17 @@
       <c r="F41" s="9"/>
       <c r="G41" s="40"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="59">
+      <c r="I41" s="58">
         <v>3629433</v>
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="60">
+      <c r="M41" s="59">
         <v>2326445</v>
       </c>
       <c r="O41" s="26"/>
       <c r="Q41" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="S41" s="27"/>
       <c r="T41" s="29"/>
@@ -2711,7 +2745,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>58</v>
@@ -2720,7 +2754,10 @@
       <c r="G42" s="40"/>
       <c r="H42" s="23"/>
       <c r="L42" s="24"/>
-      <c r="M42" s="55"/>
+      <c r="M42" s="54"/>
+      <c r="Q42" t="s">
+        <v>188</v>
+      </c>
       <c r="R42" s="12"/>
       <c r="S42" s="27"/>
       <c r="T42" s="29"/>
@@ -2736,7 +2773,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>23</v>
@@ -2744,18 +2781,18 @@
       <c r="F43" s="9"/>
       <c r="G43" s="40"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="59" t="s">
-        <v>211</v>
+      <c r="I43" s="58" t="s">
+        <v>148</v>
       </c>
       <c r="L43" s="24"/>
-      <c r="M43" s="60">
+      <c r="M43" s="59">
         <v>6579288</v>
       </c>
       <c r="N43" s="14"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="51" t="s">
-        <v>78</v>
+      <c r="P43" s="51"/>
+      <c r="Q43" t="s">
+        <v>189</v>
       </c>
       <c r="R43" s="12"/>
       <c r="S43" s="27"/>
@@ -2775,7 +2812,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="E44" s="8">
         <v>75778</v>
@@ -2783,14 +2820,14 @@
       <c r="F44" s="9"/>
       <c r="G44" s="40"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="59">
+      <c r="I44" s="58">
         <v>2005346</v>
       </c>
       <c r="K44" s="16"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="Q44" s="51" t="s">
-        <v>91</v>
+      <c r="L44" s="53"/>
+      <c r="M44" s="54"/>
+      <c r="Q44" t="s">
+        <v>190</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="27"/>
@@ -2810,7 +2847,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>44</v>
@@ -2818,18 +2855,18 @@
       <c r="F45" s="9"/>
       <c r="G45" s="40"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="59" t="s">
-        <v>212</v>
+      <c r="I45" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="L45" s="24"/>
-      <c r="M45" s="60">
+      <c r="M45" s="59">
         <v>6114656</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="51" t="s">
-        <v>92</v>
+      <c r="P45" s="51"/>
+      <c r="Q45" t="s">
+        <v>191</v>
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="27"/>
@@ -2849,7 +2886,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>45</v>
@@ -2857,11 +2894,14 @@
       <c r="F46" s="9"/>
       <c r="G46" s="40"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="59">
+      <c r="I46" s="58">
         <v>2219111</v>
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="16"/>
+      <c r="Q46" t="s">
+        <v>192</v>
+      </c>
       <c r="S46" s="27"/>
       <c r="T46" s="29"/>
       <c r="V46" s="37"/>
@@ -2875,7 +2915,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>12</v>
@@ -2883,15 +2923,15 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="22"/>
-      <c r="I47" s="59">
+      <c r="I47" s="58">
         <v>2004547</v>
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="55"/>
+      <c r="M47" s="54"/>
       <c r="O47" s="26"/>
-      <c r="Q47" s="51" t="s">
-        <v>71</v>
+      <c r="Q47" t="s">
+        <v>193</v>
       </c>
       <c r="R47" s="12"/>
       <c r="S47" s="27"/>
@@ -2919,14 +2959,14 @@
       <c r="F48" s="9"/>
       <c r="G48" s="40"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="59">
+      <c r="I48" s="58">
         <v>1290469</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="55"/>
+      <c r="M48" s="54"/>
       <c r="Q48" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="R48" s="12"/>
       <c r="S48" s="27"/>
@@ -2952,15 +2992,15 @@
       <c r="F49" s="9"/>
       <c r="G49" s="40"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="59">
+      <c r="I49" s="58">
         <v>1008168</v>
       </c>
       <c r="K49" s="41"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="55"/>
+      <c r="M49" s="54"/>
       <c r="O49" s="26"/>
       <c r="Q49" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="R49" s="12"/>
       <c r="S49" s="27"/>
@@ -2988,17 +3028,17 @@
       <c r="F50" s="9"/>
       <c r="G50" s="40"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="59">
+      <c r="I50" s="58">
         <v>2252039</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="57">
+      <c r="M50" s="56">
         <v>5384284</v>
       </c>
       <c r="O50" s="26"/>
       <c r="Q50" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="27"/>
@@ -3026,19 +3066,19 @@
       <c r="F51" s="9"/>
       <c r="G51" s="40"/>
       <c r="H51" s="23"/>
-      <c r="I51" s="59">
+      <c r="I51" s="58">
         <v>1079425</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="57">
+      <c r="M51" s="56">
         <v>3114824</v>
       </c>
       <c r="N51" s="14"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="52"/>
+      <c r="P51" s="51"/>
       <c r="Q51" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="27"/>
@@ -3058,17 +3098,20 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I52" s="57">
+        <v>152</v>
+      </c>
+      <c r="I52" s="56">
         <v>2030393</v>
       </c>
       <c r="L52" s="24"/>
-      <c r="M52" s="55"/>
+      <c r="M52" s="54"/>
+      <c r="Q52" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="E53" s="8">
         <v>75104</v>
@@ -3076,14 +3119,14 @@
       <c r="F53" s="9"/>
       <c r="G53" s="40"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="59">
+      <c r="I53" s="58">
         <v>1164375</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="55"/>
+      <c r="M53" s="54"/>
       <c r="Q53" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="R53" s="12"/>
       <c r="S53" s="27"/>
@@ -3103,7 +3146,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="E54" s="8">
         <v>75736</v>
@@ -3111,19 +3154,19 @@
       <c r="F54" s="9"/>
       <c r="G54" s="40"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="59">
+      <c r="I54" s="58">
         <v>1354135</v>
       </c>
       <c r="K54" s="41"/>
       <c r="L54" s="16"/>
-      <c r="M54" s="63">
+      <c r="M54" s="62">
         <v>1457100</v>
       </c>
       <c r="N54" s="14"/>
       <c r="O54" s="26"/>
-      <c r="P54" s="52"/>
+      <c r="P54" s="51"/>
       <c r="Q54" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="R54" s="12"/>
       <c r="S54" s="27"/>
@@ -3143,7 +3186,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="E55" s="8">
         <v>74844</v>
@@ -3151,19 +3194,19 @@
       <c r="F55" s="9"/>
       <c r="G55" s="40"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="59">
+      <c r="I55" s="58">
         <v>9173196</v>
       </c>
       <c r="K55" s="41"/>
       <c r="L55" s="24"/>
-      <c r="M55" s="62">
+      <c r="M55" s="61">
         <v>2016442</v>
       </c>
       <c r="N55" s="14"/>
       <c r="O55" s="26"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="51" t="s">
-        <v>218</v>
+      <c r="P55" s="51"/>
+      <c r="Q55" t="s">
+        <v>201</v>
       </c>
       <c r="R55" s="12"/>
       <c r="S55" s="27"/>
@@ -3183,7 +3226,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="E56" s="8">
         <v>20340</v>
@@ -3191,14 +3234,14 @@
       <c r="F56" s="9"/>
       <c r="G56" s="40"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="59">
+      <c r="I56" s="58">
         <v>1182211</v>
       </c>
       <c r="K56" s="41"/>
       <c r="L56" s="16"/>
       <c r="O56" s="26"/>
       <c r="Q56" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S56" s="27"/>
       <c r="T56" s="29"/>
@@ -3213,7 +3256,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="E57" s="8">
         <v>20478</v>
@@ -3221,19 +3264,19 @@
       <c r="F57" s="9"/>
       <c r="G57" s="40"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="59">
+      <c r="I57" s="58">
         <v>4868220</v>
       </c>
       <c r="K57" s="41"/>
       <c r="L57" s="16"/>
-      <c r="M57" s="62">
+      <c r="M57" s="61">
         <v>6419329</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="26"/>
-      <c r="P57" s="52"/>
+      <c r="P57" s="51"/>
       <c r="Q57" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="R57" s="12"/>
       <c r="S57" s="27"/>
@@ -3253,7 +3296,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E58" s="8">
         <v>34298</v>
@@ -3261,15 +3304,15 @@
       <c r="F58" s="9"/>
       <c r="G58" s="40"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="59">
+      <c r="I58" s="58">
         <v>3758778</v>
       </c>
       <c r="K58" s="41"/>
       <c r="L58" s="16"/>
-      <c r="M58" s="55"/>
+      <c r="M58" s="54"/>
       <c r="O58" s="26"/>
       <c r="Q58" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="27"/>
@@ -3289,7 +3332,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>38</v>
@@ -3297,16 +3340,16 @@
       <c r="F59" s="9"/>
       <c r="G59" s="40"/>
       <c r="H59" s="23"/>
-      <c r="I59" s="59">
+      <c r="I59" s="58">
         <v>6056907</v>
       </c>
       <c r="K59" s="41"/>
       <c r="L59" s="16"/>
       <c r="N59" s="14"/>
       <c r="O59" s="26"/>
-      <c r="P59" s="52"/>
+      <c r="P59" s="51"/>
       <c r="Q59" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="R59" s="12"/>
       <c r="S59" s="27"/>
@@ -3326,7 +3369,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>43</v>
@@ -3334,19 +3377,19 @@
       <c r="F60" s="9"/>
       <c r="G60" s="40"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="59">
+      <c r="I60" s="58">
         <v>7350788</v>
       </c>
       <c r="K60" s="41"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="62">
+      <c r="M60" s="61">
         <v>1326438</v>
       </c>
       <c r="N60" s="14"/>
       <c r="O60" s="26"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="51" t="s">
-        <v>90</v>
+      <c r="P60" s="51"/>
+      <c r="Q60" t="s">
+        <v>206</v>
       </c>
       <c r="S60" s="27"/>
       <c r="T60" s="29"/>
@@ -3365,7 +3408,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>39</v>
@@ -3373,17 +3416,17 @@
       <c r="F61" s="9"/>
       <c r="G61" s="40"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="59">
+      <c r="I61" s="58">
         <v>8313967</v>
       </c>
       <c r="K61" s="41"/>
       <c r="L61" s="16"/>
-      <c r="M61" s="56"/>
+      <c r="M61" s="55"/>
       <c r="N61" s="14"/>
       <c r="O61" s="26"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="51" t="s">
-        <v>88</v>
+      <c r="P61" s="51"/>
+      <c r="Q61" t="s">
+        <v>207</v>
       </c>
       <c r="R61" s="12"/>
       <c r="S61" s="27"/>
@@ -3403,7 +3446,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>40</v>
@@ -3412,7 +3455,10 @@
       <c r="G62" s="40"/>
       <c r="H62" s="23"/>
       <c r="L62" s="24"/>
-      <c r="M62" s="55"/>
+      <c r="M62" s="54"/>
+      <c r="Q62" t="s">
+        <v>208</v>
+      </c>
       <c r="S62" s="27"/>
       <c r="T62" s="29"/>
       <c r="U62" s="34">
@@ -3430,19 +3476,19 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I63" s="59" t="s">
-        <v>213</v>
+        <v>70</v>
+      </c>
+      <c r="I63" s="58" t="s">
+        <v>150</v>
       </c>
       <c r="L63" s="24"/>
       <c r="Q63" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>41</v>
@@ -3450,19 +3496,19 @@
       <c r="F64" s="9"/>
       <c r="G64" s="40"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="59">
+      <c r="I64" s="58">
         <v>1094721</v>
       </c>
       <c r="K64" s="41"/>
       <c r="L64" s="16"/>
-      <c r="M64" s="62">
+      <c r="M64" s="61">
         <v>8326696</v>
       </c>
       <c r="N64" s="14"/>
       <c r="O64" s="26"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="51" t="s">
-        <v>89</v>
+      <c r="P64" s="51"/>
+      <c r="Q64" t="s">
+        <v>210</v>
       </c>
       <c r="R64" s="12"/>
       <c r="S64" s="27"/>
@@ -3482,7 +3528,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>42</v>
@@ -3490,12 +3536,15 @@
       <c r="F65" s="9"/>
       <c r="G65" s="40"/>
       <c r="H65" s="23"/>
-      <c r="I65" s="59">
+      <c r="I65" s="58">
         <v>6846554</v>
       </c>
       <c r="K65" s="41"/>
       <c r="L65" s="16"/>
-      <c r="M65" s="55"/>
+      <c r="M65" s="54"/>
+      <c r="Q65" t="s">
+        <v>211</v>
+      </c>
       <c r="S65" s="27"/>
       <c r="T65" s="29"/>
       <c r="V65" s="37"/>
@@ -3509,36 +3558,36 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I66" s="59" t="s">
-        <v>214</v>
+        <v>138</v>
+      </c>
+      <c r="I66" s="58" t="s">
+        <v>151</v>
       </c>
       <c r="L66" s="24"/>
-      <c r="M66" s="55"/>
-      <c r="Q66" s="12" t="s">
-        <v>222</v>
+      <c r="M66" s="54"/>
+      <c r="Q66" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="L67" s="24"/>
-      <c r="M67" s="55"/>
-      <c r="Q67" s="12" t="s">
-        <v>223</v>
+      <c r="M67" s="54"/>
+      <c r="Q67" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="H68" s="22"/>
       <c r="L68" s="24"/>
-      <c r="M68" s="55"/>
+      <c r="M68" s="54"/>
       <c r="Q68" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="S68" s="27"/>
       <c r="T68" s="29"/>
@@ -3546,14 +3595,14 @@
       <c r="W68" s="32"/>
       <c r="X68" s="31"/>
       <c r="Y68" s="43" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="AA68" s="45"/>
       <c r="AB68" s="46"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E69" s="8">
         <v>78424</v>
@@ -3561,16 +3610,16 @@
       <c r="F69" s="9"/>
       <c r="G69" s="40"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="59">
+      <c r="I69" s="58">
         <v>1008382</v>
       </c>
       <c r="K69" s="41"/>
       <c r="L69" s="16"/>
-      <c r="M69" s="55"/>
+      <c r="M69" s="54"/>
       <c r="N69" s="14"/>
       <c r="O69" s="26"/>
-      <c r="Q69" s="51" t="s">
-        <v>106</v>
+      <c r="Q69" t="s">
+        <v>215</v>
       </c>
       <c r="R69" s="12"/>
       <c r="S69" s="27"/>
@@ -3590,7 +3639,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="E70" s="8">
         <v>75310</v>
@@ -3598,14 +3647,14 @@
       <c r="F70" s="9"/>
       <c r="G70" s="40"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="59">
+      <c r="I70" s="58">
         <v>4249389</v>
       </c>
       <c r="K70" s="41"/>
       <c r="L70" s="16"/>
-      <c r="M70" s="55"/>
-      <c r="Q70" s="51" t="s">
-        <v>107</v>
+      <c r="M70" s="54"/>
+      <c r="Q70" t="s">
+        <v>216</v>
       </c>
       <c r="R70" s="12"/>
       <c r="S70" s="27"/>
@@ -3625,7 +3674,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3637,12 +3686,12 @@
       <c r="G71" s="40"/>
       <c r="H71" s="23"/>
       <c r="L71" s="24"/>
-      <c r="M71" s="55"/>
+      <c r="M71" s="54"/>
       <c r="N71" s="14"/>
       <c r="O71" s="26"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" t="s">
-        <v>183</v>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="82" t="s">
+        <v>217</v>
       </c>
       <c r="R71" s="12"/>
       <c r="S71" s="27"/>
@@ -3662,7 +3711,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="E72" s="8">
         <v>70646</v>
@@ -3670,19 +3719,19 @@
       <c r="F72" s="9"/>
       <c r="G72" s="40"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="59">
+      <c r="I72" s="58">
         <v>1420330</v>
       </c>
       <c r="K72" s="41"/>
       <c r="L72" s="16"/>
-      <c r="M72" s="56">
+      <c r="M72" s="55">
         <v>1028511</v>
       </c>
       <c r="N72" s="14"/>
       <c r="O72" s="26"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="51" t="s">
-        <v>93</v>
+      <c r="P72" s="51"/>
+      <c r="Q72" t="s">
+        <v>218</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="27"/>
@@ -3702,7 +3751,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>48</v>
@@ -3710,19 +3759,19 @@
       <c r="F73" s="9"/>
       <c r="G73" s="40"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="59">
+      <c r="I73" s="58">
         <v>9927799</v>
       </c>
       <c r="K73" s="41"/>
       <c r="L73" s="16"/>
-      <c r="M73" s="56">
+      <c r="M73" s="55">
         <v>2012150</v>
       </c>
       <c r="N73" s="14"/>
       <c r="O73" s="26"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="51" t="s">
-        <v>95</v>
+      <c r="P73" s="51"/>
+      <c r="Q73" t="s">
+        <v>219</v>
       </c>
       <c r="R73" s="12"/>
       <c r="S73" s="27"/>
@@ -3742,7 +3791,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="E74" s="8">
         <v>75336</v>
@@ -3750,19 +3799,19 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="22"/>
-      <c r="I74" s="59">
+      <c r="I74" s="58">
         <v>1745161</v>
       </c>
       <c r="K74" s="41"/>
       <c r="L74" s="16"/>
-      <c r="M74" s="56">
+      <c r="M74" s="55">
         <v>1028515</v>
       </c>
       <c r="N74" s="14"/>
       <c r="O74" s="26"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="51" t="s">
-        <v>94</v>
+      <c r="P74" s="51"/>
+      <c r="Q74" t="s">
+        <v>220</v>
       </c>
       <c r="S74" s="27"/>
       <c r="T74" s="29"/>
@@ -3781,7 +3830,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>47</v>
@@ -3789,12 +3838,15 @@
       <c r="F75" s="9"/>
       <c r="G75" s="40"/>
       <c r="H75" s="23"/>
-      <c r="I75" s="59">
+      <c r="I75" s="58">
         <v>4615704</v>
       </c>
       <c r="K75" s="41"/>
       <c r="L75" s="16"/>
-      <c r="M75" s="55"/>
+      <c r="M75" s="54"/>
+      <c r="Q75" t="s">
+        <v>221</v>
+      </c>
       <c r="S75" s="27"/>
       <c r="T75" s="29"/>
       <c r="V75" s="37"/>
@@ -3808,7 +3860,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3817,9 +3869,10 @@
       <c r="F76" s="9"/>
       <c r="H76" s="22"/>
       <c r="L76" s="24"/>
-      <c r="M76" s="55"/>
+      <c r="M76" s="54"/>
       <c r="N76" s="14"/>
       <c r="O76" s="26"/>
+      <c r="Q76" s="82"/>
       <c r="R76" s="12"/>
       <c r="S76" s="27"/>
       <c r="T76" s="29"/>
@@ -3838,19 +3891,19 @@
       <c r="F77" s="9"/>
       <c r="G77" s="40"/>
       <c r="H77" s="23"/>
-      <c r="I77" s="59">
+      <c r="I77" s="58">
         <v>7413057</v>
       </c>
       <c r="K77" s="41"/>
       <c r="L77" s="16"/>
-      <c r="M77" s="56">
+      <c r="M77" s="55">
         <v>4221933</v>
       </c>
       <c r="N77" s="14"/>
       <c r="O77" s="26"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="51" t="s">
-        <v>96</v>
+      <c r="P77" s="51"/>
+      <c r="Q77" t="s">
+        <v>222</v>
       </c>
       <c r="R77" s="12"/>
       <c r="S77" s="27"/>
@@ -3867,7 +3920,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E78" s="8">
         <v>77278</v>
@@ -3876,9 +3929,9 @@
       <c r="G78" s="40"/>
       <c r="H78" s="23"/>
       <c r="L78" s="24"/>
-      <c r="M78" s="55"/>
-      <c r="Q78" s="51" t="s">
-        <v>97</v>
+      <c r="M78" s="54"/>
+      <c r="Q78" t="s">
+        <v>223</v>
       </c>
       <c r="R78" s="12"/>
       <c r="S78" s="27"/>
@@ -3895,7 +3948,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>50</v>
@@ -3904,6 +3957,7 @@
       <c r="G79" s="40"/>
       <c r="H79" s="23"/>
       <c r="L79" s="24"/>
+      <c r="Q79"/>
       <c r="S79" s="27"/>
       <c r="T79" s="29"/>
       <c r="V79" s="37"/>
@@ -3914,7 +3968,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>51</v>
@@ -3922,15 +3976,15 @@
       <c r="F80" s="9"/>
       <c r="G80" s="40"/>
       <c r="H80" s="23"/>
-      <c r="I80" s="59">
+      <c r="I80" s="58">
         <v>1313154</v>
       </c>
       <c r="K80" s="41"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="55"/>
+      <c r="M80" s="54"/>
       <c r="O80" s="26"/>
-      <c r="Q80" s="51" t="s">
-        <v>98</v>
+      <c r="Q80" t="s">
+        <v>224</v>
       </c>
       <c r="R80" s="12"/>
       <c r="S80" s="27"/>
@@ -3950,7 +4004,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E81" s="8">
         <v>34768</v>
@@ -3958,19 +4012,19 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="22"/>
-      <c r="I81" s="59">
+      <c r="I81" s="58">
         <v>8481756</v>
       </c>
       <c r="K81" s="41"/>
       <c r="L81" s="16"/>
-      <c r="M81" s="56">
+      <c r="M81" s="55">
         <v>8010498</v>
       </c>
       <c r="N81" s="14"/>
       <c r="O81" s="26"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="51" t="s">
-        <v>99</v>
+      <c r="P81" s="51"/>
+      <c r="Q81" t="s">
+        <v>225</v>
       </c>
       <c r="R81" s="12"/>
       <c r="S81" s="27"/>
@@ -3990,7 +4044,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>52</v>
@@ -3998,15 +4052,15 @@
       <c r="F82" s="9"/>
       <c r="G82" s="40"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="59">
+      <c r="I82" s="58">
         <v>1008465</v>
       </c>
       <c r="K82" s="41"/>
       <c r="L82" s="16"/>
-      <c r="M82" s="55"/>
+      <c r="M82" s="54"/>
       <c r="O82" s="26"/>
-      <c r="Q82" s="51" t="s">
-        <v>100</v>
+      <c r="Q82" t="s">
+        <v>226</v>
       </c>
       <c r="S82" s="27"/>
       <c r="T82" s="29"/>
@@ -4021,12 +4075,12 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="L83" s="24"/>
-      <c r="M83" s="55"/>
-      <c r="Q83" s="12" t="s">
-        <v>224</v>
+      <c r="M83" s="54"/>
+      <c r="Q83" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
@@ -4038,14 +4092,14 @@
       </c>
       <c r="F84" s="9"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="59">
+      <c r="I84" s="58">
         <v>6894232</v>
       </c>
       <c r="K84" s="41"/>
       <c r="L84" s="16"/>
-      <c r="M84" s="55"/>
-      <c r="Q84" s="51" t="s">
-        <v>101</v>
+      <c r="M84" s="54"/>
+      <c r="Q84" t="s">
+        <v>228</v>
       </c>
       <c r="R84" s="12"/>
       <c r="S84" s="27"/>
@@ -4062,31 +4116,34 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="L85" s="24"/>
-      <c r="M85" s="55"/>
+      <c r="M85" s="54"/>
+      <c r="Q85" t="s">
+        <v>229</v>
+      </c>
       <c r="Y85" s="43" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="H86" s="22"/>
       <c r="L86" s="24"/>
-      <c r="M86" s="55"/>
+      <c r="M86" s="54"/>
       <c r="Q86" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="Y86" s="43" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E87" s="8">
         <v>78126</v>
@@ -4094,19 +4151,19 @@
       <c r="F87" s="9"/>
       <c r="G87" s="40"/>
       <c r="H87" s="23"/>
-      <c r="I87" s="59">
+      <c r="I87" s="58">
         <v>2036598</v>
       </c>
       <c r="K87" s="41"/>
       <c r="L87" s="16"/>
-      <c r="M87" s="56">
+      <c r="M87" s="55">
         <v>4074472</v>
       </c>
       <c r="N87" s="14"/>
       <c r="O87" s="26"/>
-      <c r="P87" s="52"/>
+      <c r="P87" s="51"/>
       <c r="Q87" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="R87" s="12"/>
       <c r="S87" s="27"/>
@@ -4126,7 +4183,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E88" s="8">
         <v>39142</v>
@@ -4134,18 +4191,18 @@
       <c r="F88" s="9"/>
       <c r="G88" s="40"/>
       <c r="H88" s="23"/>
-      <c r="I88" s="59">
+      <c r="I88" s="58">
         <v>6235501</v>
       </c>
       <c r="K88" s="41"/>
       <c r="L88" s="16"/>
-      <c r="M88" s="57">
+      <c r="M88" s="56">
         <v>1205582</v>
       </c>
       <c r="N88" s="14"/>
       <c r="O88" s="26"/>
-      <c r="Q88" s="51" t="s">
-        <v>105</v>
+      <c r="Q88" t="s">
+        <v>232</v>
       </c>
       <c r="R88" s="12"/>
       <c r="S88" s="27"/>
@@ -4165,7 +4222,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>59</v>
@@ -4173,19 +4230,19 @@
       <c r="F89" s="9"/>
       <c r="G89" s="40"/>
       <c r="H89" s="23"/>
-      <c r="I89" s="59">
+      <c r="I89" s="58">
         <v>1763432</v>
       </c>
       <c r="K89" s="41"/>
       <c r="L89" s="16"/>
-      <c r="M89" s="56">
+      <c r="M89" s="55">
         <v>9007303</v>
       </c>
       <c r="N89" s="14"/>
       <c r="O89" s="26"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="51" t="s">
-        <v>109</v>
+      <c r="P89" s="51"/>
+      <c r="Q89" t="s">
+        <v>233</v>
       </c>
       <c r="R89" s="12"/>
       <c r="S89" s="27"/>
@@ -4205,7 +4262,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="E90" s="8">
         <v>76800</v>
@@ -4213,19 +4270,19 @@
       <c r="F90" s="9"/>
       <c r="G90" s="40"/>
       <c r="H90" s="23"/>
-      <c r="I90" s="59">
+      <c r="I90" s="58">
         <v>6017263</v>
       </c>
       <c r="K90" s="41"/>
       <c r="L90" s="16"/>
-      <c r="M90" s="56">
+      <c r="M90" s="55">
         <v>6264014</v>
       </c>
       <c r="N90" s="14"/>
       <c r="O90" s="26"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="51" t="s">
-        <v>108</v>
+      <c r="P90" s="51"/>
+      <c r="Q90" t="s">
+        <v>234</v>
       </c>
       <c r="R90" s="12"/>
       <c r="S90" s="27"/>
@@ -4245,54 +4302,54 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I91" s="61"/>
+        <v>140</v>
+      </c>
+      <c r="I91" s="60"/>
       <c r="L91" s="24"/>
-      <c r="M91" s="55"/>
-      <c r="Q91" s="12" t="s">
-        <v>225</v>
+      <c r="M91" s="54"/>
+      <c r="Q91" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L92" s="24"/>
-      <c r="M92" s="55"/>
+      <c r="M92" s="54"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L93" s="24"/>
-      <c r="M93" s="55"/>
+      <c r="M93" s="54"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L94" s="24"/>
-      <c r="M94" s="55"/>
+      <c r="M94" s="54"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L95" s="24"/>
-      <c r="M95" s="55"/>
+      <c r="M95" s="54"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L96" s="24"/>
-      <c r="M96" s="55"/>
+      <c r="M96" s="54"/>
     </row>
     <row r="97" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L97" s="24"/>
-      <c r="M97" s="55"/>
+      <c r="M97" s="54"/>
     </row>
     <row r="98" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L98" s="24"/>
-      <c r="M98" s="55"/>
+      <c r="M98" s="54"/>
     </row>
     <row r="99" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L99" s="24"/>
-      <c r="M99" s="55"/>
+      <c r="M99" s="54"/>
     </row>
     <row r="100" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L100" s="24"/>
-      <c r="M100" s="55"/>
+      <c r="M100" s="54"/>
     </row>
     <row r="101" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L101" s="24"/>
-      <c r="M101" s="55"/>
+      <c r="M101" s="54"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB91">
